--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\바탕 화면\코딩\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FDC22F-3CA6-4E2A-A10A-49C2778B02B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E957D430-FBFF-4F7D-AFEA-301216197B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\IdeaProjects\AlgorithmStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E957D430-FBFF-4F7D-AFEA-301216197B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,113 +59,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS/BFS (한 문제는 꼭 나옴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9012 (스택 &amp; 문자열)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2164 (큐) 문제에서 FIFO 파악 poll, peek, add 메소드 용도 파악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10773 (스택) 문제에서 LIFO 파악, push, pop 메소드 용도 파악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10845 (큐) - Queue클래스 메소드, 전역, 지역변수, StringTokenizer 개념 숙지하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS/BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(한 문제는 꼭 나옴!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP(Dynamic Programming)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1158 (큐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1120 (문자열)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11724 (DFS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>백준 10816, 백준 1439, 백준 10799, 백준 1992, 백준 9012, 백준 2447, 백준 10101, 백준 14503, 백준 3040, 백준 11403, 백준 11651, 백준 1789, 백준 15649, 백준 15650, 백준 11497, 프로그래머스 42895, 백준 9663, 백준 2630, 백준 1446, 백준 1094, 백준 4307, 백준 4485, 백준 1520, 백준 9084, 백준 11758, 백준 1991, 백준 17779, 백준 11053, 백준 13869, 백준 9251, 백준 1766, 백준 11725, 백준 10845, 백준 1004, 백준 4256, 백준 11724, 백준 1337, 백준 7490, 백준 2022, 백준 1340, 백준 17140, 백준 1389, 백준 1158, 백준 1316, 백준 10815, 백준 17266, 백준 7795, 백준 11054, 백준 8958, 백준 7576, 백준 1912, 백준 9020, 백준 16236, 백준 1167, 백준 2437, 백준 15686, 백준 9095, 백준 1194, 백준 25644, 백준 2170, 백준 1922, 백준 17070, 백준 1525, 백준 18352, 백준 1918, 백준 14725, 백준 7569, 백준 2887, 백준 12015, 백준 1007, 백준 1197, 백준 10942, 백준 1509, 백준 1194, 백준 1562, 백준 1799</t>
-  </si>
-  <si>
-    <t>탐색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFS/BFS (한 문제는 꼭 나옴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9012 (스택 &amp; 문자열)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2164 (큐) 문제에서 FIFO 파악 poll, peek, add 메소드 용도 파악</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10773 (스택) 문제에서 LIFO 파악, push, pop 메소드 용도 파악</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10845 (큐) - Queue클래스 메소드, 전역, 지역변수, StringTokenizer 개념 숙지하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해싱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파싱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFS/BFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(한 문제는 꼭 나옴!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DP(Dynamic Programming)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1158 (큐)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1120 (문자열)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,7 +253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -271,6 +279,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -598,11 +609,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -618,16 +629,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -646,21 +657,21 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>240430</v>
@@ -682,9 +693,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>240502</v>
@@ -706,9 +717,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>240502</v>
@@ -730,9 +741,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>240507</v>
@@ -741,10 +752,10 @@
         <v>240508</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2">
         <v>240517</v>
@@ -754,9 +765,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
         <v>240517</v>
@@ -770,9 +781,9 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2">
         <v>240517</v>
@@ -785,23 +796,26 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>11724</v>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="9">
+        <v>240522</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
+      <c r="A10" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -816,7 +830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7DE8D4-55D6-4D0F-A0F0-BE830A70EFFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -831,80 +845,80 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -917,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -929,7 +943,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>힙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,6 +164,14 @@
   </si>
   <si>
     <t>백준 10816, 백준 1439, 백준 10799, 백준 1992, 백준 9012, 백준 2447, 백준 10101, 백준 14503, 백준 3040, 백준 11403, 백준 11651, 백준 1789, 백준 15649, 백준 15650, 백준 11497, 프로그래머스 42895, 백준 9663, 백준 2630, 백준 1446, 백준 1094, 백준 4307, 백준 4485, 백준 1520, 백준 9084, 백준 11758, 백준 1991, 백준 17779, 백준 11053, 백준 13869, 백준 9251, 백준 1766, 백준 11725, 백준 10845, 백준 1004, 백준 4256, 백준 11724, 백준 1337, 백준 7490, 백준 2022, 백준 1340, 백준 17140, 백준 1389, 백준 1158, 백준 1316, 백준 10815, 백준 17266, 백준 7795, 백준 11054, 백준 8958, 백준 7576, 백준 1912, 백준 9020, 백준 16236, 백준 1167, 백준 2437, 백준 15686, 백준 9095, 백준 1194, 백준 25644, 백준 2170, 백준 1922, 백준 17070, 백준 1525, 백준 18352, 백준 1918, 백준 14725, 백준 7569, 백준 2887, 백준 12015, 백준 1007, 백준 1197, 백준 10942, 백준 1509, 백준 1194, 백준 1562, 백준 1799</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2178 (BFS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택/큐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -279,6 +283,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -610,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -629,16 +639,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -667,7 +677,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -693,7 +703,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -717,7 +727,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -741,7 +751,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -752,10 +762,10 @@
         <v>240508</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2">
         <v>240517</v>
@@ -765,9 +775,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2">
         <v>240517</v>
@@ -781,9 +791,9 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2">
         <v>240517</v>
@@ -793,35 +803,45 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="9">
         <v>240522</v>
       </c>
+      <c r="D9" s="10">
+        <v>240523</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>33</v>
+      <c r="A10" s="14"/>
+      <c r="B10" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
+      <c r="A11" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -834,7 +854,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -845,10 +865,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -856,11 +876,11 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -868,41 +888,41 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -910,15 +930,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +963,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -167,11 +167,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2178 (BFS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스택/큐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1260 (DFS/BFS 뼈대문제임 잘 숙지하기!)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,6 +283,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -623,7 +629,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -639,16 +645,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -677,7 +683,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -703,7 +709,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -727,7 +733,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -751,7 +757,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -775,7 +781,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
@@ -785,13 +791,15 @@
       <c r="D7" s="2">
         <v>240521</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="13">
+        <v>240524</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
@@ -803,7 +811,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -817,9 +825,12 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C10" s="12">
+        <v>240524</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -880,7 +891,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -888,31 +899,31 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -257,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,6 +283,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -645,16 +648,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -683,7 +686,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -709,7 +712,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -733,7 +736,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -757,7 +760,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -781,7 +784,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
@@ -799,7 +802,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
@@ -809,9 +812,12 @@
       <c r="D8" s="2">
         <v>240521</v>
       </c>
+      <c r="E8" s="14">
+        <v>240524</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -825,7 +831,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
@@ -891,7 +897,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -899,31 +905,31 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -257,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,6 +283,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -631,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -648,16 +654,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -686,7 +692,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -712,7 +718,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -736,7 +742,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -760,7 +766,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -784,7 +790,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
@@ -797,12 +803,14 @@
       <c r="E7" s="13">
         <v>240524</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="15">
+        <v>240527</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
@@ -815,9 +823,12 @@
       <c r="E8" s="14">
         <v>240524</v>
       </c>
+      <c r="F8" s="15">
+        <v>240527</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -829,14 +840,20 @@
       <c r="D9" s="10">
         <v>240523</v>
       </c>
+      <c r="E9" s="15">
+        <v>240527</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="12">
         <v>240524</v>
+      </c>
+      <c r="D10" s="16">
+        <v>240527</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -897,7 +914,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -905,31 +922,31 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\IdeaProjects\AlgorithmStudy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C1A314-95C6-45D8-BD25-14C1460FF23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,11 +175,15 @@
     <t>1260 (DFS/BFS 뼈대문제임 잘 숙지하기!)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2178 (BFS 활용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,30 +288,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -634,11 +615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -654,16 +635,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -692,7 +673,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -718,7 +699,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -742,7 +723,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -766,7 +747,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -790,7 +771,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
@@ -800,17 +781,17 @@
       <c r="D7" s="2">
         <v>240521</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="2">
         <v>240524</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="2">
         <v>240527</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
@@ -820,54 +801,63 @@
       <c r="D8" s="2">
         <v>240521</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="2">
         <v>240524</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="2">
         <v>240527</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="2">
         <v>240522</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="2">
         <v>240523</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="2">
         <v>240527</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="2">
         <v>240524</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="2">
         <v>240527</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>32</v>
+      <c r="A11" s="11"/>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2">
+        <v>240528</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -875,7 +865,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -884,7 +874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -914,7 +904,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -922,31 +912,31 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
@@ -985,7 +975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\IdeaProjects\AlgorithmStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C1A314-95C6-45D8-BD25-14C1460FF23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -183,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,6 +287,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -615,11 +617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -635,16 +637,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -673,7 +675,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -699,7 +701,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -723,7 +725,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -747,7 +749,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -771,7 +773,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
@@ -791,7 +793,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
@@ -809,7 +811,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -824,9 +826,12 @@
       <c r="E9" s="2">
         <v>240527</v>
       </c>
+      <c r="F9" s="9">
+        <v>240528</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
@@ -836,13 +841,19 @@
       <c r="D10" s="2">
         <v>240527</v>
       </c>
+      <c r="E10" s="9">
+        <v>240528</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="9">
+        <v>240527</v>
+      </c>
+      <c r="D11" s="9">
         <v>240528</v>
       </c>
     </row>
@@ -874,7 +885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -904,7 +915,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -912,31 +923,31 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
@@ -975,7 +986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,14 @@
   </si>
   <si>
     <t>2178 (BFS 활용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14425(List 또는 해시맵) - 해시맵 풀이 권장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2606 (DFS/BFS 둘 다 풀이 가능)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -287,6 +295,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -618,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -637,16 +654,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -675,7 +692,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -701,7 +718,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -725,7 +742,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -749,7 +766,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -773,7 +790,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
@@ -789,11 +806,13 @@
       <c r="F7" s="2">
         <v>240527</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="11">
+        <v>240530</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
@@ -809,74 +828,107 @@
       <c r="F8" s="2">
         <v>240527</v>
       </c>
+      <c r="G8" s="11">
+        <v>240530</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="9">
+        <v>240529</v>
+      </c>
+      <c r="D9" s="11">
+        <v>240530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="9">
         <v>240522</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="9">
         <v>240523</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="9">
         <v>240527</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <v>240528</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="9">
         <v>240524</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="9">
         <v>240527</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>240528</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="2" t="s">
+      <c r="F11" s="12">
+        <v>240530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C12" s="9">
         <v>240527</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="9">
         <v>240528</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="E12" s="12">
+        <v>240530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="10">
+        <v>240529</v>
+      </c>
+      <c r="D13" s="11">
+        <v>240530</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -915,7 +967,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -923,31 +975,31 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\IdeaProjects\AlgorithmStudy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2265CC4A-4CB9-46E1-94DC-25F483FBA596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9012 (스택 &amp; 문자열)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2164 (큐) 문제에서 FIFO 파악 poll, peek, add 메소드 용도 파악</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10845 (큐) - Queue클래스 메소드, 전역, 지역변수, StringTokenizer 개념 숙지하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>해싱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,13 +177,22 @@
   </si>
   <si>
     <t>2606 (DFS/BFS 둘 다 풀이 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9012 (스택 &amp; 문자열) -&gt; 큐도 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10845 (큐) - Queue클래스 메소드, 전역, 지역변수, StringTokenizer 개념 숙지하기 
++ for문 안/밖 변수 선언 및 초기화 개념 익히기 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -269,7 +271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,32 +296,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,11 +624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -654,16 +644,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -692,11 +682,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>240430</v>
@@ -718,9 +708,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>240502</v>
@@ -742,9 +732,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>240502</v>
@@ -765,10 +755,10 @@
         <v>240521</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
+    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="2">
         <v>240507</v>
@@ -776,11 +766,11 @@
       <c r="D6" s="2">
         <v>240508</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>28</v>
+      <c r="E6" s="2">
+        <v>240510</v>
+      </c>
+      <c r="F6" s="2">
+        <v>240513</v>
       </c>
       <c r="G6" s="2">
         <v>240517</v>
@@ -790,9 +780,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2">
         <v>240517</v>
@@ -806,15 +796,15 @@
       <c r="F7" s="2">
         <v>240527</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="2">
         <v>240530</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2">
         <v>240517</v>
@@ -828,90 +818,90 @@
       <c r="F8" s="2">
         <v>240527</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="2">
         <v>240530</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2">
         <v>240529</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="2">
         <v>240530</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2">
         <v>240522</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="2">
         <v>240523</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="2">
         <v>240527</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="2">
         <v>240528</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="A11" s="10"/>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2">
         <v>240524</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="2">
         <v>240527</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="2">
         <v>240528</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="2">
         <v>240530</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2">
+        <v>240527</v>
+      </c>
+      <c r="D12" s="2">
+        <v>240528</v>
+      </c>
+      <c r="E12" s="2">
+        <v>240530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="9">
-        <v>240527</v>
-      </c>
-      <c r="D12" s="9">
-        <v>240528</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="C13" s="2">
+        <v>240529</v>
+      </c>
+      <c r="D13" s="2">
         <v>240530</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="10">
-        <v>240529</v>
-      </c>
-      <c r="D13" s="11">
-        <v>240530</v>
-      </c>
-    </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>32</v>
+      <c r="A14" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -937,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -952,10 +942,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -963,53 +953,53 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1017,15 +1007,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +1028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1050,7 +1040,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2265CC4A-4CB9-46E1-94DC-25F483FBA596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF00EFD-3AB3-4724-BAC8-CF70E32A8461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,6 +296,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -307,9 +310,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,7 +628,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -644,16 +644,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -682,7 +682,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -708,7 +708,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -732,7 +732,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
@@ -756,8 +756,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="2">
@@ -780,7 +780,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -802,7 +802,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
@@ -823,7 +823,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
@@ -833,9 +833,12 @@
       <c r="D9" s="2">
         <v>240530</v>
       </c>
+      <c r="E9" s="2">
+        <v>240604</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -853,9 +856,12 @@
       <c r="F10" s="2">
         <v>240528</v>
       </c>
+      <c r="G10" s="2">
+        <v>240604</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
@@ -871,9 +877,12 @@
       <c r="F11" s="2">
         <v>240530</v>
       </c>
+      <c r="G11" s="2">
+        <v>240604</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
@@ -886,9 +895,12 @@
       <c r="E12" s="2">
         <v>240530</v>
       </c>
+      <c r="F12" s="2">
+        <v>240604</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
@@ -897,6 +909,9 @@
       </c>
       <c r="D13" s="2">
         <v>240530</v>
+      </c>
+      <c r="E13" s="2">
+        <v>240604</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -957,7 +972,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -965,31 +980,31 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF00EFD-3AB3-4724-BAC8-CF70E32A8461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F5EA1C-8826-43AA-BCE1-A7CB24C312AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,10 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>탐색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>백준 10816, 백준 1439, 백준 10799, 백준 1992, 백준 9012, 백준 2447, 백준 10101, 백준 14503, 백준 3040, 백준 11403, 백준 11651, 백준 1789, 백준 15649, 백준 15650, 백준 11497, 프로그래머스 42895, 백준 9663, 백준 2630, 백준 1446, 백준 1094, 백준 4307, 백준 4485, 백준 1520, 백준 9084, 백준 11758, 백준 1991, 백준 17779, 백준 11053, 백준 13869, 백준 9251, 백준 1766, 백준 11725, 백준 10845, 백준 1004, 백준 4256, 백준 11724, 백준 1337, 백준 7490, 백준 2022, 백준 1340, 백준 17140, 백준 1389, 백준 1158, 백준 1316, 백준 10815, 백준 17266, 백준 7795, 백준 11054, 백준 8958, 백준 7576, 백준 1912, 백준 9020, 백준 16236, 백준 1167, 백준 2437, 백준 15686, 백준 9095, 백준 1194, 백준 25644, 백준 2170, 백준 1922, 백준 17070, 백준 1525, 백준 18352, 백준 1918, 백준 14725, 백준 7569, 백준 2887, 백준 12015, 백준 1007, 백준 1197, 백준 10942, 백준 1509, 백준 1194, 백준 1562, 백준 1799</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,6 +182,14 @@
   <si>
     <t xml:space="preserve">10845 (큐) - Queue클래스 메소드, 전역, 지역변수, StringTokenizer 개념 숙지하기 
 + for문 안/밖 변수 선언 및 초기화 개념 익히기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이분 탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920 (이분탐색 시 중앙값 기준 왼쪽 오른쪽 나눌때 인덱스로 나눈다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,7 +632,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -686,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>240430</v>
@@ -758,7 +762,7 @@
     <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2">
         <v>240507</v>
@@ -825,7 +829,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2">
         <v>240529</v>
@@ -863,7 +867,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2">
         <v>240524</v>
@@ -884,7 +888,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2">
         <v>240527</v>
@@ -902,7 +906,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2">
         <v>240529</v>
@@ -916,7 +920,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2">
+        <v>240607</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -988,7 +998,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1055,7 +1065,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F5EA1C-8826-43AA-BCE1-A7CB24C312AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08522C35-14EF-46C9-B919-925A1369E89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,16 +180,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">10845 (큐) - Queue클래스 메소드, 전역, 지역변수, StringTokenizer 개념 숙지하기 
-+ for문 안/밖 변수 선언 및 초기화 개념 익히기 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이분 탐색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1920 (이분탐색 시 중앙값 기준 왼쪽 오른쪽 나눌때 인덱스로 나눈다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10845 (큐) - Queue클래스 메소드, 전역, 지역변수, StringTokenizer 개념 숙지하기 
++ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for문 안/밖 변수 선언 및 초기화 개념 익히기 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택 / 큐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS/BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘 하위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +266,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -275,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -313,6 +360,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,321 +679,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.875" customWidth="1"/>
-    <col min="2" max="2" width="76.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="25.25" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="1" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="69.125" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>240430</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>240501</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>240507</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>240508</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>240517</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>240521</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" s="2">
+        <v>240603</v>
+      </c>
+      <c r="K3" s="2">
+        <v>240612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>240502</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>240507</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>240508</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>240510</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>240517</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>240521</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" s="2">
+        <v>240603</v>
+      </c>
+      <c r="K4" s="2">
+        <v>240612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>240502</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>240507</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>240508</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>240510</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>240517</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>240521</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="J5" s="2">
+        <v>240603</v>
+      </c>
+      <c r="K5" s="2">
+        <v>240612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="11"/>
+      <c r="C6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2">
         <v>240507</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>240508</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>240510</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>240513</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>240517</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>240521</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6" s="2">
+        <v>240603</v>
+      </c>
+      <c r="K6" s="2">
+        <v>240612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>240517</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>240521</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>240524</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>240527</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>240530</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="2">
+        <v>240603</v>
+      </c>
+      <c r="J7" s="2">
+        <v>240612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>240517</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>240521</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>240524</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>240527</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>240530</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="2">
+        <v>240604</v>
+      </c>
+      <c r="J8" s="2">
+        <v>240612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>240529</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>240530</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>240604</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="2">
+        <v>240612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>240522</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>240523</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>240527</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>240528</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>240604</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="2">
+        <v>240612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>240524</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>240527</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>240528</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>240530</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>240604</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="2">
+        <v>240612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>240527</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>240528</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>240530</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>240604</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="2">
+        <v>240612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>240529</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>240530</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>240604</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="2">
+        <v>240612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>240607</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B16" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A13"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08522C35-14EF-46C9-B919-925A1369E89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E13677-4119-4EA0-B8D3-85459B339496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -679,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -740,10 +740,10 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="13"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -1048,39 +1048,63 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="2">
+        <v>2667</v>
+      </c>
+      <c r="D14" s="2">
+        <v>240613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>240607</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="E15" s="2">
+        <v>240612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="2">
+        <v>10816</v>
+      </c>
+      <c r="D16" s="2">
+        <v>240613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B14"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A13"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1119,7 +1143,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1127,31 +1151,31 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E13677-4119-4EA0-B8D3-85459B339496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E31B50D-53B8-46AE-B5DE-BB542BBB9EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,10 @@
   </si>
   <si>
     <t>알고리즘 하위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012 (연결요소의 개수 문제와 비슷함)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +686,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1050,8 +1054,8 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="2">
-        <v>2667</v>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D14" s="2">
         <v>240613</v>
@@ -1080,9 +1084,7 @@
       <c r="C16" s="2">
         <v>10816</v>
       </c>
-      <c r="D16" s="2">
-        <v>240613</v>
-      </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -1097,14 +1099,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:B7"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="B10:B14"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E31B50D-53B8-46AE-B5DE-BB542BBB9EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD8CEAD-98C2-4A6D-893B-9E09F3EE3E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,10 @@
   </si>
   <si>
     <t>1012 (연결요소의 개수 문제와 비슷함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10816 (lowerBound &amp; upperBound 함수 로직 익히기)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1081,10 +1085,12 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="2">
-        <v>10816</v>
-      </c>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2">
+        <v>240613</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD8CEAD-98C2-4A6D-893B-9E09F3EE3E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2AE5D2-66D8-4D37-ADBC-277388E35DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1920 (이분탐색 시 중앙값 기준 왼쪽 오른쪽 나눌때 인덱스로 나눈다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ETC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,11 +227,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1012 (연결요소의 개수 문제와 비슷함)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10816 (lowerBound &amp; upperBound 함수 로직 익히기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012 (연결요소의 개수 문제와 비슷함) - BFS 미로 형식 문제 숙지하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920 (이분탐색 시 중앙값 기준 왼쪽 오른쪽 나눌때 인덱스로 나눈다.)
+- dataSet 입력 후 오름차순 정렬 잊지말기!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +282,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -330,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -357,6 +366,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -690,7 +702,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -708,24 +720,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -748,17 +760,17 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="12"/>
+      <c r="J2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>41</v>
+      <c r="B3" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>36</v>
@@ -789,8 +801,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -820,8 +832,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -851,10 +863,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2">
         <v>240507</v>
@@ -882,8 +894,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -910,9 +922,9 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
@@ -940,9 +952,9 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>34</v>
@@ -959,13 +971,16 @@
       <c r="G9" s="2">
         <v>240612</v>
       </c>
+      <c r="H9" s="9">
+        <v>240617</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>44</v>
+      <c r="B10" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
@@ -990,8 +1005,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1015,8 +1030,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1037,8 +1052,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1054,26 +1069,32 @@
       <c r="G13" s="2">
         <v>240612</v>
       </c>
+      <c r="H13" s="9">
+        <v>240617</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="2">
         <v>240613</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="E14" s="9">
+        <v>240617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
+      <c r="C15" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="D15" s="2">
         <v>240607</v>
@@ -1081,15 +1102,21 @@
       <c r="E15" s="2">
         <v>240612</v>
       </c>
+      <c r="F15" s="9">
+        <v>240617</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2">
         <v>240613</v>
+      </c>
+      <c r="E16" s="9">
+        <v>240617</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1151,7 +1178,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1159,31 +1186,31 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2AE5D2-66D8-4D37-ADBC-277388E35DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CA5C3B-793A-4F55-8403-E65AB215CF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,10 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DFS/BFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>알고리즘 하위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,6 +233,16 @@
   <si>
     <t>1920 (이분탐색 시 중앙값 기준 왼쪽 오른쪽 나눌때 인덱스로 나눈다.)
 - dataSet 입력 후 오름차순 정렬 잊지말기!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10026(DFS/BFS 둘 다 풀이 가능)
+미로형식 문제, 미로형식 문제에서 0, 1 그 이상의 종류가 오면 어떻게 처리할 것인지 파악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS/BFS
+(그래프형식 / 미로형식 문제 잘 파악해서 풀기)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,9 +361,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -370,20 +373,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,16 +705,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="35.875" customWidth="1"/>
-    <col min="3" max="3" width="69.125" customWidth="1"/>
+    <col min="3" max="3" width="83.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.125" customWidth="1"/>
     <col min="5" max="5" width="18.375" customWidth="1"/>
     <col min="6" max="6" width="19.875" customWidth="1"/>
@@ -720,24 +726,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -760,16 +766,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="13"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -801,8 +807,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -832,8 +838,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -863,9 +869,9 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="2">
@@ -894,8 +900,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -922,7 +928,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
@@ -952,7 +958,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
@@ -971,16 +977,16 @@
       <c r="G9" s="2">
         <v>240612</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>240617</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>43</v>
+      <c r="B10" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
@@ -1005,8 +1011,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1028,10 +1034,13 @@
       <c r="I11" s="2">
         <v>240612</v>
       </c>
+      <c r="J11" s="2">
+        <v>240618</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1052,8 +1061,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1069,64 +1078,83 @@
       <c r="G13" s="2">
         <v>240612</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>240617</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2">
         <v>240613</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>240617</v>
       </c>
+      <c r="F14" s="8">
+        <v>240618</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="8">
+        <v>240618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2">
         <v>240607</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>240612</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="8">
         <v>240617</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="G16" s="8">
+        <v>240618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2">
         <v>240613</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="8">
         <v>240617</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="F17" s="8">
+        <v>240618</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1136,10 +1164,10 @@
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1152,7 +1180,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1173,12 +1201,12 @@
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1186,37 +1214,37 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1224,18 +1252,18 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
     </row>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CA5C3B-793A-4F55-8403-E65AB215CF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D5D21D-39A0-400A-B114-BB144827C3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,10 @@
   <si>
     <t>DFS/BFS
 (그래프형식 / 미로형식 문제 잘 파악해서 풀기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10815 - 10816의 쉬운버전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,23 +377,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -726,17 +730,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -766,16 +770,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="9"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -807,8 +811,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -838,8 +842,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -869,8 +873,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -900,8 +904,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -928,7 +932,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
@@ -958,7 +962,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
@@ -982,10 +986,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1011,8 +1015,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1039,8 +1043,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1061,8 +1065,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1083,8 +1087,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
@@ -1097,22 +1101,28 @@
       <c r="F14" s="8">
         <v>240618</v>
       </c>
+      <c r="G14" s="8">
+        <v>240619</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="8">
         <v>240618</v>
       </c>
+      <c r="E15" s="8">
+        <v>240619</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1131,9 +1141,9 @@
         <v>240618</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
@@ -1146,26 +1156,55 @@
       <c r="F17" s="8">
         <v>240618</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="G17" s="8">
+        <v>240619</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="8">
+        <v>240619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="2">
+        <v>1654</v>
+      </c>
+      <c r="D19" s="8">
+        <v>240619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="2">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="B10:B15"/>
   </mergeCells>
@@ -1206,7 +1245,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1214,31 +1253,31 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D5D21D-39A0-400A-B114-BB144827C3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B5D6A0-9BF1-4120-93F6-139BE6AC38FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>10815 - 10816의 쉬운버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1654 (문제 및 upperBound 로직 이해하기 &amp; 반복많이 하기)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,14 +381,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -711,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -730,17 +734,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -776,10 +780,10 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -811,8 +815,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -842,8 +846,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -873,8 +877,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -904,8 +908,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -932,7 +936,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
@@ -962,7 +966,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
@@ -986,7 +990,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -1015,8 +1019,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1043,8 +1047,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1065,8 +1069,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1087,8 +1091,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
@@ -1106,8 +1110,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="7" t="s">
         <v>47</v>
       </c>
@@ -1119,10 +1123,10 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1142,8 +1146,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
@@ -1161,28 +1165,34 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="8">
         <v>240619</v>
       </c>
+      <c r="E18" s="8">
+        <v>240620</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="2">
-        <v>1654</v>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D19" s="8">
         <v>240619</v>
       </c>
+      <c r="E19" s="8">
+        <v>240620</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="2">
         <v>2805</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B5D6A0-9BF1-4120-93F6-139BE6AC38FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77AEF69-B40F-4076-875B-22C88AB6A37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -716,7 +716,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1067,6 +1067,9 @@
       <c r="H12" s="2">
         <v>240612</v>
       </c>
+      <c r="I12" s="8">
+        <v>240622</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -1089,6 +1092,9 @@
       <c r="H13" s="8">
         <v>240617</v>
       </c>
+      <c r="I13" s="8">
+        <v>240622</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
@@ -1108,6 +1114,9 @@
       <c r="G14" s="8">
         <v>240619</v>
       </c>
+      <c r="H14" s="8">
+        <v>240622</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
@@ -1121,6 +1130,9 @@
       <c r="E15" s="8">
         <v>240619</v>
       </c>
+      <c r="F15" s="8">
+        <v>240622</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
@@ -1143,6 +1155,9 @@
       </c>
       <c r="G16" s="8">
         <v>240618</v>
+      </c>
+      <c r="H16" s="8">
+        <v>240624</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1176,6 +1191,9 @@
       <c r="E18" s="8">
         <v>240620</v>
       </c>
+      <c r="F18" s="8">
+        <v>240624</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
@@ -1188,6 +1206,9 @@
       </c>
       <c r="E19" s="8">
         <v>240620</v>
+      </c>
+      <c r="F19" s="8">
+        <v>240624</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77AEF69-B40F-4076-875B-22C88AB6A37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505A399C-576A-4945-979B-9E89526FF1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1012 (연결요소의 개수 문제와 비슷함) - BFS 미로 형식 문제 숙지하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1920 (이분탐색 시 중앙값 기준 왼쪽 오른쪽 나눌때 인덱스로 나눈다.)
 - dataSet 입력 후 오름차순 정렬 잊지말기!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +247,12 @@
   </si>
   <si>
     <t>1654 (문제 및 upperBound 로직 이해하기 &amp; 반복많이 하기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1012 (연결요소의 개수 문제와 비슷함) - BFS 미로 형식 문제 숙지하기
+--&gt; 이차원배열 행열 햇갈리지 않기 [x][y]에서 x는 행(가로길이), y는 열(세로길이)
+--&gt; 이차원배열 [x][y]에서 x는 위아래로 움직임, y는 좌우로 움직임 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -397,6 +399,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -994,7 +999,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
@@ -1016,6 +1021,9 @@
       </c>
       <c r="I10" s="2">
         <v>240612</v>
+      </c>
+      <c r="J10" s="8">
+        <v>240626</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1070,6 +1078,9 @@
       <c r="I12" s="8">
         <v>240622</v>
       </c>
+      <c r="J12" s="8">
+        <v>240626</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -1095,12 +1106,15 @@
       <c r="I13" s="8">
         <v>240622</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" s="8">
+        <v>240626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
+      <c r="C14" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="D14" s="2">
         <v>240613</v>
@@ -1117,12 +1131,14 @@
       <c r="H14" s="8">
         <v>240622</v>
       </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8">
         <v>240618</v>
@@ -1132,6 +1148,9 @@
       </c>
       <c r="F15" s="8">
         <v>240622</v>
+      </c>
+      <c r="G15" s="8">
+        <v>240626</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
@@ -1142,7 +1161,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2">
         <v>240607</v>
@@ -1183,7 +1202,7 @@
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="8">
         <v>240619</v>
@@ -1193,13 +1212,16 @@
       </c>
       <c r="F18" s="8">
         <v>240624</v>
+      </c>
+      <c r="G18" s="15">
+        <v>240626</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="8">
         <v>240619</v>
@@ -1209,6 +1231,9 @@
       </c>
       <c r="F19" s="8">
         <v>240624</v>
+      </c>
+      <c r="G19" s="15">
+        <v>240626</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505A399C-576A-4945-979B-9E89526FF1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD54422-A8EF-4933-921F-6932E67C5D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,6 +383,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -399,9 +402,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -720,7 +720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -739,17 +739,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -779,16 +779,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="12"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -820,8 +820,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -851,8 +851,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -882,8 +882,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -913,8 +913,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -941,7 +941,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
@@ -971,7 +971,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
@@ -995,10 +995,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1027,8 +1027,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1055,8 +1055,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1083,8 +1083,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1111,8 +1111,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
         <v>50</v>
       </c>
@@ -1131,12 +1131,12 @@
       <c r="H14" s="8">
         <v>240622</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
         <v>46</v>
       </c>
@@ -1154,10 +1154,10 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1180,8 +1180,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
@@ -1199,8 +1199,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
@@ -1213,13 +1213,13 @@
       <c r="F18" s="8">
         <v>240624</v>
       </c>
-      <c r="G18" s="15">
-        <v>240626</v>
+      <c r="G18" s="8">
+        <v>240628</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="2" t="s">
         <v>49</v>
       </c>
@@ -1232,13 +1232,13 @@
       <c r="F19" s="8">
         <v>240624</v>
       </c>
-      <c r="G19" s="15">
-        <v>240626</v>
+      <c r="G19" s="9">
+        <v>240628</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="2">
         <v>2805</v>
       </c>
@@ -1301,7 +1301,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1309,31 +1309,31 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD54422-A8EF-4933-921F-6932E67C5D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD442584-818F-4C24-AAA5-299BA21B80B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1025,6 +1025,9 @@
       <c r="J10" s="8">
         <v>240626</v>
       </c>
+      <c r="K10" s="8">
+        <v>240705</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
@@ -1081,6 +1084,9 @@
       <c r="J12" s="8">
         <v>240626</v>
       </c>
+      <c r="K12" s="8">
+        <v>240705</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
@@ -1152,6 +1158,9 @@
       <c r="G15" s="8">
         <v>240626</v>
       </c>
+      <c r="H15" s="8">
+        <v>240705</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -1179,7 +1188,7 @@
         <v>240624</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="2" t="s">
@@ -1197,8 +1206,11 @@
       <c r="G17" s="8">
         <v>240619</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="9">
+        <v>240705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="2" t="s">
@@ -1217,7 +1229,7 @@
         <v>240628</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="2" t="s">
@@ -1232,23 +1244,23 @@
       <c r="F19" s="8">
         <v>240624</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>240628</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="2">
         <v>2805</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD442584-818F-4C24-AAA5-299BA21B80B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C7D098-5EC9-44E2-BECD-5E485A18C7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,10 @@
     <t xml:space="preserve">1012 (연결요소의 개수 문제와 비슷함) - BFS 미로 형식 문제 숙지하기
 --&gt; 이차원배열 행열 햇갈리지 않기 [x][y]에서 x는 행(가로길이), y는 열(세로길이)
 --&gt; 이차원배열 [x][y]에서 x는 위아래로 움직임, y는 좌우로 움직임 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리디 알고리즘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1206,9 +1210,7 @@
       <c r="G17" s="8">
         <v>240619</v>
       </c>
-      <c r="H17" s="9">
-        <v>240705</v>
-      </c>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
@@ -1258,6 +1260,15 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2">
+        <v>11047</v>
+      </c>
+      <c r="D21" s="8">
+        <v>240709</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C7D098-5EC9-44E2-BECD-5E485A18C7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B90119-0F0B-45AC-82DB-105A30AED6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,14 +390,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -743,17 +743,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -789,10 +789,10 @@
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -824,8 +824,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -855,8 +855,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -886,8 +886,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -917,8 +917,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -945,7 +945,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
@@ -975,7 +975,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
@@ -998,8 +998,8 @@
         <v>240617</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -1034,8 +1034,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1062,8 +1062,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1093,8 +1093,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1119,10 +1119,13 @@
       <c r="J13" s="8">
         <v>240626</v>
       </c>
+      <c r="K13" s="8">
+        <v>240709</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="7" t="s">
         <v>50</v>
       </c>
@@ -1141,12 +1144,14 @@
       <c r="H14" s="8">
         <v>240622</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="8">
+        <v>240709</v>
+      </c>
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="7" t="s">
         <v>46</v>
       </c>
@@ -1166,76 +1171,67 @@
         <v>240705</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="2">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <v>240607</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="2">
         <v>240612</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F17" s="8">
         <v>240617</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="8">
         <v>240618</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H17" s="8">
         <v>240624</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="2" t="s">
+      <c r="I17" s="8">
+        <v>240709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>240613</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>240617</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="8">
         <v>240618</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="8">
         <v>240619</v>
       </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="2" t="s">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D18" s="8">
-        <v>240619</v>
-      </c>
-      <c r="E18" s="8">
-        <v>240620</v>
-      </c>
-      <c r="F18" s="8">
-        <v>240624</v>
-      </c>
-      <c r="G18" s="8">
-        <v>240628</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D19" s="8">
         <v>240619</v>
@@ -1249,43 +1245,74 @@
       <c r="G19" s="8">
         <v>240628</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="2">
+      <c r="H19" s="8">
+        <v>240709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="8">
+        <v>240619</v>
+      </c>
+      <c r="E20" s="8">
+        <v>240620</v>
+      </c>
+      <c r="F20" s="8">
+        <v>240624</v>
+      </c>
+      <c r="G20" s="8">
+        <v>240628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="2">
         <v>2805</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="2">
         <v>11047</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <v>240709</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="2">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B16:B20"/>
+  <mergeCells count="10">
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B90119-0F0B-45AC-82DB-105A30AED6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61541E18-9AB1-4D48-BA2A-5857C046409B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,10 @@
   </si>
   <si>
     <t>그리디 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2667 (출력 조건 못봐서 한번에 통과 못함! -&gt; 문제 꼼꼼히 읽기!)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,14 +394,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -724,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -743,17 +747,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -789,10 +793,10 @@
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -824,8 +828,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -855,8 +859,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -886,8 +890,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -917,8 +921,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -945,7 +949,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
@@ -975,7 +979,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
@@ -999,7 +1003,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -1034,7 +1038,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="14"/>
       <c r="C11" s="2" t="s">
         <v>32</v>
@@ -1062,7 +1066,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="14"/>
       <c r="C12" s="2" t="s">
         <v>33</v>
@@ -1093,7 +1097,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="14"/>
       <c r="C13" s="2" t="s">
         <v>35</v>
@@ -1124,7 +1128,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="14"/>
       <c r="C14" s="7" t="s">
         <v>50</v>
@@ -1150,7 +1154,7 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="14"/>
       <c r="C15" s="7" t="s">
         <v>46</v>
@@ -1172,17 +1176,20 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="2">
-        <v>2667</v>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="8">
+        <v>240710</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1208,8 +1215,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
@@ -1228,8 +1235,8 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="2" t="s">
         <v>48</v>
       </c>
@@ -1250,8 +1257,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="2" t="s">
         <v>49</v>
       </c>
@@ -1269,17 +1276,17 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="2">
         <v>2805</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="2">
@@ -1290,10 +1297,13 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="2">
         <v>2839</v>
+      </c>
+      <c r="D23" s="9">
+        <v>240710</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1303,8 +1313,6 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="A1:I1"/>
@@ -1313,6 +1321,8 @@
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="B10:B16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61541E18-9AB1-4D48-BA2A-5857C046409B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3F11E1-57A3-40C9-A3BD-A27A340CD187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,8 +26,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{A3DA23D7-5168-4A4D-9F01-4D587AC5E35A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+240711</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{7BFBFB4C-0C23-4CA3-8087-FE48F545E8BF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+240711</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,12 +321,16 @@
     <t>2667 (출력 조건 못봐서 한번에 통과 못함! -&gt; 문제 꼼꼼히 읽기!)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>동적 프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +380,19 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -725,11 +800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1184,6 +1259,9 @@
       <c r="D16" s="8">
         <v>240710</v>
       </c>
+      <c r="E16" s="8">
+        <v>240711</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -1276,57 +1354,58 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="C21" s="2">
-        <v>2805</v>
+        <v>11047</v>
+      </c>
+      <c r="D21" s="8">
+        <v>240709</v>
+      </c>
+      <c r="E21" s="8">
+        <v>240711</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="2">
-        <v>11047</v>
-      </c>
-      <c r="D22" s="8">
-        <v>240709</v>
-      </c>
+        <v>2839</v>
+      </c>
+      <c r="D22" s="9">
+        <v>240711</v>
+      </c>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="2">
-        <v>2839</v>
-      </c>
-      <c r="D23" s="9">
-        <v>240710</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A23" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="B10:B16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3F11E1-57A3-40C9-A3BD-A27A340CD187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00E65E6-80D8-4DAC-8ECD-87E3D7E36964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-240711</t>
+240711
+240713</t>
         </r>
       </text>
     </comment>
@@ -76,7 +77,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-240711</t>
+240711
+240713</t>
         </r>
       </text>
     </comment>
@@ -804,7 +806,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1262,6 +1264,9 @@
       <c r="E16" s="8">
         <v>240711</v>
       </c>
+      <c r="F16" s="8">
+        <v>240713</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -1369,6 +1374,9 @@
       <c r="E21" s="8">
         <v>240711</v>
       </c>
+      <c r="F21" s="8">
+        <v>240713</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
@@ -1377,7 +1385,7 @@
         <v>2839</v>
       </c>
       <c r="D22" s="9">
-        <v>240711</v>
+        <v>240713</v>
       </c>
       <c r="E22" s="9"/>
     </row>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00E65E6-80D8-4DAC-8ECD-87E3D7E36964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B41C47B-F2B5-440C-90BD-C460A9080117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +325,14 @@
   </si>
   <si>
     <t>동적 프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2839 (수학적 사고를 더 길러야할듯…) / for과 while 언제 사용하는게 적합한지 숙지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2468(미로탐색에서 범위로 탐색하는 방법 익히기)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1268,82 +1276,70 @@
         <v>240713</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="8">
+        <v>240716</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>240607</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="2">
         <v>240612</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="8">
         <v>240617</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="8">
         <v>240618</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H18" s="8">
         <v>240624</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I18" s="8">
         <v>240709</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="2">
-        <v>240613</v>
-      </c>
-      <c r="E18" s="8">
-        <v>240617</v>
-      </c>
-      <c r="F18" s="8">
-        <v>240618</v>
-      </c>
-      <c r="G18" s="8">
-        <v>240619</v>
-      </c>
-      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="8">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2">
+        <v>240613</v>
+      </c>
+      <c r="E19" s="8">
+        <v>240617</v>
+      </c>
+      <c r="F19" s="8">
+        <v>240618</v>
+      </c>
+      <c r="G19" s="8">
         <v>240619</v>
       </c>
-      <c r="E19" s="8">
-        <v>240620</v>
-      </c>
-      <c r="F19" s="8">
-        <v>240624</v>
-      </c>
-      <c r="G19" s="8">
-        <v>240628</v>
-      </c>
-      <c r="H19" s="8">
-        <v>240709</v>
-      </c>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="8">
         <v>240619</v>
@@ -1357,58 +1353,83 @@
       <c r="G20" s="8">
         <v>240628</v>
       </c>
+      <c r="H20" s="8">
+        <v>240709</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="8">
+        <v>240619</v>
+      </c>
+      <c r="E21" s="8">
+        <v>240620</v>
+      </c>
+      <c r="F21" s="8">
+        <v>240624</v>
+      </c>
+      <c r="G21" s="8">
+        <v>240628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="2">
         <v>11047</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <v>240709</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="8">
         <v>240711</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F22" s="8">
         <v>240713</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="2">
-        <v>2839</v>
-      </c>
-      <c r="D22" s="9">
-        <v>240713</v>
-      </c>
-      <c r="E22" s="9"/>
+      <c r="G22" s="8">
+        <v>240716</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="8">
+        <v>240716</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B41C47B-F2B5-440C-90BD-C460A9080117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE5A96A-EDA5-43C8-9ED8-3F9DEA6C2469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
-    <sheet name="빈출유형" sheetId="3" r:id="rId2"/>
-    <sheet name="헤이밥 추천 백준 문제들 (참고용)" sheetId="2" r:id="rId3"/>
+    <sheet name="10026&lt;-&gt;2468" sheetId="4" r:id="rId2"/>
+    <sheet name="빈출유형" sheetId="3" r:id="rId3"/>
+    <sheet name="헤이밥 추천 백준 문제들 (참고용)" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,11 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10026(DFS/BFS 둘 다 풀이 가능)
-미로형식 문제, 미로형식 문제에서 0, 1 그 이상의 종류가 오면 어떻게 처리할 것인지 파악</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DFS/BFS
 (그래프형식 / 미로형식 문제 잘 파악해서 풀기)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,7 +328,290 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2468(미로탐색에서 범위로 탐색하는 방법 익히기)</t>
+    <t>10026(DFS/BFS 둘 다 풀이 가능)
+미로형식 문제, 미로형식 문제에서 0, 1 그 이상의 종류가 오면 어떻게 처리할 것인지 파악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2468(미로탐색 -&gt; 탐색 가능 지역이 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'특정값 이상'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">일때 로직 생각하면서 코딩하기)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; 10026번 문제랑은 다르게 생각해야함.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS(미로탐색)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차이점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 미로에 0과 1외 2가지 이상의 요소가존재
+- BFS 함수 파라미터로 i, j 좌표 외에 해당 요소가 추가됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>★ 요소의 종류가 많아 for문으로 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 특정 요소를 기준으로한 특정범위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">로 접근
+        ex) 지형높이가 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인 지형을 탐색</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 미로[i][j] = '요소의 종류' &amp;&amp; !visited[i][j] 조건으로 loop 돌림 (기존 미로탐색 loop)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 미로를 구성하는 요소의 최솟값과 최댓값을 구한 후 그 사이의 값을 최상단 loop로 돌면서 그 안에 기존 미로탐색 loop를 돌린다.
+- 미로[i][j] &gt;= '요소의 종류' &amp;&amp; !visited[i][j] 조건으로 loop 돌림 (기존 미로탐색 loop)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 요소의 종류가 3개밖에 되지 않아 if문으로 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">특정 범위가 아닌 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요소의 종류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">로 접근
+        ex) 적록색약인 경우 빨간색과 초록색을 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>빨간색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 통일하고 탐색
+             따라서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 빨간색과 파란색인 구역</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>만 탐색</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -340,7 +619,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +683,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -448,7 +742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -496,6 +790,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,11 +1122,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="35.875" customWidth="1"/>
     <col min="3" max="3" width="83.375" bestFit="1" customWidth="1"/>
@@ -831,7 +1140,7 @@
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="96" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -844,7 +1153,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,7 +1186,7 @@
       </c>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -912,7 +1221,7 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
@@ -943,7 +1252,7 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="2" t="s">
@@ -974,7 +1283,7 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="33">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="7" t="s">
@@ -1005,7 +1314,7 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
@@ -1033,7 +1342,7 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
@@ -1063,7 +1372,7 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
@@ -1087,12 +1396,12 @@
         <v>240617</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16.5" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
@@ -1122,7 +1431,7 @@
         <v>240705</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="10"/>
       <c r="B11" s="14"/>
       <c r="C11" s="2" t="s">
@@ -1150,7 +1459,7 @@
         <v>240618</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="10"/>
       <c r="B12" s="14"/>
       <c r="C12" s="2" t="s">
@@ -1181,7 +1490,7 @@
         <v>240705</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="10"/>
       <c r="B13" s="14"/>
       <c r="C13" s="2" t="s">
@@ -1212,11 +1521,11 @@
         <v>240709</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="49.5">
       <c r="A14" s="10"/>
       <c r="B14" s="14"/>
       <c r="C14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2">
         <v>240613</v>
@@ -1238,11 +1547,11 @@
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="33">
       <c r="A15" s="10"/>
       <c r="B15" s="14"/>
       <c r="C15" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D15" s="8">
         <v>240618</v>
@@ -1260,11 +1569,11 @@
         <v>240705</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="10"/>
       <c r="B16" s="14"/>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8">
         <v>240710</v>
@@ -1276,17 +1585,17 @@
         <v>240713</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="33">
       <c r="A17" s="10"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="8">
         <v>240716</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="33">
       <c r="A18" s="10" t="s">
         <v>37</v>
       </c>
@@ -1315,7 +1624,7 @@
         <v>240709</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="2" t="s">
@@ -1335,11 +1644,11 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="8">
         <v>240619</v>
@@ -1357,11 +1666,11 @@
         <v>240709</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="8">
         <v>240619</v>
@@ -1376,12 +1685,12 @@
         <v>240628</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2">
         <v>11047</v>
@@ -1399,27 +1708,29 @@
         <v>240716</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="8">
         <v>240716</v>
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="J2:K2"/>
@@ -1428,8 +1739,6 @@
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="B10:B17"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1439,6 +1748,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0DB155-46BC-46D7-A350-72EC5C006E27}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.625" customWidth="1"/>
+    <col min="4" max="4" width="67.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="66">
+      <c r="A2" s="2">
+        <v>10026</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="59.25" customHeight="1">
+      <c r="A3" s="2">
+        <v>2468</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1446,13 +1830,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -1460,7 +1844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1468,7 +1852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -1476,37 +1860,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1514,7 +1898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1522,7 +1906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1539,18 +1923,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>30</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE5A96A-EDA5-43C8-9ED8-3F9DEA6C2469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD61F99-717B-4D77-9DF3-06A033E55186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -774,6 +774,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -788,23 +800,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1141,17 +1141,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1181,16 +1181,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="13"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1222,8 +1222,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1253,8 +1253,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1284,8 +1284,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1315,8 +1315,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1343,7 +1343,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="10"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
@@ -1373,7 +1373,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="10"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
@@ -1397,10 +1397,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1432,8 +1432,8 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1460,8 +1460,8 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="10"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1491,8 +1491,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="10"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1522,8 +1522,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="49.5">
-      <c r="A14" s="10"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="7" t="s">
         <v>49</v>
       </c>
@@ -1548,8 +1548,8 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:11" ht="33">
-      <c r="A15" s="10"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="7" t="s">
         <v>54</v>
       </c>
@@ -1568,10 +1568,13 @@
       <c r="H15" s="8">
         <v>240705</v>
       </c>
+      <c r="I15" s="8">
+        <v>240719</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="10"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
@@ -1584,22 +1587,28 @@
       <c r="F16" s="8">
         <v>240713</v>
       </c>
+      <c r="G16" s="8">
+        <v>240719</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="33">
-      <c r="A17" s="10"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="8">
         <v>240716</v>
       </c>
+      <c r="E17" s="8">
+        <v>240719</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="33">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1625,8 +1634,8 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
@@ -1642,11 +1651,13 @@
       <c r="G19" s="8">
         <v>240619</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="9">
+        <v>240719</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="2" t="s">
         <v>47</v>
       </c>
@@ -1665,10 +1676,13 @@
       <c r="H20" s="8">
         <v>240709</v>
       </c>
+      <c r="I20" s="8">
+        <v>240719</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
@@ -1684,12 +1698,15 @@
       <c r="G21" s="8">
         <v>240628</v>
       </c>
+      <c r="H21" s="9">
+        <v>240719</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="2">
@@ -1709,15 +1726,17 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="8">
         <v>240716</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="8">
+        <v>240719</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
@@ -1751,7 +1770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0DB155-46BC-46D7-A350-72EC5C006E27}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1787,13 +1806,13 @@
       <c r="B2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1804,11 +1823,11 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="13" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1853,7 +1872,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1861,31 +1880,31 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD61F99-717B-4D77-9DF3-06A033E55186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3A9F8B-6E4C-411A-9351-C091CBE11FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1590,6 +1590,9 @@
       <c r="G16" s="8">
         <v>240719</v>
       </c>
+      <c r="H16" s="8">
+        <v>240724</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="33">
       <c r="A17" s="14"/>
@@ -1603,6 +1606,9 @@
       <c r="E17" s="8">
         <v>240719</v>
       </c>
+      <c r="F17" s="8">
+        <v>240724</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="33">
       <c r="A18" s="14" t="s">
@@ -1651,8 +1657,8 @@
       <c r="G19" s="8">
         <v>240619</v>
       </c>
-      <c r="H19" s="9">
-        <v>240719</v>
+      <c r="H19" s="8">
+        <v>240724</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1699,7 +1705,7 @@
         <v>240628</v>
       </c>
       <c r="H21" s="9">
-        <v>240719</v>
+        <v>240725</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1723,6 +1729,9 @@
       </c>
       <c r="G22" s="8">
         <v>240716</v>
+      </c>
+      <c r="H22" s="9">
+        <v>240725</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1736,6 +1745,9 @@
       </c>
       <c r="E23" s="8">
         <v>240719</v>
+      </c>
+      <c r="F23" s="9">
+        <v>240725</v>
       </c>
     </row>
     <row r="24" spans="1:9">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3A9F8B-6E4C-411A-9351-C091CBE11FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CD9CB8-D602-4F04-AECC-6D17B0395434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,7 +619,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,6 +698,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -742,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,6 +813,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1704,7 +1716,7 @@
       <c r="G21" s="8">
         <v>240628</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>240725</v>
       </c>
     </row>
@@ -1730,8 +1742,8 @@
       <c r="G22" s="8">
         <v>240716</v>
       </c>
-      <c r="H22" s="9">
-        <v>240725</v>
+      <c r="H22" s="8">
+        <v>240726</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1746,8 +1758,8 @@
       <c r="E23" s="8">
         <v>240719</v>
       </c>
-      <c r="F23" s="9">
-        <v>240725</v>
+      <c r="F23" s="8">
+        <v>240726</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1858,7 +1870,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1922,7 +1934,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1930,7 +1942,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CD9CB8-D602-4F04-AECC-6D17B0395434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B8B1BA-3CAD-48A7-A5EC-0AA75B504C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,32 @@
           </rPr>
           <t xml:space="preserve">
 240711
-240713</t>
+240713
+240726</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{1FD36536-6ED1-494E-AE6E-0A29C176721C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+240726</t>
         </r>
       </text>
     </comment>
@@ -1134,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B8B1BA-3CAD-48A7-A5EC-0AA75B504C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934C21A8-0F47-4576-8089-091F8F02EC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -819,6 +819,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,9 +841,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1178,17 +1178,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1218,16 +1218,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="17"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1259,8 +1259,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1290,8 +1290,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1321,8 +1321,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1352,8 +1352,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1380,7 +1380,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
@@ -1434,10 +1434,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1469,8 +1469,8 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="14"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1497,8 +1497,8 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="14"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1528,8 +1528,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="14"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1559,8 +1559,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="49.5">
-      <c r="A14" s="14"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="7" t="s">
         <v>49</v>
       </c>
@@ -1585,8 +1585,8 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:11" ht="33">
-      <c r="A15" s="14"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="7" t="s">
         <v>54</v>
       </c>
@@ -1610,8 +1610,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="14"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
@@ -1632,8 +1632,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="33">
-      <c r="A17" s="14"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
         <v>55</v>
       </c>
@@ -1648,10 +1648,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="33">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1677,8 +1677,8 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
@@ -1694,13 +1694,11 @@
       <c r="G19" s="8">
         <v>240619</v>
       </c>
-      <c r="H19" s="8">
-        <v>240724</v>
-      </c>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>47</v>
       </c>
@@ -1724,8 +1722,8 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
@@ -1733,23 +1731,17 @@
         <v>240619</v>
       </c>
       <c r="E21" s="8">
-        <v>240620</v>
-      </c>
-      <c r="F21" s="8">
         <v>240624</v>
       </c>
-      <c r="G21" s="8">
-        <v>240628</v>
-      </c>
-      <c r="H21" s="8">
-        <v>240725</v>
-      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="2">
@@ -1772,8 +1764,8 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>53</v>
       </c>
@@ -1855,7 +1847,7 @@
       <c r="B2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -1872,7 +1864,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>
@@ -1921,7 +1913,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1929,37 +1921,37 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1967,7 +1959,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934C21A8-0F47-4576-8089-091F8F02EC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9C04F1-A134-4E1D-8981-CB0394E274CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -637,6 +637,16 @@
       </rPr>
       <t>만 탐색</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬</t>
+  </si>
+  <si>
+    <t>버블정렬 (Bubble Sort)</t>
+  </si>
+  <si>
+    <t>문제번호 x (핵심 문제 직접 만듦)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1157,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1785,6 +1795,20 @@
       </c>
       <c r="B24" s="2" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="8">
+        <v>240726</v>
       </c>
     </row>
   </sheetData>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9C04F1-A134-4E1D-8981-CB0394E274CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0187AE9E-C66A-4461-904D-F0EA8BEFB55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -647,6 +647,34 @@
   </si>
   <si>
     <t>문제번호 x (핵심 문제 직접 만듦)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버블정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삽입정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀵정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병합정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기수정렬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,7 +785,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -780,13 +808,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,6 +916,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1169,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1641,7 +1715,7 @@
         <v>240724</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="33">
+    <row r="17" spans="1:10" ht="33">
       <c r="A17" s="15"/>
       <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
@@ -1656,8 +1730,11 @@
       <c r="F17" s="8">
         <v>240724</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="33">
+      <c r="G17" s="8">
+        <v>240727</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="33">
       <c r="A18" s="15" t="s">
         <v>37</v>
       </c>
@@ -1685,8 +1762,11 @@
       <c r="I18" s="8">
         <v>240709</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="8">
+        <v>240727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
@@ -1706,7 +1786,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
@@ -1730,8 +1810,11 @@
       <c r="I20" s="8">
         <v>240719</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="8">
+        <v>240727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="2" t="s">
@@ -1747,7 +1830,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" s="15" t="s">
         <v>9</v>
       </c>
@@ -1773,7 +1856,7 @@
         <v>240726</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
@@ -1788,8 +1871,11 @@
       <c r="F23" s="8">
         <v>240726</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="G23" s="8">
+        <v>240727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1797,7 +1883,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
@@ -1809,6 +1895,9 @@
       </c>
       <c r="D25" s="8">
         <v>240726</v>
+      </c>
+      <c r="E25" s="8">
+        <v>240727</v>
       </c>
     </row>
   </sheetData>
@@ -1908,10 +1997,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1929,78 +2018,117 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>26</v>
+      <c r="A2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="21"/>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="23"/>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="23"/>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="23"/>
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="4" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="14" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="14" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A8"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A9:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0187AE9E-C66A-4461-904D-F0EA8BEFB55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D405F9C-CC9A-4E3A-B5AA-C0EB76D88712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -1243,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1733,6 +1733,9 @@
       <c r="G17" s="8">
         <v>240727</v>
       </c>
+      <c r="H17" s="8">
+        <v>240730</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="33">
       <c r="A18" s="15" t="s">
@@ -1874,6 +1877,9 @@
       <c r="G23" s="8">
         <v>240727</v>
       </c>
+      <c r="H23" s="9">
+        <v>240730</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
@@ -1898,6 +1904,9 @@
       </c>
       <c r="E25" s="8">
         <v>240727</v>
+      </c>
+      <c r="F25" s="9">
+        <v>240730</v>
       </c>
     </row>
   </sheetData>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D405F9C-CC9A-4E3A-B5AA-C0EB76D88712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B3A730-1AF7-419B-92BD-89DFAA69BD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1244,7 +1244,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1877,7 +1877,7 @@
       <c r="G23" s="8">
         <v>240727</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>240730</v>
       </c>
     </row>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B3A730-1AF7-419B-92BD-89DFAA69BD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7C128E-67F7-4752-B054-846380D14866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1244,7 +1244,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1905,7 +1905,7 @@
       <c r="E25" s="8">
         <v>240727</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>240730</v>
       </c>
     </row>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7C128E-67F7-4752-B054-846380D14866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEA4166-5B8F-4659-B8F9-CBAFF58796ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -675,6 +675,10 @@
   </si>
   <si>
     <t>기수정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택정렬 (Selection Sort)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1241,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1890,7 +1894,7 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1909,8 +1913,21 @@
         <v>240730</v>
       </c>
     </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="15"/>
+      <c r="B26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="8">
+        <v>240730</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="A1:I1"/>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeuk/IdeaProjects/AlgorithmStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEA4166-5B8F-4659-B8F9-CBAFF58796ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8CEB4E-0D26-0D41-BD37-DC29999357AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -1247,21 +1247,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="2" width="35.875" customWidth="1"/>
-    <col min="3" max="3" width="83.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
-    <col min="7" max="7" width="25.25" customWidth="1"/>
-    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="1" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1408,7 +1408,7 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="33">
+    <row r="6" spans="1:11" ht="36">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="7" t="s">
@@ -1646,7 +1646,7 @@
         <v>240709</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="49.5">
+    <row r="14" spans="1:11" ht="54">
       <c r="A14" s="15"/>
       <c r="B14" s="19"/>
       <c r="C14" s="7" t="s">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:11" ht="33">
+    <row r="15" spans="1:11" ht="36">
       <c r="A15" s="15"/>
       <c r="B15" s="19"/>
       <c r="C15" s="7" t="s">
@@ -1719,7 +1719,7 @@
         <v>240724</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="33">
+    <row r="17" spans="1:10" ht="36">
       <c r="A17" s="15"/>
       <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
@@ -1741,7 +1741,7 @@
         <v>240730</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="33">
+    <row r="18" spans="1:10" ht="36">
       <c r="A18" s="15" t="s">
         <v>37</v>
       </c>
@@ -1912,6 +1912,9 @@
       <c r="F25" s="8">
         <v>240730</v>
       </c>
+      <c r="G25" s="8">
+        <v>240802</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="15"/>
@@ -1927,17 +1930,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A9"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="B10:B17"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1954,12 +1957,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.625" customWidth="1"/>
-    <col min="4" max="4" width="67.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1979,7 +1982,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="66">
+    <row r="2" spans="1:5" ht="72">
       <c r="A2" s="2">
         <v>10026</v>
       </c>
@@ -2029,10 +2032,10 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.25" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2167,9 +2170,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEA4166-5B8F-4659-B8F9-CBAFF58796ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAE15D3-0B56-4C34-BAD0-048B94C76354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1247,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1912,6 +1912,9 @@
       <c r="F25" s="8">
         <v>240730</v>
       </c>
+      <c r="G25" s="8">
+        <v>240806</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="15"/>
@@ -1924,20 +1927,21 @@
       <c r="D26" s="8">
         <v>240730</v>
       </c>
+      <c r="E26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A9"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="B10:B17"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAE15D3-0B56-4C34-BAD0-048B94C76354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5826AA-E23D-49F3-9204-954DE3AC7570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -901,20 +901,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1266,17 +1266,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1306,16 +1306,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1347,8 +1347,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1378,8 +1378,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1409,8 +1409,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1440,8 +1440,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1468,7 +1468,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
@@ -1522,10 +1522,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1557,8 +1557,8 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="15"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1585,8 +1585,8 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="15"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1616,8 +1616,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="15"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1647,8 +1647,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="49.5">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="7" t="s">
         <v>49</v>
       </c>
@@ -1673,8 +1673,8 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:11" ht="33">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="7" t="s">
         <v>54</v>
       </c>
@@ -1698,8 +1698,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
@@ -1720,8 +1720,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="7" t="s">
         <v>55</v>
       </c>
@@ -1742,10 +1742,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="33">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1774,8 +1774,8 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
@@ -1794,8 +1794,8 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="2" t="s">
         <v>47</v>
       </c>
@@ -1822,8 +1822,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
@@ -1838,10 +1838,10 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="2">
@@ -1864,8 +1864,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2" t="s">
         <v>53</v>
       </c>
@@ -1894,7 +1894,7 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1917,7 +1917,7 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="2" t="s">
         <v>76</v>
       </c>
@@ -1927,21 +1927,23 @@
       <c r="D26" s="8">
         <v>240730</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="8">
+        <v>240806</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A9"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="B10:B17"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2007,7 +2009,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5826AA-E23D-49F3-9204-954DE3AC7570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86E61ED-A95D-4DF5-805C-52E14FCD1FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{A3DA23D7-5168-4A4D-9F01-4D587AC5E35A}">
+    <comment ref="K11" authorId="0" shapeId="0" xr:uid="{A3DA23D7-5168-4A4D-9F01-4D587AC5E35A}">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{1FD36536-6ED1-494E-AE6E-0A29C176721C}">
+    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{1FD36536-6ED1-494E-AE6E-0A29C176721C}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{7BFBFB4C-0C23-4CA3-8087-FE48F545E8BF}">
+    <comment ref="K14" authorId="0" shapeId="0" xr:uid="{7BFBFB4C-0C23-4CA3-8087-FE48F545E8BF}">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -679,6 +679,10 @@
   </si>
   <si>
     <t>선택정렬 (Selection Sort)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래머스 - 같은 숫자는 싫어! (스택)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,20 +905,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1245,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1266,17 +1270,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1306,16 +1310,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1347,8 +1351,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1378,8 +1382,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1409,8 +1413,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1440,8 +1444,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1468,111 +1472,96 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="2">
+        <v>240808</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="15"/>
+      <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>240517</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <v>240521</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F9" s="2">
         <v>240524</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G9" s="2">
         <v>240527</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H9" s="2">
         <v>240530</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I9" s="2">
         <v>240604</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J9" s="2">
         <v>240612</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="16"/>
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="15"/>
+      <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>240529</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>240530</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>240604</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10" s="2">
         <v>240612</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H10" s="8">
         <v>240617</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A10" s="16" t="s">
+    <row r="11" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B11" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>240522</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>240523</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>240527</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>240528</v>
-      </c>
-      <c r="H10" s="2">
-        <v>240604</v>
-      </c>
-      <c r="I10" s="2">
-        <v>240612</v>
-      </c>
-      <c r="J10" s="8">
-        <v>240626</v>
-      </c>
-      <c r="K10" s="8">
-        <v>240705</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2">
-        <v>240524</v>
-      </c>
-      <c r="E11" s="2">
-        <v>240527</v>
-      </c>
-      <c r="F11" s="2">
-        <v>240528</v>
-      </c>
-      <c r="G11" s="2">
-        <v>240530</v>
       </c>
       <c r="H11" s="2">
         <v>240604</v>
@@ -1580,61 +1569,61 @@
       <c r="I11" s="2">
         <v>240612</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="8">
+        <v>240626</v>
+      </c>
+      <c r="K11" s="8">
+        <v>240705</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="15"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2">
+        <v>240524</v>
+      </c>
+      <c r="E12" s="2">
+        <v>240527</v>
+      </c>
+      <c r="F12" s="2">
+        <v>240528</v>
+      </c>
+      <c r="G12" s="2">
+        <v>240530</v>
+      </c>
+      <c r="H12" s="2">
+        <v>240604</v>
+      </c>
+      <c r="I12" s="2">
+        <v>240612</v>
+      </c>
+      <c r="J12" s="2">
         <v>240618</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="2" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="15"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>240527</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>240528</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>240530</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>240604</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H13" s="2">
         <v>240612</v>
-      </c>
-      <c r="I12" s="8">
-        <v>240622</v>
-      </c>
-      <c r="J12" s="8">
-        <v>240626</v>
-      </c>
-      <c r="K12" s="8">
-        <v>240705</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2">
-        <v>240529</v>
-      </c>
-      <c r="E13" s="2">
-        <v>240530</v>
-      </c>
-      <c r="F13" s="2">
-        <v>240604</v>
-      </c>
-      <c r="G13" s="2">
-        <v>240612</v>
-      </c>
-      <c r="H13" s="8">
-        <v>240617</v>
       </c>
       <c r="I13" s="8">
         <v>240622</v>
@@ -1643,307 +1632,338 @@
         <v>240626</v>
       </c>
       <c r="K13" s="8">
+        <v>240705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="15"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2">
+        <v>240529</v>
+      </c>
+      <c r="E14" s="2">
+        <v>240530</v>
+      </c>
+      <c r="F14" s="2">
+        <v>240604</v>
+      </c>
+      <c r="G14" s="2">
+        <v>240612</v>
+      </c>
+      <c r="H14" s="8">
+        <v>240617</v>
+      </c>
+      <c r="I14" s="8">
+        <v>240622</v>
+      </c>
+      <c r="J14" s="8">
+        <v>240626</v>
+      </c>
+      <c r="K14" s="8">
         <v>240709</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="49.5">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="7" t="s">
+    <row r="15" spans="1:11" ht="49.5">
+      <c r="A15" s="15"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>240613</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E15" s="8">
         <v>240617</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F15" s="8">
         <v>240618</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G15" s="8">
         <v>240619</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H15" s="8">
         <v>240622</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I15" s="8">
         <v>240709</v>
       </c>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" ht="33">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="7" t="s">
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" ht="33">
+      <c r="A16" s="15"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="8">
         <v>240618</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="8">
         <v>240619</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="8">
         <v>240622</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="8">
         <v>240626</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H16" s="8">
         <v>240705</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I16" s="8">
         <v>240719</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="2" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" s="15"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="8">
         <v>240710</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="8">
         <v>240711</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F17" s="8">
         <v>240713</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="8">
         <v>240719</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H17" s="8">
         <v>240724</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="7" t="s">
+    <row r="18" spans="1:10" ht="33">
+      <c r="A18" s="15"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <v>240716</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>240719</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="8">
         <v>240724</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="8">
         <v>240727</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H18" s="8">
         <v>240730</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="33">
-      <c r="A18" s="16" t="s">
+    <row r="19" spans="1:10" ht="33">
+      <c r="A19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="2">
         <v>240607</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="2">
         <v>240612</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F19" s="8">
         <v>240617</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="8">
         <v>240618</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H19" s="8">
         <v>240624</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I19" s="8">
         <v>240709</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J19" s="8">
         <v>240727</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="2" t="s">
+    <row r="20" spans="1:10">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="2">
         <v>240613</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E20" s="8">
         <v>240617</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F20" s="8">
         <v>240618</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G20" s="8">
         <v>240619</v>
       </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="2" t="s">
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D20" s="8">
-        <v>240619</v>
-      </c>
-      <c r="E20" s="8">
-        <v>240620</v>
-      </c>
-      <c r="F20" s="8">
-        <v>240624</v>
-      </c>
-      <c r="G20" s="8">
-        <v>240628</v>
-      </c>
-      <c r="H20" s="8">
-        <v>240709</v>
-      </c>
-      <c r="I20" s="8">
-        <v>240719</v>
-      </c>
-      <c r="J20" s="8">
-        <v>240727</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D21" s="8">
         <v>240619</v>
       </c>
       <c r="E21" s="8">
+        <v>240620</v>
+      </c>
+      <c r="F21" s="8">
         <v>240624</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="G21" s="8">
+        <v>240628</v>
+      </c>
+      <c r="H21" s="8">
+        <v>240709</v>
+      </c>
+      <c r="I21" s="8">
+        <v>240719</v>
+      </c>
+      <c r="J21" s="8">
+        <v>240727</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="8">
+        <v>240619</v>
+      </c>
+      <c r="E22" s="8">
+        <v>240624</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C23" s="2">
         <v>11047</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <v>240709</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E23" s="8">
         <v>240711</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F23" s="8">
         <v>240713</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G23" s="8">
         <v>240716</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H23" s="8">
         <v>240726</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="2" t="s">
+    <row r="24" spans="1:10">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="8">
         <v>240716</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E24" s="8">
         <v>240719</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F24" s="8">
         <v>240726</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G24" s="8">
         <v>240727</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H24" s="8">
         <v>240730</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="16" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="8">
-        <v>240726</v>
-      </c>
-      <c r="E25" s="8">
-        <v>240727</v>
-      </c>
-      <c r="F25" s="8">
-        <v>240730</v>
-      </c>
-      <c r="G25" s="8">
-        <v>240806</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="8">
+        <v>240726</v>
+      </c>
+      <c r="E26" s="8">
+        <v>240727</v>
+      </c>
+      <c r="F26" s="8">
         <v>240730</v>
       </c>
-      <c r="E26" s="8">
+      <c r="G26" s="8">
+        <v>240806</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="15"/>
+      <c r="B27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="8">
+        <v>240730</v>
+      </c>
+      <c r="E27" s="8">
         <v>240806</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="A3:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2009,7 +2029,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86E61ED-A95D-4DF5-805C-52E14FCD1FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C65EFB0-4614-4E9A-8AB0-920F2FFE5858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1738,6 +1738,9 @@
       <c r="H17" s="8">
         <v>240724</v>
       </c>
+      <c r="I17" s="8">
+        <v>240808</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="33">
       <c r="A18" s="15"/>
@@ -1760,6 +1763,9 @@
       <c r="H18" s="8">
         <v>240730</v>
       </c>
+      <c r="I18" s="9">
+        <v>240808</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="33">
       <c r="A19" s="15" t="s">
@@ -1935,6 +1941,9 @@
       <c r="G26" s="8">
         <v>240806</v>
       </c>
+      <c r="H26" s="8">
+        <v>240808</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="15"/>
@@ -1949,6 +1958,9 @@
       </c>
       <c r="E27" s="8">
         <v>240806</v>
+      </c>
+      <c r="F27" s="8">
+        <v>240808</v>
       </c>
     </row>
   </sheetData>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C65EFB0-4614-4E9A-8AB0-920F2FFE5858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197404FE-96E8-4309-B9B1-6F790FD9D365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -905,20 +905,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1270,17 +1270,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1310,16 +1310,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1351,8 +1351,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1382,8 +1382,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1413,8 +1413,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1444,8 +1444,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1472,8 +1472,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1488,7 +1488,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
@@ -1518,7 +1518,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
@@ -1542,10 +1542,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1577,8 +1577,8 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="15"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1605,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="15"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
@@ -1636,8 +1636,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1667,8 +1667,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.5">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="7" t="s">
         <v>49</v>
       </c>
@@ -1693,8 +1693,8 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:11" ht="33">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="7" t="s">
         <v>54</v>
       </c>
@@ -1718,8 +1718,8 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
@@ -1743,8 +1743,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="33">
-      <c r="A18" s="15"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="7" t="s">
         <v>55</v>
       </c>
@@ -1763,15 +1763,15 @@
       <c r="H18" s="8">
         <v>240730</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>240808</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1800,8 +1800,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
@@ -1820,8 +1820,8 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="2" t="s">
         <v>47</v>
       </c>
@@ -1848,8 +1848,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
@@ -1864,10 +1864,10 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="2">
@@ -1890,8 +1890,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>53</v>
       </c>
@@ -1920,7 +1920,7 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1946,7 +1946,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="2" t="s">
         <v>76</v>
       </c>
@@ -1965,17 +1965,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A10"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="A11:A18"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="B3:B8"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2041,7 +2041,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197404FE-96E8-4309-B9B1-6F790FD9D365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC98230-9FA6-4B62-8DF0-9CD6D5FBD043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -905,20 +905,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1249,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1270,17 +1270,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1310,16 +1310,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1351,8 +1351,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1382,8 +1382,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1413,8 +1413,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1444,8 +1444,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1472,8 +1472,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1488,7 +1488,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
@@ -1518,7 +1518,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
@@ -1542,10 +1542,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1577,8 +1577,8 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1605,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
@@ -1636,8 +1636,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1667,8 +1667,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.5">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="7" t="s">
         <v>49</v>
       </c>
@@ -1693,8 +1693,8 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:11" ht="33">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>54</v>
       </c>
@@ -1718,8 +1718,8 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
@@ -1743,8 +1743,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="33">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="7" t="s">
         <v>55</v>
       </c>
@@ -1768,10 +1768,10 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1800,8 +1800,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
@@ -1820,8 +1820,8 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="2" t="s">
         <v>47</v>
       </c>
@@ -1848,8 +1848,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
@@ -1864,10 +1864,10 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="2">
@@ -1890,8 +1890,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
         <v>53</v>
       </c>
@@ -1920,7 +1920,7 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1946,8 +1946,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1963,19 +1963,30 @@
         <v>240808</v>
       </c>
     </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="2">
+        <v>1427</v>
+      </c>
+      <c r="D28" s="8">
+        <v>240808</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A10"/>
+  <mergeCells count="12">
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="A11:A18"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="B3:B8"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2041,7 +2052,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC98230-9FA6-4B62-8DF0-9CD6D5FBD043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7551B7F4-70E8-4941-9C41-0911BAB4F827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -683,6 +683,14 @@
   </si>
   <si>
     <t>프로그래머스 - 같은 숫자는 싫어! (스택)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래머스 - 분수의 덧셈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1249,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1477,7 +1485,7 @@
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="9">
         <v>240808</v>
       </c>
       <c r="E8" s="2"/>
@@ -1738,7 +1746,7 @@
       <c r="H17" s="8">
         <v>240724</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="9">
         <v>240808</v>
       </c>
     </row>
@@ -1763,7 +1771,7 @@
       <c r="H18" s="8">
         <v>240730</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="9">
         <v>240808</v>
       </c>
     </row>
@@ -1969,8 +1977,22 @@
       <c r="C28" s="2">
         <v>1427</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="9">
         <v>240808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="9">
+        <v>240809</v>
       </c>
     </row>
   </sheetData>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7551B7F4-70E8-4941-9C41-0911BAB4F827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3867ED3-EEA1-401D-9D33-9DEBD86BB8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -913,20 +913,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1257,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1278,17 +1278,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1318,16 +1318,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1359,8 +1359,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1390,8 +1390,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1421,8 +1421,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1452,8 +1452,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1480,15 +1480,17 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>240808</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="8">
+        <v>240809</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1496,7 +1498,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
@@ -1526,7 +1528,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
@@ -1550,10 +1552,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1585,8 +1587,8 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="15"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1613,8 +1615,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="15"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
@@ -1644,8 +1646,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1675,8 +1677,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.5">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="7" t="s">
         <v>49</v>
       </c>
@@ -1701,8 +1703,8 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:11" ht="33">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="7" t="s">
         <v>54</v>
       </c>
@@ -1726,8 +1728,8 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
@@ -1746,13 +1748,13 @@
       <c r="H17" s="8">
         <v>240724</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>240808</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="33">
-      <c r="A18" s="15"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="7" t="s">
         <v>55</v>
       </c>
@@ -1771,244 +1773,262 @@
       <c r="H18" s="8">
         <v>240730</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>240808</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="7">
+        <v>4963</v>
+      </c>
+      <c r="D19" s="8">
+        <v>240810</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="33">
+      <c r="A20" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="2">
         <v>240607</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="2">
         <v>240612</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F20" s="8">
         <v>240617</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G20" s="8">
         <v>240618</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H20" s="8">
         <v>240624</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I20" s="8">
         <v>240709</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J20" s="8">
         <v>240727</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="2" t="s">
+    <row r="21" spans="1:10">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="2">
         <v>240613</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E21" s="8">
         <v>240617</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F21" s="8">
         <v>240618</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G21" s="8">
         <v>240619</v>
       </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="2" t="s">
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D21" s="8">
-        <v>240619</v>
-      </c>
-      <c r="E21" s="8">
-        <v>240620</v>
-      </c>
-      <c r="F21" s="8">
-        <v>240624</v>
-      </c>
-      <c r="G21" s="8">
-        <v>240628</v>
-      </c>
-      <c r="H21" s="8">
-        <v>240709</v>
-      </c>
-      <c r="I21" s="8">
-        <v>240719</v>
-      </c>
-      <c r="J21" s="8">
-        <v>240727</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D22" s="8">
         <v>240619</v>
       </c>
       <c r="E22" s="8">
+        <v>240620</v>
+      </c>
+      <c r="F22" s="8">
         <v>240624</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="G22" s="8">
+        <v>240628</v>
+      </c>
+      <c r="H22" s="8">
+        <v>240709</v>
+      </c>
+      <c r="I22" s="8">
+        <v>240719</v>
+      </c>
+      <c r="J22" s="8">
+        <v>240727</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="8">
+        <v>240619</v>
+      </c>
+      <c r="E23" s="8">
+        <v>240624</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B24" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>11047</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="8">
         <v>240709</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E24" s="8">
         <v>240711</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F24" s="8">
         <v>240713</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G24" s="8">
         <v>240716</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H24" s="8">
         <v>240726</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="2" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D25" s="8">
         <v>240716</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E25" s="8">
         <v>240719</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F25" s="8">
         <v>240726</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G25" s="8">
         <v>240727</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H25" s="8">
         <v>240730</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="15" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="8">
-        <v>240726</v>
-      </c>
-      <c r="E26" s="8">
-        <v>240727</v>
-      </c>
-      <c r="F26" s="8">
-        <v>240730</v>
-      </c>
-      <c r="G26" s="8">
-        <v>240806</v>
-      </c>
-      <c r="H26" s="8">
-        <v>240808</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D27" s="8">
+        <v>240726</v>
+      </c>
+      <c r="E27" s="8">
+        <v>240727</v>
+      </c>
+      <c r="F27" s="8">
         <v>240730</v>
       </c>
-      <c r="E27" s="8">
+      <c r="G27" s="8">
         <v>240806</v>
       </c>
-      <c r="F27" s="8">
+      <c r="H27" s="8">
         <v>240808</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="8">
+        <v>240730</v>
+      </c>
+      <c r="E28" s="8">
+        <v>240806</v>
+      </c>
+      <c r="F28" s="8">
+        <v>240808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="2">
         <v>1427</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D29" s="8">
         <v>240808</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="2" t="s">
+      <c r="E29" s="8">
+        <v>240809</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D30" s="8">
         <v>240809</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B3:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2074,7 +2094,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeuk/IdeaProjects/AlgorithmStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3867ED3-EEA1-401D-9D33-9DEBD86BB8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E94DA7-738E-5349-8C34-7AE658CC46D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="1400" windowWidth="22040" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="K11" authorId="0" shapeId="0" xr:uid="{A3DA23D7-5168-4A4D-9F01-4D587AC5E35A}">
+    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{A3DA23D7-5168-4A4D-9F01-4D587AC5E35A}">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{1FD36536-6ED1-494E-AE6E-0A29C176721C}">
+    <comment ref="K14" authorId="0" shapeId="0" xr:uid="{1FD36536-6ED1-494E-AE6E-0A29C176721C}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K14" authorId="0" shapeId="0" xr:uid="{7BFBFB4C-0C23-4CA3-8087-FE48F545E8BF}">
+    <comment ref="K15" authorId="0" shapeId="0" xr:uid="{7BFBFB4C-0C23-4CA3-8087-FE48F545E8BF}">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -691,6 +691,11 @@
   </si>
   <si>
     <t>프로그래머스 - 분수의 덧셈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래머스 - 기능개발
+생각한 로직을 코드로 옮기는 연습을 하자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,20 +918,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1257,38 +1262,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="2" width="35.875" customWidth="1"/>
-    <col min="3" max="3" width="83.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
-    <col min="7" max="7" width="25.25" customWidth="1"/>
-    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="1" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1318,16 +1323,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1359,8 +1364,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1390,8 +1395,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1420,9 +1425,9 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+    <row r="6" spans="1:11" ht="36">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1452,8 +1457,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1480,8 +1485,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1491,118 +1496,105 @@
       <c r="E8" s="8">
         <v>240809</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="8">
+        <v>240810</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="16"/>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:11" ht="36">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2400810</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="15"/>
+      <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>240517</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>240521</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>240524</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10" s="2">
         <v>240527</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10" s="2">
         <v>240530</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I10" s="2">
         <v>240604</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J10" s="2">
         <v>240612</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="16"/>
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" s="15"/>
+      <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>240529</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>240530</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>240604</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>240612</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H11" s="8">
         <v>240617</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A11" s="16" t="s">
+    <row r="12" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>240522</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>240523</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12" s="2">
         <v>240527</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <v>240528</v>
-      </c>
-      <c r="H11" s="2">
-        <v>240604</v>
-      </c>
-      <c r="I11" s="2">
-        <v>240612</v>
-      </c>
-      <c r="J11" s="8">
-        <v>240626</v>
-      </c>
-      <c r="K11" s="8">
-        <v>240705</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2">
-        <v>240524</v>
-      </c>
-      <c r="E12" s="2">
-        <v>240527</v>
-      </c>
-      <c r="F12" s="2">
-        <v>240528</v>
-      </c>
-      <c r="G12" s="2">
-        <v>240530</v>
       </c>
       <c r="H12" s="2">
         <v>240604</v>
@@ -1610,61 +1602,61 @@
       <c r="I12" s="2">
         <v>240612</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="8">
+        <v>240626</v>
+      </c>
+      <c r="K12" s="8">
+        <v>240705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2">
+        <v>240524</v>
+      </c>
+      <c r="E13" s="2">
+        <v>240527</v>
+      </c>
+      <c r="F13" s="2">
+        <v>240528</v>
+      </c>
+      <c r="G13" s="2">
+        <v>240530</v>
+      </c>
+      <c r="H13" s="2">
+        <v>240604</v>
+      </c>
+      <c r="I13" s="2">
+        <v>240612</v>
+      </c>
+      <c r="J13" s="2">
         <v>240618</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="2" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <v>240527</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>240528</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <v>240530</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <v>240604</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H14" s="2">
         <v>240612</v>
-      </c>
-      <c r="I13" s="8">
-        <v>240622</v>
-      </c>
-      <c r="J13" s="8">
-        <v>240626</v>
-      </c>
-      <c r="K13" s="8">
-        <v>240705</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="2">
-        <v>240529</v>
-      </c>
-      <c r="E14" s="2">
-        <v>240530</v>
-      </c>
-      <c r="F14" s="2">
-        <v>240604</v>
-      </c>
-      <c r="G14" s="2">
-        <v>240612</v>
-      </c>
-      <c r="H14" s="8">
-        <v>240617</v>
       </c>
       <c r="I14" s="8">
         <v>240622</v>
@@ -1673,362 +1665,396 @@
         <v>240626</v>
       </c>
       <c r="K14" s="8">
+        <v>240705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2">
+        <v>240529</v>
+      </c>
+      <c r="E15" s="2">
+        <v>240530</v>
+      </c>
+      <c r="F15" s="2">
+        <v>240604</v>
+      </c>
+      <c r="G15" s="2">
+        <v>240612</v>
+      </c>
+      <c r="H15" s="8">
+        <v>240617</v>
+      </c>
+      <c r="I15" s="8">
+        <v>240622</v>
+      </c>
+      <c r="J15" s="8">
+        <v>240626</v>
+      </c>
+      <c r="K15" s="8">
         <v>240709</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="49.5">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="7" t="s">
+    <row r="16" spans="1:11" ht="54">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <v>240613</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="8">
         <v>240617</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="8">
         <v>240618</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="8">
         <v>240619</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H16" s="8">
         <v>240622</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I16" s="8">
         <v>240709</v>
       </c>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" ht="33">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="7" t="s">
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" ht="36">
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="8">
         <v>240618</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="8">
         <v>240619</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F17" s="8">
         <v>240622</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="8">
         <v>240626</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H17" s="8">
         <v>240705</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I17" s="8">
         <v>240719</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="2" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="15"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <v>240710</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>240711</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="8">
         <v>240713</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="8">
         <v>240719</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H18" s="8">
         <v>240724</v>
-      </c>
-      <c r="I17" s="8">
-        <v>240808</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="33">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="8">
-        <v>240716</v>
-      </c>
-      <c r="E18" s="8">
-        <v>240719</v>
-      </c>
-      <c r="F18" s="8">
-        <v>240724</v>
-      </c>
-      <c r="G18" s="8">
-        <v>240727</v>
-      </c>
-      <c r="H18" s="8">
-        <v>240730</v>
       </c>
       <c r="I18" s="8">
         <v>240808</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="7">
+    <row r="19" spans="1:10" ht="36">
+      <c r="A19" s="15"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8">
+        <v>240716</v>
+      </c>
+      <c r="E19" s="8">
+        <v>240719</v>
+      </c>
+      <c r="F19" s="8">
+        <v>240724</v>
+      </c>
+      <c r="G19" s="8">
+        <v>240727</v>
+      </c>
+      <c r="H19" s="8">
+        <v>240730</v>
+      </c>
+      <c r="I19" s="8">
+        <v>240808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="15"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="7">
         <v>4963</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="8">
         <v>240810</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" ht="33">
-      <c r="A20" s="16" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="36">
+      <c r="A21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="2">
         <v>240607</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="2">
         <v>240612</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F21" s="8">
         <v>240617</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G21" s="8">
         <v>240618</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H21" s="8">
         <v>240624</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I21" s="8">
         <v>240709</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J21" s="8">
         <v>240727</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="2" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="2">
         <v>240613</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="8">
         <v>240617</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F22" s="8">
         <v>240618</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G22" s="8">
         <v>240619</v>
       </c>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="2" t="s">
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D22" s="8">
-        <v>240619</v>
-      </c>
-      <c r="E22" s="8">
-        <v>240620</v>
-      </c>
-      <c r="F22" s="8">
-        <v>240624</v>
-      </c>
-      <c r="G22" s="8">
-        <v>240628</v>
-      </c>
-      <c r="H22" s="8">
-        <v>240709</v>
-      </c>
-      <c r="I22" s="8">
-        <v>240719</v>
-      </c>
-      <c r="J22" s="8">
-        <v>240727</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D23" s="8">
         <v>240619</v>
       </c>
       <c r="E23" s="8">
+        <v>240620</v>
+      </c>
+      <c r="F23" s="8">
         <v>240624</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="G23" s="8">
+        <v>240628</v>
+      </c>
+      <c r="H23" s="8">
+        <v>240709</v>
+      </c>
+      <c r="I23" s="8">
+        <v>240719</v>
+      </c>
+      <c r="J23" s="8">
+        <v>240727</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="8">
+        <v>240619</v>
+      </c>
+      <c r="E24" s="8">
+        <v>240624</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="2">
         <v>11047</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D25" s="8">
         <v>240709</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E25" s="8">
         <v>240711</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F25" s="8">
         <v>240713</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G25" s="8">
         <v>240716</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H25" s="8">
         <v>240726</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="2" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="8">
         <v>240716</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26" s="8">
         <v>240719</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F26" s="8">
         <v>240726</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G26" s="8">
         <v>240727</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H26" s="8">
         <v>240730</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="16" t="s">
+    <row r="28" spans="1:10">
+      <c r="A28" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="8">
-        <v>240726</v>
-      </c>
-      <c r="E27" s="8">
-        <v>240727</v>
-      </c>
-      <c r="F27" s="8">
-        <v>240730</v>
-      </c>
-      <c r="G27" s="8">
-        <v>240806</v>
-      </c>
-      <c r="H27" s="8">
-        <v>240808</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16" t="s">
-        <v>76</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="8">
+        <v>240726</v>
+      </c>
+      <c r="E28" s="8">
+        <v>240727</v>
+      </c>
+      <c r="F28" s="8">
         <v>240730</v>
       </c>
-      <c r="E28" s="8">
+      <c r="G28" s="8">
         <v>240806</v>
       </c>
-      <c r="F28" s="8">
+      <c r="H28" s="8">
         <v>240808</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="8">
+        <v>240730</v>
+      </c>
+      <c r="E29" s="8">
+        <v>240806</v>
+      </c>
+      <c r="F29" s="8">
+        <v>240808</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="2">
         <v>1427</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <v>240808</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E30" s="8">
         <v>240809</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D31" s="8">
         <v>240809</v>
+      </c>
+      <c r="E31" s="8">
+        <v>240810</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="B12:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2045,12 +2071,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.625" customWidth="1"/>
-    <col min="4" max="4" width="67.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2070,7 +2096,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="66">
+    <row r="2" spans="1:5" ht="72">
       <c r="A2" s="2">
         <v>10026</v>
       </c>
@@ -2094,7 +2120,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>
@@ -2120,10 +2146,10 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.25" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2258,9 +2284,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeuk/IdeaProjects/AlgorithmStudy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E94DA7-738E-5349-8C34-7AE658CC46D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334CBC78-C169-4CE5-BA6E-1D1329A763DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1400" windowWidth="22040" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -918,14 +918,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1265,35 +1265,35 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="35.83203125" customWidth="1"/>
-    <col min="3" max="3" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="1" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="83.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1329,10 +1329,10 @@
       <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1364,8 +1364,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1395,8 +1395,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1425,9 +1425,9 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="36">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+    <row r="6" spans="1:11" ht="33">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1457,8 +1457,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1485,8 +1485,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1504,16 +1504,18 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="36">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+    <row r="9" spans="1:11" ht="33">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="8">
         <v>2400810</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8">
+        <v>2400811</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1521,7 +1523,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="15"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1551,7 +1553,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="15"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1575,7 +1577,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -1610,7 +1612,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="15"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
@@ -1638,7 +1640,7 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="15"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
@@ -1669,7 +1671,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="15"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
@@ -1699,8 +1701,8 @@
         <v>240709</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="54">
-      <c r="A16" s="15"/>
+    <row r="16" spans="1:11" ht="49.5">
+      <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="7" t="s">
         <v>49</v>
@@ -1725,8 +1727,8 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="36">
-      <c r="A17" s="15"/>
+    <row r="17" spans="1:10" ht="33">
+      <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>54</v>
@@ -1751,7 +1753,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="15"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
@@ -1775,8 +1777,8 @@
         <v>240808</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="36">
-      <c r="A19" s="15"/>
+    <row r="19" spans="1:10" ht="33">
+      <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="7" t="s">
         <v>55</v>
@@ -1801,7 +1803,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="15"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="7">
         <v>4963</v>
@@ -1815,11 +1817,11 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="36">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:10" ht="33">
+      <c r="A21" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1848,8 +1850,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1868,8 +1870,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1896,8 +1898,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1912,10 +1914,10 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2">
@@ -1938,8 +1940,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1968,7 +1970,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1994,8 +1996,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2012,8 +2014,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="2">
         <v>1427</v>
       </c>
@@ -2022,6 +2024,9 @@
       </c>
       <c r="E30" s="8">
         <v>240809</v>
+      </c>
+      <c r="F30" s="9">
+        <v>240811</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2071,12 +2076,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" customWidth="1"/>
-    <col min="4" max="4" width="67.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.625" customWidth="1"/>
+    <col min="4" max="4" width="67.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2096,7 +2101,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72">
+    <row r="2" spans="1:5" ht="66">
       <c r="A2" s="2">
         <v>10026</v>
       </c>
@@ -2120,7 +2125,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>
@@ -2146,10 +2151,10 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="2" max="2" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2284,9 +2289,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334CBC78-C169-4CE5-BA6E-1D1329A763DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3597B7-351B-4C34-AE34-D3BE1C914AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -918,6 +918,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -925,13 +931,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1264,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1283,17 +1283,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1323,16 +1323,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1364,8 +1364,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1395,8 +1395,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1426,8 +1426,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1457,8 +1457,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1485,8 +1485,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1505,8 +1505,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
@@ -1523,7 +1523,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1553,7 +1553,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1577,10 +1577,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1612,8 +1612,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1640,8 +1640,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1671,8 +1671,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1702,8 +1702,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1728,8 +1728,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1753,8 +1753,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1778,8 +1778,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1803,8 +1803,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1818,10 +1818,10 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="33">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1850,8 +1850,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1870,8 +1870,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1898,8 +1898,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1914,10 +1914,10 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2">
@@ -1940,8 +1940,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1970,7 +1970,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1996,8 +1996,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2014,8 +2014,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="2">
         <v>1427</v>
       </c>
@@ -2025,7 +2025,7 @@
       <c r="E30" s="8">
         <v>240809</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>240811</v>
       </c>
     </row>
@@ -2048,18 +2048,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="B12:B20"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="B12:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2125,7 +2125,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeuk/IdeaProjects/AlgorithmStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3597B7-351B-4C34-AE34-D3BE1C914AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CDDC48-2F92-CF48-A968-82CD97414F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="1900" windowWidth="22040" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -696,6 +696,10 @@
   <si>
     <t>프로그래머스 - 기능개발
 생각한 로직을 코드로 옮기는 연습을 하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래머스 - 개미군단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,20 +922,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1262,38 +1266,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="2" width="35.875" customWidth="1"/>
-    <col min="3" max="3" width="83.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
-    <col min="7" max="7" width="25.125" customWidth="1"/>
-    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="1" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1323,16 +1327,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1364,8 +1368,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1395,8 +1399,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1425,9 +1429,9 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+    <row r="6" spans="1:11" ht="36">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1457,8 +1461,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1485,8 +1489,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1504,9 +1508,9 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+    <row r="9" spans="1:11" ht="36">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
@@ -1523,7 +1527,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1553,7 +1557,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1577,10 +1581,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1612,8 +1616,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="16"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1640,8 +1644,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1671,8 +1675,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1701,9 +1705,9 @@
         <v>240709</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="19"/>
+    <row r="16" spans="1:11" ht="54">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1727,9 +1731,9 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="16"/>
-      <c r="B17" s="19"/>
+    <row r="17" spans="1:10" ht="36">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1753,8 +1757,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="16"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1777,9 +1781,9 @@
         <v>240808</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="16"/>
-      <c r="B19" s="19"/>
+    <row r="19" spans="1:10" ht="36">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1803,8 +1807,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1817,11 +1821,11 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="33">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:10" ht="36">
+      <c r="A21" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1850,8 +1854,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1870,8 +1874,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1898,8 +1902,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1914,10 +1918,10 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2">
@@ -1940,8 +1944,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1962,104 +1966,118 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="8">
+        <v>240812</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="16" t="s">
+    <row r="29" spans="1:10">
+      <c r="A29" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="8">
-        <v>240726</v>
-      </c>
-      <c r="E28" s="8">
-        <v>240727</v>
-      </c>
-      <c r="F28" s="8">
-        <v>240730</v>
-      </c>
-      <c r="G28" s="8">
-        <v>240806</v>
-      </c>
-      <c r="H28" s="8">
-        <v>240808</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16" t="s">
-        <v>76</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D29" s="8">
+        <v>240726</v>
+      </c>
+      <c r="E29" s="8">
+        <v>240727</v>
+      </c>
+      <c r="F29" s="8">
         <v>240730</v>
       </c>
-      <c r="E29" s="8">
+      <c r="G29" s="8">
         <v>240806</v>
       </c>
-      <c r="F29" s="8">
+      <c r="H29" s="8">
         <v>240808</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="8">
+        <v>240730</v>
+      </c>
+      <c r="E30" s="8">
+        <v>240806</v>
+      </c>
+      <c r="F30" s="8">
+        <v>240808</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="2">
         <v>1427</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D31" s="8">
         <v>240808</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E31" s="8">
         <v>240809</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F31" s="8">
         <v>240811</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="8">
         <v>240809</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E32" s="8">
         <v>240810</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="B12:B20"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="B12:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2076,12 +2094,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.625" customWidth="1"/>
-    <col min="4" max="4" width="67.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2101,7 +2119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="66">
+    <row r="2" spans="1:5" ht="72">
       <c r="A2" s="2">
         <v>10026</v>
       </c>
@@ -2125,7 +2143,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>
@@ -2151,10 +2169,10 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2289,9 +2307,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeuk/IdeaProjects/AlgorithmStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CDDC48-2F92-CF48-A968-82CD97414F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC1EEB0-B253-4442-9978-F0C9E3540267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1900" windowWidth="22040" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -1268,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1813,7 +1813,7 @@
         <v>4963</v>
       </c>
       <c r="D20" s="8">
-        <v>240810</v>
+        <v>240812</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeuk/IdeaProjects/AlgorithmStudy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC1EEB0-B253-4442-9978-F0C9E3540267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1329A65E-94FE-465B-94AA-F4F18DCB6A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -700,6 +700,10 @@
   </si>
   <si>
     <t>프로그래머스 - 개미군단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래머스 - 숨어있는 숫자의 덧셈 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -922,6 +926,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -929,13 +939,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1266,38 +1270,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="35.83203125" customWidth="1"/>
-    <col min="3" max="3" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="1" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="83.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1327,16 +1331,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1368,8 +1372,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1399,8 +1403,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1429,9 +1433,9 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="36">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+    <row r="6" spans="1:11" ht="33">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1461,8 +1465,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1489,8 +1493,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1508,9 +1512,9 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="36">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+    <row r="9" spans="1:11" ht="33">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
@@ -1520,14 +1524,16 @@
       <c r="E9" s="8">
         <v>2400811</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="9">
+        <v>240814</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1557,7 +1563,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1581,10 +1587,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1616,8 +1622,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1644,8 +1650,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1675,8 +1681,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1705,9 +1711,9 @@
         <v>240709</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="54">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+    <row r="16" spans="1:11" ht="49.5">
+      <c r="A16" s="16"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1731,9 +1737,9 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="36">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+    <row r="17" spans="1:10" ht="33">
+      <c r="A17" s="16"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1757,8 +1763,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1781,9 +1787,9 @@
         <v>240808</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="36">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+    <row r="19" spans="1:10" ht="33">
+      <c r="A19" s="16"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1807,25 +1813,27 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
       <c r="D20" s="8">
         <v>240812</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="9">
+        <v>240814</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="36">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:10" ht="33">
+      <c r="A21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1854,8 +1862,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1874,8 +1882,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1902,8 +1910,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1918,10 +1926,10 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2">
@@ -1944,8 +1952,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1966,8 +1974,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2" t="s">
         <v>81</v>
       </c>
@@ -1988,7 +1996,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2014,8 +2022,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2032,8 +2040,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="2">
         <v>1427</v>
       </c>
@@ -2048,10 +2056,10 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2063,21 +2071,36 @@
       <c r="E32" s="8">
         <v>240810</v>
       </c>
+      <c r="F32" s="9">
+        <v>240814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="8">
+        <v>240814</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="B12:B20"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="B12:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2094,12 +2117,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" customWidth="1"/>
-    <col min="4" max="4" width="67.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.625" customWidth="1"/>
+    <col min="4" max="4" width="67.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2119,7 +2142,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72">
+    <row r="2" spans="1:5" ht="66">
       <c r="A2" s="2">
         <v>10026</v>
       </c>
@@ -2143,7 +2166,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>
@@ -2169,10 +2192,10 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="2" max="2" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2307,9 +2330,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1329A65E-94FE-465B-94AA-F4F18DCB6A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2856C1-A150-4136-A616-98184F1687BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -926,20 +926,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1291,17 +1291,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1331,16 +1331,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1372,8 +1372,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1403,8 +1403,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1434,8 +1434,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1465,8 +1465,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1493,8 +1493,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1513,8 +1513,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
@@ -1524,7 +1524,7 @@
       <c r="E9" s="8">
         <v>2400811</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>240814</v>
       </c>
       <c r="G9" s="2"/>
@@ -1533,7 +1533,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1563,7 +1563,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1587,10 +1587,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1622,8 +1622,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="16"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1650,8 +1650,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1681,8 +1681,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1712,8 +1712,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1738,8 +1738,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="16"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1763,8 +1763,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="16"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1788,8 +1788,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="16"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1813,8 +1813,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1830,10 +1830,10 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="33">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1862,8 +1862,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1882,8 +1882,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1910,8 +1910,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1926,10 +1926,10 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2">
@@ -1952,8 +1952,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1974,8 +1974,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
         <v>81</v>
       </c>
@@ -1996,7 +1996,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2022,8 +2022,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2040,8 +2040,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="2">
         <v>1427</v>
       </c>
@@ -2056,10 +2056,10 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2076,8 +2076,8 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="2" t="s">
         <v>82</v>
       </c>
@@ -2087,6 +2087,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:I1"/>
@@ -2095,12 +2101,6 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="B12:B20"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2166,7 +2166,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2856C1-A150-4136-A616-98184F1687BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4486F6CD-6901-48B4-8B5C-76BF0BA903E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1272,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1821,7 +1821,7 @@
       <c r="D20" s="8">
         <v>240812</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>240814</v>
       </c>
       <c r="F20" s="8"/>
@@ -2071,7 +2071,7 @@
       <c r="E32" s="8">
         <v>240810</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <v>240814</v>
       </c>
     </row>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4486F6CD-6901-48B4-8B5C-76BF0BA903E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CA76BC-13BD-45A7-8ACC-B7F3E406E9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -704,6 +704,14 @@
   </si>
   <si>
     <t>프로그래머스 - 숨어있는 숫자의 덧셈 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래머스 - K번째수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -926,6 +934,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -937,9 +948,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1270,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1291,17 +1299,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1331,16 +1339,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1372,8 +1380,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1403,8 +1411,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1434,8 +1442,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1465,8 +1473,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1493,8 +1501,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1513,8 +1521,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
@@ -1533,7 +1541,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1563,7 +1571,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1587,10 +1595,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1622,8 +1630,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="15"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1650,8 +1658,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1681,8 +1689,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1712,8 +1720,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1738,8 +1746,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1763,8 +1771,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="15"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1788,8 +1796,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="15"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1813,8 +1821,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="15"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1830,10 +1838,10 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="33">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1862,8 +1870,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1882,8 +1890,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1910,8 +1918,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1926,10 +1934,10 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2">
@@ -1952,8 +1960,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1974,8 +1982,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2" t="s">
         <v>81</v>
       </c>
@@ -1996,7 +2004,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2022,8 +2030,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2040,8 +2048,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="2">
         <v>1427</v>
       </c>
@@ -2056,51 +2064,65 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="8">
+        <v>240815</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B33" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D33" s="8">
         <v>240809</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E33" s="8">
         <v>240810</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F33" s="8">
         <v>240814</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="2" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="8">
         <v>240814</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="A29:A32"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="B12:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2166,7 +2188,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CA76BC-13BD-45A7-8ACC-B7F3E406E9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC02A9A-6BC1-4C60-8D24-D13C5746FD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1515,7 +1515,9 @@
       <c r="F8" s="8">
         <v>240810</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="8">
+        <v>240815</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1832,7 +1834,9 @@
       <c r="E20" s="8">
         <v>240814</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="9">
+        <v>240815</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1990,7 +1994,9 @@
       <c r="D27" s="8">
         <v>240812</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="9">
+        <v>240815</v>
+      </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -2105,6 +2111,9 @@
       </c>
       <c r="D34" s="8">
         <v>240814</v>
+      </c>
+      <c r="E34" s="9">
+        <v>240815</v>
       </c>
     </row>
   </sheetData>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC02A9A-6BC1-4C60-8D24-D13C5746FD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89999660-D915-4FDD-B812-E4BF2D322744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -934,20 +934,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1299,17 +1299,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1339,16 +1339,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1380,8 +1380,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1411,8 +1411,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1442,8 +1442,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1473,8 +1473,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1501,8 +1501,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1523,8 +1523,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1573,7 +1573,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1597,10 +1597,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1632,8 +1632,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="16"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1660,8 +1660,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1691,8 +1691,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1722,8 +1722,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1748,8 +1748,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="16"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1773,8 +1773,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="16"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1798,8 +1798,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="16"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1823,8 +1823,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1842,10 +1842,10 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="33">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1874,8 +1874,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1894,8 +1894,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1922,8 +1922,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1938,10 +1938,10 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2">
@@ -1964,8 +1964,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1986,15 +1986,15 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D27" s="8">
         <v>240812</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>240815</v>
       </c>
       <c r="F27" s="8"/>
@@ -2010,7 +2010,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2036,8 +2036,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2054,8 +2054,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="2">
         <v>1427</v>
       </c>
@@ -2070,7 +2070,7 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>83</v>
       </c>
@@ -2084,10 +2084,10 @@
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2104,8 +2104,8 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2118,6 +2118,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A1:I1"/>
@@ -2126,12 +2132,6 @@
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="A29:A32"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2197,7 +2197,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89999660-D915-4FDD-B812-E4BF2D322744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88F99E4-A5A0-477A-856A-6959DFE51CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -934,6 +934,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -945,9 +948,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1281,7 +1281,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1299,17 +1299,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1339,16 +1339,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1380,8 +1380,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1411,8 +1411,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1442,8 +1442,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1473,8 +1473,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1501,8 +1501,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1523,8 +1523,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1573,7 +1573,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1597,10 +1597,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1632,8 +1632,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="15"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1660,8 +1660,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1691,8 +1691,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1722,8 +1722,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1748,8 +1748,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1773,8 +1773,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="15"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1798,8 +1798,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="15"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1823,8 +1823,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="15"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1842,10 +1842,10 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="33">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1874,8 +1874,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1894,8 +1894,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1922,8 +1922,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1938,10 +1938,10 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2">
@@ -1964,8 +1964,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1986,8 +1986,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2" t="s">
         <v>81</v>
       </c>
@@ -2010,7 +2010,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2036,8 +2036,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2054,8 +2054,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="2">
         <v>1427</v>
       </c>
@@ -2070,7 +2070,7 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="15"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="2" t="s">
         <v>83</v>
       </c>
@@ -2084,10 +2084,10 @@
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2104,26 +2104,20 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D34" s="8">
         <v>240814</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>240815</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A1:I1"/>
@@ -2132,6 +2126,12 @@
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="A29:A32"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2197,7 +2197,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88F99E4-A5A0-477A-856A-6959DFE51CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3BB292-A587-4913-8B6B-850B187A4356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -934,20 +934,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1299,17 +1299,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1339,16 +1339,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1380,8 +1380,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1411,8 +1411,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1442,8 +1442,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1473,8 +1473,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1501,8 +1501,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1523,8 +1523,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1573,7 +1573,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1597,10 +1597,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1632,8 +1632,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="16"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1660,8 +1660,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1691,8 +1691,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1722,8 +1722,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1748,8 +1748,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="16"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1773,8 +1773,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="16"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1798,8 +1798,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="16"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1823,8 +1823,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1842,10 +1842,10 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="33">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1874,8 +1874,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1894,8 +1894,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1922,8 +1922,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1938,10 +1938,10 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2">
@@ -1964,8 +1964,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1986,8 +1986,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
         <v>81</v>
       </c>
@@ -2010,7 +2010,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2036,8 +2036,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2054,8 +2054,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="2">
         <v>1427</v>
       </c>
@@ -2070,7 +2070,7 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>83</v>
       </c>
@@ -2084,10 +2084,10 @@
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2104,8 +2104,8 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2118,6 +2118,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A1:I1"/>
@@ -2126,12 +2132,6 @@
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="A29:A32"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2197,7 +2197,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3BB292-A587-4913-8B6B-850B187A4356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEC6C56-73D1-499F-98E8-9BF388632CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1834,7 +1834,7 @@
       <c r="E20" s="8">
         <v>240814</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>240815</v>
       </c>
       <c r="G20" s="8"/>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEC6C56-73D1-499F-98E8-9BF388632CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86A05EA-5F50-4265-A005-5374DF7D8BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,8 @@
           </rPr>
           <t xml:space="preserve">
 240711
-240713</t>
+240713
+240816</t>
         </r>
       </text>
     </comment>
@@ -934,6 +935,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -945,9 +949,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1280,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1299,17 +1300,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1339,16 +1340,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1380,8 +1381,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1411,8 +1412,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1442,8 +1443,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1473,8 +1474,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1501,8 +1502,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1523,8 +1524,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
@@ -1543,7 +1544,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1573,7 +1574,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1597,10 +1598,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1632,8 +1633,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="15"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1660,8 +1661,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1691,8 +1692,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1722,8 +1723,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1748,8 +1749,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1773,8 +1774,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="15"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1798,8 +1799,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="15"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1823,8 +1824,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="15"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1842,10 +1843,10 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="33">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1874,8 +1875,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1894,8 +1895,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1922,8 +1923,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1938,10 +1939,10 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2">
@@ -1964,8 +1965,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1986,8 +1987,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2" t="s">
         <v>81</v>
       </c>
@@ -2010,7 +2011,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2036,8 +2037,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2054,8 +2055,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="2">
         <v>1427</v>
       </c>
@@ -2070,7 +2071,7 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="15"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="2" t="s">
         <v>83</v>
       </c>
@@ -2084,10 +2085,10 @@
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2104,8 +2105,8 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2118,12 +2119,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A1:I1"/>
@@ -2132,6 +2127,12 @@
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="A29:A32"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2197,7 +2198,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86A05EA-5F50-4265-A005-5374DF7D8BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603B4C04-AFD2-468B-BE9B-F42FA80C9C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,20 +935,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1281,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1300,17 +1300,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1340,16 +1340,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1381,8 +1381,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1412,8 +1412,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1443,8 +1443,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1474,8 +1474,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1502,8 +1502,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1524,8 +1524,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
@@ -1538,13 +1538,15 @@
       <c r="F9" s="8">
         <v>240814</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="8">
+        <v>240817</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1574,7 +1576,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1598,10 +1600,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1633,8 +1635,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="16"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1661,8 +1663,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1692,8 +1694,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1723,8 +1725,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1749,8 +1751,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="16"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1774,8 +1776,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="16"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1799,8 +1801,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="16"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1824,8 +1826,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1843,10 +1845,10 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="33">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1875,8 +1877,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1895,8 +1897,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1923,8 +1925,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1939,10 +1941,10 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2">
@@ -1965,8 +1967,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1987,8 +1989,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
         <v>81</v>
       </c>
@@ -1998,7 +2000,9 @@
       <c r="E27" s="8">
         <v>240815</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="9">
+        <v>240817</v>
+      </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
@@ -2011,7 +2015,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2037,8 +2041,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2055,8 +2059,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="2">
         <v>1427</v>
       </c>
@@ -2071,7 +2075,7 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>83</v>
       </c>
@@ -2081,14 +2085,16 @@
       <c r="D32" s="8">
         <v>240815</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="9">
+        <v>240817</v>
+      </c>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2105,8 +2111,8 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2119,6 +2125,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A1:I1"/>
@@ -2127,12 +2139,6 @@
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="A29:A32"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2198,7 +2204,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603B4C04-AFD2-468B-BE9B-F42FA80C9C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523B08F2-A237-4EA4-A700-7D4666881023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,6 +935,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -946,9 +949,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1281,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1300,17 +1300,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1340,16 +1340,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1381,8 +1381,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1412,8 +1412,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1443,8 +1443,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1474,8 +1474,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1502,8 +1502,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1524,8 +1524,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
@@ -1546,7 +1546,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1576,7 +1576,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1600,10 +1600,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1635,8 +1635,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="15"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1663,8 +1663,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1694,8 +1694,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1725,8 +1725,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1751,8 +1751,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1776,8 +1776,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="15"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1801,8 +1801,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="15"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1826,8 +1826,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="15"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1845,10 +1845,10 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="33">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1877,8 +1877,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1897,8 +1897,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1925,8 +1925,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1941,10 +1941,10 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2">
@@ -1967,8 +1967,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1989,8 +1989,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2" t="s">
         <v>81</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="E27" s="8">
         <v>240815</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>240817</v>
       </c>
       <c r="G27" s="8"/>
@@ -2015,7 +2015,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2041,8 +2041,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2059,8 +2059,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="2">
         <v>1427</v>
       </c>
@@ -2075,7 +2075,7 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="15"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="2" t="s">
         <v>83</v>
       </c>
@@ -2091,10 +2091,10 @@
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2111,8 +2111,8 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2125,12 +2125,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A1:I1"/>
@@ -2139,6 +2133,12 @@
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="A29:A32"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2204,7 +2204,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523B08F2-A237-4EA4-A700-7D4666881023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B2365E-D2D8-4B95-8CFD-F68D0B960C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,20 +935,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1282,7 +1282,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1300,17 +1300,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1340,16 +1340,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1381,8 +1381,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1412,8 +1412,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1443,8 +1443,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1474,8 +1474,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1502,8 +1502,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1524,8 +1524,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
@@ -1546,7 +1546,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1576,7 +1576,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1600,10 +1600,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1635,8 +1635,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="16"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1663,8 +1663,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1694,8 +1694,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1725,8 +1725,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1751,8 +1751,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="16"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1776,8 +1776,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="16"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1801,8 +1801,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="16"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1826,8 +1826,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1845,10 +1845,10 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="33">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1877,8 +1877,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1897,8 +1897,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1925,8 +1925,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1941,10 +1941,10 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2">
@@ -1967,8 +1967,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1989,8 +1989,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
         <v>81</v>
       </c>
@@ -2015,7 +2015,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2041,8 +2041,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2059,8 +2059,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="2">
         <v>1427</v>
       </c>
@@ -2075,7 +2075,7 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>83</v>
       </c>
@@ -2085,16 +2085,16 @@
       <c r="D32" s="8">
         <v>240815</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>240817</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2111,8 +2111,8 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2125,6 +2125,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A1:I1"/>
@@ -2133,12 +2139,6 @@
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="A29:A32"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2204,7 +2204,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeuk/IdeaProjects/AlgorithmStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B2365E-D2D8-4B95-8CFD-F68D0B960C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F97D51-ACB7-6E4B-8452-807CBE20F9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -720,7 +720,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,6 +808,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -889,7 +898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -935,6 +944,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -947,9 +959,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -963,6 +972,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1281,36 +1293,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="D21" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="2" width="35.875" customWidth="1"/>
-    <col min="3" max="3" width="83.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
-    <col min="7" max="7" width="25.125" customWidth="1"/>
-    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="1" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1340,16 +1352,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1381,8 +1393,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1412,8 +1424,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1442,9 +1454,9 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+    <row r="6" spans="1:11" ht="36">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1474,8 +1486,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1502,8 +1514,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1523,9 +1535,9 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+    <row r="9" spans="1:11" ht="36">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
@@ -1546,7 +1558,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1576,7 +1588,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1600,10 +1612,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1635,8 +1647,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="15"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1663,8 +1675,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1694,8 +1706,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1724,9 +1736,9 @@
         <v>240709</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
+    <row r="16" spans="1:11" ht="54">
+      <c r="A16" s="16"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1750,9 +1762,9 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
+    <row r="17" spans="1:10" ht="36">
+      <c r="A17" s="16"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1776,8 +1788,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="15"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1800,9 +1812,9 @@
         <v>240808</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="15"/>
-      <c r="B19" s="18"/>
+    <row r="19" spans="1:10" ht="36">
+      <c r="A19" s="16"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1826,8 +1838,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="15"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1840,15 +1852,17 @@
       <c r="F20" s="8">
         <v>240815</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="25">
+        <v>240820</v>
+      </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="33">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:10" ht="36">
+      <c r="A21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1877,8 +1891,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1897,8 +1911,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1925,8 +1939,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1941,10 +1955,10 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2">
@@ -1967,8 +1981,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1989,8 +2003,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2" t="s">
         <v>81</v>
       </c>
@@ -2015,7 +2029,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2041,8 +2055,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2057,10 +2071,13 @@
       <c r="F30" s="8">
         <v>240808</v>
       </c>
+      <c r="G30" s="25">
+        <v>240820</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="2">
         <v>1427</v>
       </c>
@@ -2075,7 +2092,7 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="15"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="2" t="s">
         <v>83</v>
       </c>
@@ -2088,13 +2105,15 @@
       <c r="E32" s="8">
         <v>240817</v>
       </c>
-      <c r="F32" s="8"/>
+      <c r="F32" s="25">
+        <v>240820</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2111,8 +2130,8 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2122,15 +2141,12 @@
       <c r="E34" s="8">
         <v>240815</v>
       </c>
+      <c r="F34" s="25">
+        <v>240820</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A1:I1"/>
@@ -2139,6 +2155,12 @@
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="A29:A32"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2155,12 +2177,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.625" customWidth="1"/>
-    <col min="4" max="4" width="67.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2180,7 +2202,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="66">
+    <row r="2" spans="1:5" ht="72">
       <c r="A2" s="2">
         <v>10026</v>
       </c>
@@ -2204,7 +2226,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>
@@ -2230,10 +2252,10 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2368,9 +2390,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeuk/IdeaProjects/AlgorithmStudy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F97D51-ACB7-6E4B-8452-807CBE20F9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E2F5FF-07E3-4692-B00C-D554F060D1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -944,21 +944,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -972,9 +975,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1293,21 +1293,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="35.83203125" customWidth="1"/>
-    <col min="3" max="3" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="1" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="83.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1352,10 +1352,10 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="16" t="s">
@@ -1454,7 +1454,7 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="36">
+    <row r="6" spans="1:11" ht="33">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
@@ -1535,7 +1535,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="36">
+    <row r="9" spans="1:11" ht="33">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
@@ -1736,7 +1736,7 @@
         <v>240709</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="54">
+    <row r="16" spans="1:11" ht="49.5">
       <c r="A16" s="16"/>
       <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="36">
+    <row r="17" spans="1:10" ht="33">
       <c r="A17" s="16"/>
       <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
@@ -1812,7 +1812,7 @@
         <v>240808</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="36">
+    <row r="19" spans="1:10" ht="33">
       <c r="A19" s="16"/>
       <c r="B19" s="19"/>
       <c r="C19" s="7" t="s">
@@ -1852,13 +1852,13 @@
       <c r="F20" s="8">
         <v>240815</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="8">
         <v>240820</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="36">
+    <row r="21" spans="1:10" ht="33">
       <c r="A21" s="16" t="s">
         <v>37</v>
       </c>
@@ -2071,7 +2071,7 @@
       <c r="F30" s="8">
         <v>240808</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="15">
         <v>240820</v>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       <c r="E32" s="8">
         <v>240817</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="15">
         <v>240820</v>
       </c>
     </row>
@@ -2141,12 +2141,18 @@
       <c r="E34" s="8">
         <v>240815</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="15">
         <v>240820</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A1:I1"/>
@@ -2155,12 +2161,6 @@
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="A29:A32"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2177,12 +2177,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" customWidth="1"/>
-    <col min="4" max="4" width="67.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.625" customWidth="1"/>
+    <col min="4" max="4" width="67.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2202,14 +2202,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72">
+    <row r="2" spans="1:5" ht="66">
       <c r="A2" s="2">
         <v>10026</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -2252,10 +2252,10 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="2" max="2" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2267,7 +2267,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2275,31 +2275,31 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>75</v>
       </c>
@@ -2313,7 +2313,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2321,31 +2321,31 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
@@ -2390,9 +2390,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E2F5FF-07E3-4692-B00C-D554F060D1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8F4B99-3852-4534-B94E-6725531B771F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -947,6 +947,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -958,9 +961,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1312,17 +1312,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1352,16 +1352,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1393,8 +1393,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1424,8 +1424,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1455,8 +1455,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1486,8 +1486,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1514,8 +1514,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1536,8 +1536,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
@@ -1558,7 +1558,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1588,7 +1588,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1612,10 +1612,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1647,8 +1647,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="16"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1675,8 +1675,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1706,8 +1706,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1737,8 +1737,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1763,8 +1763,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="16"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1788,8 +1788,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="16"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1813,8 +1813,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="16"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1838,8 +1838,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1859,10 +1859,10 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="33">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1891,8 +1891,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1911,8 +1911,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1939,8 +1939,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1955,10 +1955,10 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2">
@@ -1981,8 +1981,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
@@ -2003,8 +2003,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="2" t="s">
         <v>81</v>
       </c>
@@ -2029,7 +2029,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2055,8 +2055,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2071,13 +2071,13 @@
       <c r="F30" s="8">
         <v>240808</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="8">
         <v>240820</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="2">
         <v>1427</v>
       </c>
@@ -2092,7 +2092,7 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="2" t="s">
         <v>83</v>
       </c>
@@ -2110,10 +2110,10 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2130,8 +2130,8 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2147,12 +2147,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A1:I1"/>
@@ -2161,6 +2155,12 @@
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="A29:A32"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2226,7 +2226,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8F4B99-3852-4534-B94E-6725531B771F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D30474E-D035-44D1-9583-FA48E8B94118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -947,20 +947,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1312,17 +1312,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1352,16 +1352,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1393,8 +1393,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1424,8 +1424,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1455,8 +1455,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1486,8 +1486,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1514,8 +1514,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1536,8 +1536,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
@@ -1558,7 +1558,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1588,7 +1588,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1612,10 +1612,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1647,8 +1647,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="17"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1675,8 +1675,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="17"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1706,8 +1706,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="17"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1737,8 +1737,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="17"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1763,8 +1763,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="17"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1788,8 +1788,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="17"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1813,8 +1813,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="17"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1838,8 +1838,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="17"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1859,10 +1859,10 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="33">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1891,8 +1891,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1911,8 +1911,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1939,8 +1939,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1955,10 +1955,10 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2">
@@ -1981,8 +1981,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
@@ -2003,8 +2003,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2" t="s">
         <v>81</v>
       </c>
@@ -2029,7 +2029,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2055,8 +2055,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2076,8 +2076,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="2">
         <v>1427</v>
       </c>
@@ -2092,7 +2092,7 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="17"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="2" t="s">
         <v>83</v>
       </c>
@@ -2106,14 +2106,14 @@
         <v>240817</v>
       </c>
       <c r="F32" s="15">
-        <v>240820</v>
+        <v>240822</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2130,8 +2130,8 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2147,6 +2147,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A1:I1"/>
@@ -2155,12 +2161,6 @@
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="A29:A32"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2226,7 +2226,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D30474E-D035-44D1-9583-FA48E8B94118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954A90DF-B385-436B-B0A1-553D41B2C71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -947,6 +947,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -958,9 +961,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1312,17 +1312,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1352,16 +1352,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1393,8 +1393,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1424,8 +1424,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1455,8 +1455,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1486,8 +1486,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1514,8 +1514,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1536,8 +1536,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
@@ -1558,7 +1558,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1588,7 +1588,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1612,10 +1612,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1647,8 +1647,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="16"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1675,8 +1675,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1706,8 +1706,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1737,8 +1737,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1763,8 +1763,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="16"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1788,8 +1788,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="16"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1813,8 +1813,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="16"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1838,8 +1838,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1859,10 +1859,10 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="33">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1891,8 +1891,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1911,8 +1911,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1939,8 +1939,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1955,10 +1955,10 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2">
@@ -1981,8 +1981,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
@@ -2003,8 +2003,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="2" t="s">
         <v>81</v>
       </c>
@@ -2029,7 +2029,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2055,8 +2055,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2076,8 +2076,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="2">
         <v>1427</v>
       </c>
@@ -2092,7 +2092,7 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="2" t="s">
         <v>83</v>
       </c>
@@ -2105,15 +2105,15 @@
       <c r="E32" s="8">
         <v>240817</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="8">
         <v>240822</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2130,8 +2130,8 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2147,12 +2147,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A1:I1"/>
@@ -2161,6 +2155,12 @@
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="A29:A32"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2226,7 +2226,7 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954A90DF-B385-436B-B0A1-553D41B2C71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16019EA3-19E6-430D-B7B3-63A2F49A1FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,11 +316,6 @@
   <si>
     <t>1920 (이분탐색 시 중앙값 기준 왼쪽 오른쪽 나눌때 인덱스로 나눈다.)
 - dataSet 입력 후 오름차순 정렬 잊지말기!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFS/BFS
-(그래프형식 / 미로형식 문제 잘 파악해서 풀기)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -713,6 +708,15 @@
   </si>
   <si>
     <t>프로그래머스 - K번째수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS/BFS
+(트리형식 / 미로형식 문제 잘 파악해서 풀기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟넘버</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,14 +957,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1291,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1312,17 +1316,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1517,7 +1521,7 @@
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="8">
         <v>240808</v>
@@ -1539,7 +1543,7 @@
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="8">
         <v>2400810</v>
@@ -1615,8 +1619,8 @@
       <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>46</v>
+      <c r="B12" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
@@ -1648,7 +1652,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="17"/>
-      <c r="B13" s="20"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1676,7 +1680,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="17"/>
-      <c r="B14" s="20"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1707,7 +1711,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="17"/>
-      <c r="B15" s="20"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1738,9 +1742,9 @@
     </row>
     <row r="16" spans="1:11" ht="49.5">
       <c r="A16" s="17"/>
-      <c r="B16" s="20"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2">
         <v>240613</v>
@@ -1764,9 +1768,9 @@
     </row>
     <row r="17" spans="1:10" ht="33">
       <c r="A17" s="17"/>
-      <c r="B17" s="20"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8">
         <v>240618</v>
@@ -1789,9 +1793,9 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="17"/>
-      <c r="B18" s="20"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8">
         <v>240710</v>
@@ -1814,9 +1818,9 @@
     </row>
     <row r="19" spans="1:10" ht="33">
       <c r="A19" s="17"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8">
         <v>240716</v>
@@ -1839,7 +1843,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="17"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1858,309 +1862,324 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="33">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:10">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="9">
+        <v>240823</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" ht="33">
+      <c r="A22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="2">
         <v>240607</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="2">
         <v>240612</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F22" s="8">
         <v>240617</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G22" s="8">
         <v>240618</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H22" s="8">
         <v>240624</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I22" s="8">
         <v>240709</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J22" s="8">
         <v>240727</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="2">
-        <v>240613</v>
-      </c>
-      <c r="E22" s="8">
-        <v>240617</v>
-      </c>
-      <c r="F22" s="8">
-        <v>240618</v>
-      </c>
-      <c r="G22" s="8">
-        <v>240619</v>
-      </c>
-      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="8">
+        <v>44</v>
+      </c>
+      <c r="D23" s="2">
+        <v>240613</v>
+      </c>
+      <c r="E23" s="8">
+        <v>240617</v>
+      </c>
+      <c r="F23" s="8">
+        <v>240618</v>
+      </c>
+      <c r="G23" s="8">
         <v>240619</v>
       </c>
-      <c r="E23" s="8">
-        <v>240620</v>
-      </c>
-      <c r="F23" s="8">
-        <v>240624</v>
-      </c>
-      <c r="G23" s="8">
-        <v>240628</v>
-      </c>
-      <c r="H23" s="8">
-        <v>240709</v>
-      </c>
-      <c r="I23" s="8">
-        <v>240719</v>
-      </c>
-      <c r="J23" s="8">
-        <v>240727</v>
-      </c>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" s="8">
         <v>240619</v>
       </c>
       <c r="E24" s="8">
+        <v>240620</v>
+      </c>
+      <c r="F24" s="8">
         <v>240624</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="G24" s="8">
+        <v>240628</v>
+      </c>
+      <c r="H24" s="8">
+        <v>240709</v>
+      </c>
+      <c r="I24" s="8">
+        <v>240719</v>
+      </c>
+      <c r="J24" s="8">
+        <v>240727</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="8">
+        <v>240619</v>
+      </c>
+      <c r="E25" s="8">
+        <v>240624</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B26" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="2">
         <v>11047</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="8">
         <v>240709</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26" s="8">
         <v>240711</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F26" s="8">
         <v>240713</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G26" s="8">
         <v>240716</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H26" s="8">
         <v>240726</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="8">
-        <v>240716</v>
-      </c>
-      <c r="E26" s="8">
-        <v>240719</v>
-      </c>
-      <c r="F26" s="8">
-        <v>240726</v>
-      </c>
-      <c r="G26" s="8">
-        <v>240727</v>
-      </c>
-      <c r="H26" s="8">
-        <v>240730</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D27" s="8">
+        <v>240716</v>
+      </c>
+      <c r="E27" s="8">
+        <v>240719</v>
+      </c>
+      <c r="F27" s="8">
+        <v>240726</v>
+      </c>
+      <c r="G27" s="8">
+        <v>240727</v>
+      </c>
+      <c r="H27" s="8">
+        <v>240730</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="8">
         <v>240812</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="8">
         <v>240815</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F28" s="8">
         <v>240817</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="2" t="s">
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="17" t="s">
+      <c r="B29" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <v>240726</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E30" s="8">
         <v>240727</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F30" s="8">
         <v>240730</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G30" s="8">
         <v>240806</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H30" s="8">
         <v>240808</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="8">
-        <v>240730</v>
-      </c>
-      <c r="E30" s="8">
-        <v>240806</v>
-      </c>
-      <c r="F30" s="8">
-        <v>240808</v>
-      </c>
-      <c r="G30" s="8">
-        <v>240820</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="2">
-        <v>1427</v>
+      <c r="B31" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D31" s="8">
+        <v>240730</v>
+      </c>
+      <c r="E31" s="8">
+        <v>240806</v>
+      </c>
+      <c r="F31" s="8">
         <v>240808</v>
       </c>
-      <c r="E31" s="8">
-        <v>240809</v>
-      </c>
-      <c r="F31" s="8">
-        <v>240811</v>
+      <c r="G31" s="8">
+        <v>240820</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="17"/>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="2">
+        <v>1427</v>
+      </c>
+      <c r="D32" s="8">
+        <v>240808</v>
+      </c>
+      <c r="E32" s="8">
+        <v>240809</v>
+      </c>
+      <c r="F32" s="8">
+        <v>240811</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="17"/>
+      <c r="B33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="8">
+      <c r="D33" s="8">
         <v>240815</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E33" s="8">
         <v>240817</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F33" s="8">
         <v>240822</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="17" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="D34" s="8">
         <v>240809</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E34" s="8">
         <v>240810</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F34" s="8">
         <v>240814</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="8">
+    <row r="35" spans="1:6">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="8">
         <v>240814</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E35" s="8">
         <v>240815</v>
       </c>
-      <c r="F34" s="15">
-        <v>240820</v>
+      <c r="F35" s="9">
+        <v>240824</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
     <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="B12:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2190,16 +2209,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="66">
@@ -2207,16 +2226,16 @@
         <v>10026</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="59.25" customHeight="1">
@@ -2224,14 +2243,14 @@
         <v>2468</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2268,40 +2287,40 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16019EA3-19E6-430D-B7B3-63A2F49A1FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A326FBA2-4FF0-4755-8780-C5275396C35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -724,7 +724,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -812,15 +812,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -902,7 +893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -948,23 +939,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1298,7 +1286,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1316,17 +1304,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1356,16 +1344,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1397,8 +1385,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1428,8 +1416,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1459,8 +1447,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1490,8 +1478,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1518,8 +1506,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>76</v>
       </c>
@@ -1540,8 +1528,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="7" t="s">
         <v>79</v>
       </c>
@@ -1562,7 +1550,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="17"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1592,7 +1580,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1616,10 +1604,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1651,8 +1639,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1679,8 +1667,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1710,8 +1698,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1741,8 +1729,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
@@ -1767,8 +1755,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
         <v>53</v>
       </c>
@@ -1792,8 +1780,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1817,8 +1805,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="7" t="s">
         <v>54</v>
       </c>
@@ -1842,8 +1830,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1863,25 +1851,27 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>240823</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="8">
+        <v>240824</v>
+      </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="33">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1910,8 +1900,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1930,8 +1920,8 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1958,8 +1948,8 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1974,10 +1964,10 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="2">
@@ -2000,8 +1990,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2022,8 +2012,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
@@ -2048,7 +2038,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2074,8 +2064,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2095,8 +2085,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="2">
         <v>1427</v>
       </c>
@@ -2111,7 +2101,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="17"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="2" t="s">
         <v>82</v>
       </c>
@@ -2129,10 +2119,10 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2149,8 +2139,8 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="2" t="s">
         <v>81</v>
       </c>
@@ -2166,12 +2156,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A30:A33"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
@@ -2180,6 +2164,12 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="B12:B21"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2228,7 +2218,7 @@
       <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -2245,7 +2235,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>
@@ -2286,7 +2276,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2294,31 +2284,31 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="22"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
         <v>74</v>
       </c>
@@ -2332,7 +2322,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2340,31 +2330,31 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="24"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="25"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A326FBA2-4FF0-4755-8780-C5275396C35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BD2DD0-9EDF-4ACB-97B3-74738FBE8225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -939,20 +939,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1304,17 +1304,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1344,16 +1344,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1385,8 +1385,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1416,8 +1416,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1447,8 +1447,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1478,8 +1478,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1506,8 +1506,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>76</v>
       </c>
@@ -1528,8 +1528,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>79</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1580,7 +1580,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1604,10 +1604,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1639,8 +1639,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="15"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1667,8 +1667,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1698,8 +1698,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1729,8 +1729,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
@@ -1755,8 +1755,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="7" t="s">
         <v>53</v>
       </c>
@@ -1780,8 +1780,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="15"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1805,8 +1805,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="15"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="7" t="s">
         <v>54</v>
       </c>
@@ -1830,8 +1830,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="15"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1851,8 +1851,8 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="7" t="s">
         <v>85</v>
       </c>
@@ -1868,10 +1868,10 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="33">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1900,8 +1900,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1920,8 +1920,8 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1948,8 +1948,8 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1964,10 +1964,10 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="2">
@@ -1990,8 +1990,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2012,8 +2012,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
@@ -2038,7 +2038,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2064,8 +2064,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2085,8 +2085,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="2">
         <v>1427</v>
       </c>
@@ -2101,7 +2101,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="15"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="2" t="s">
         <v>82</v>
       </c>
@@ -2119,10 +2119,10 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2139,8 +2139,8 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="2" t="s">
         <v>81</v>
       </c>
@@ -2150,12 +2150,18 @@
       <c r="E35" s="8">
         <v>240815</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <v>240824</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
@@ -2164,12 +2170,6 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="B12:B21"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2235,7 +2235,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BD2DD0-9EDF-4ACB-97B3-74738FBE8225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1752547-446F-4512-A387-B22AD96EABBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -2083,6 +2083,9 @@
       <c r="G31" s="8">
         <v>240820</v>
       </c>
+      <c r="H31" s="8">
+        <v>240824</v>
+      </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="16"/>
@@ -2099,8 +2102,11 @@
       <c r="F32" s="8">
         <v>240811</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="9">
+        <v>240824</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="16"/>
       <c r="B33" s="2" t="s">
         <v>82</v>
@@ -2117,8 +2123,11 @@
       <c r="F33" s="8">
         <v>240822</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="9">
+        <v>240824</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="16" t="s">
         <v>77</v>
       </c>
@@ -2137,8 +2146,11 @@
       <c r="F34" s="8">
         <v>240814</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="9">
+        <v>240824</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="2" t="s">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1752547-446F-4512-A387-B22AD96EABBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5102B556-BAFA-494F-9638-8651D7F26E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -939,20 +939,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1304,17 +1304,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1344,16 +1344,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1385,8 +1385,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1416,8 +1416,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1447,8 +1447,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1478,8 +1478,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1506,8 +1506,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>76</v>
       </c>
@@ -1528,8 +1528,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="7" t="s">
         <v>79</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1580,7 +1580,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1604,10 +1604,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1639,8 +1639,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1667,8 +1667,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1698,8 +1698,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1729,8 +1729,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
@@ -1755,8 +1755,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
         <v>53</v>
       </c>
@@ -1780,8 +1780,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1805,8 +1805,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="7" t="s">
         <v>54</v>
       </c>
@@ -1830,8 +1830,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1851,8 +1851,8 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="7" t="s">
         <v>85</v>
       </c>
@@ -1868,10 +1868,10 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="33">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1900,8 +1900,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1920,8 +1920,8 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1948,8 +1948,8 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1964,10 +1964,10 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="2">
@@ -1990,8 +1990,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2012,8 +2012,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
@@ -2038,7 +2038,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2064,8 +2064,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2088,8 +2088,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="2">
         <v>1427</v>
       </c>
@@ -2102,12 +2102,12 @@
       <c r="F32" s="8">
         <v>240811</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <v>240824</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="16"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="2" t="s">
         <v>82</v>
       </c>
@@ -2128,10 +2128,10 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2151,8 +2151,8 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="2" t="s">
         <v>81</v>
       </c>
@@ -2168,12 +2168,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A30:A33"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
@@ -2182,6 +2176,12 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="B12:B21"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2247,7 +2247,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5102B556-BAFA-494F-9638-8651D7F26E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B3EDE9-EF41-49D6-BDAF-02822F899A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -939,20 +939,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1304,17 +1304,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1344,16 +1344,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1385,8 +1385,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1416,8 +1416,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1447,8 +1447,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1478,8 +1478,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1506,8 +1506,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>76</v>
       </c>
@@ -1528,8 +1528,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>79</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1580,7 +1580,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1604,10 +1604,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1639,8 +1639,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="15"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1667,8 +1667,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1698,8 +1698,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1729,8 +1729,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
@@ -1755,8 +1755,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="7" t="s">
         <v>53</v>
       </c>
@@ -1780,8 +1780,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="15"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1805,8 +1805,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="15"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="7" t="s">
         <v>54</v>
       </c>
@@ -1830,8 +1830,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="15"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1851,8 +1851,8 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="7" t="s">
         <v>85</v>
       </c>
@@ -1868,10 +1868,10 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="33">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1900,8 +1900,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1920,8 +1920,8 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1948,8 +1948,8 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1964,10 +1964,10 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="2">
@@ -1990,8 +1990,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2012,8 +2012,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
@@ -2038,7 +2038,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2064,8 +2064,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2088,8 +2088,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="2">
         <v>1427</v>
       </c>
@@ -2107,7 +2107,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="15"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="2" t="s">
         <v>82</v>
       </c>
@@ -2123,15 +2123,15 @@
       <c r="F33" s="8">
         <v>240822</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <v>240824</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2151,8 +2151,8 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="2" t="s">
         <v>81</v>
       </c>
@@ -2168,6 +2168,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
@@ -2176,12 +2182,6 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="B12:B21"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2247,7 +2247,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B3EDE9-EF41-49D6-BDAF-02822F899A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7DB2C7-24A2-453F-A8D2-77CF324B7591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -939,20 +939,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1304,17 +1304,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1344,16 +1344,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1385,8 +1385,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1416,8 +1416,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1447,8 +1447,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1478,8 +1478,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1506,8 +1506,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>76</v>
       </c>
@@ -1528,8 +1528,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="7" t="s">
         <v>79</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1580,7 +1580,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1604,10 +1604,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1639,8 +1639,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1667,8 +1667,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1698,8 +1698,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1729,8 +1729,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
@@ -1755,8 +1755,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
         <v>53</v>
       </c>
@@ -1780,8 +1780,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1805,8 +1805,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="7" t="s">
         <v>54</v>
       </c>
@@ -1830,8 +1830,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1851,8 +1851,8 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="7" t="s">
         <v>85</v>
       </c>
@@ -1868,10 +1868,10 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="33">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1900,8 +1900,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1920,8 +1920,8 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1948,8 +1948,8 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1964,10 +1964,10 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="2">
@@ -1990,8 +1990,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2012,8 +2012,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
@@ -2038,7 +2038,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2064,8 +2064,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2088,8 +2088,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="2">
         <v>1427</v>
       </c>
@@ -2107,7 +2107,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="16"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="2" t="s">
         <v>82</v>
       </c>
@@ -2128,10 +2128,10 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2146,13 +2146,13 @@
       <c r="F34" s="8">
         <v>240814</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <v>240824</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="2" t="s">
         <v>81</v>
       </c>
@@ -2168,12 +2168,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A30:A33"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
@@ -2182,6 +2176,12 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="B12:B21"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2247,7 +2247,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7DB2C7-24A2-453F-A8D2-77CF324B7591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411F4252-D5C9-4A64-B515-8D19F01E9E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -939,20 +939,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1304,17 +1304,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1344,16 +1344,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1385,8 +1385,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1416,8 +1416,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1447,8 +1447,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1478,8 +1478,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1506,8 +1506,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>76</v>
       </c>
@@ -1528,8 +1528,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>79</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1580,7 +1580,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1604,10 +1604,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1639,8 +1639,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="15"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1665,10 +1665,13 @@
       <c r="J13" s="2">
         <v>240618</v>
       </c>
+      <c r="K13" s="2">
+        <v>240824</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1698,8 +1701,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1729,8 +1732,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
@@ -1755,8 +1758,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="7" t="s">
         <v>53</v>
       </c>
@@ -1780,8 +1783,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="15"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1805,8 +1808,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="15"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="7" t="s">
         <v>54</v>
       </c>
@@ -1830,8 +1833,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="15"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1851,8 +1854,8 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="7" t="s">
         <v>85</v>
       </c>
@@ -1868,10 +1871,10 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="33">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1900,8 +1903,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1920,8 +1923,8 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1948,8 +1951,8 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1964,10 +1967,10 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="2">
@@ -1990,8 +1993,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2012,8 +2015,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
@@ -2038,7 +2041,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2064,8 +2067,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2088,8 +2091,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="2">
         <v>1427</v>
       </c>
@@ -2107,7 +2110,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="15"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="2" t="s">
         <v>82</v>
       </c>
@@ -2128,10 +2131,10 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2151,8 +2154,8 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="2" t="s">
         <v>81</v>
       </c>
@@ -2168,6 +2171,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
@@ -2176,12 +2185,6 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="B12:B21"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2247,7 +2250,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeuk/IdeaProjects/AlgorithmStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411F4252-D5C9-4A64-B515-8D19F01E9E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512A2FAE-B895-1F4A-87B5-6F3B948BF318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -716,7 +716,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>타겟넘버</t>
+    <t>프로그래머스 - 타겟넘버</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,7 +724,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -812,6 +812,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -893,7 +902,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,20 +948,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -967,6 +976,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1285,36 +1297,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="2" width="35.875" customWidth="1"/>
-    <col min="3" max="3" width="83.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
-    <col min="7" max="7" width="25.125" customWidth="1"/>
-    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="1" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1344,16 +1356,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1385,8 +1397,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1416,8 +1428,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1446,9 +1458,9 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+    <row r="6" spans="1:11" ht="36">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1478,8 +1490,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1506,8 +1518,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>76</v>
       </c>
@@ -1523,13 +1535,15 @@
       <c r="G8" s="8">
         <v>240815</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="25">
+        <v>240815</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+    <row r="9" spans="1:11" ht="36">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="7" t="s">
         <v>79</v>
       </c>
@@ -1545,12 +1559,14 @@
       <c r="G9" s="8">
         <v>240817</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="25">
+        <v>240815</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1580,7 +1596,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1604,10 +1620,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1639,8 +1655,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1670,8 +1686,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1701,8 +1717,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1731,9 +1747,9 @@
         <v>240709</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
+    <row r="16" spans="1:11" ht="54">
+      <c r="A16" s="15"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
@@ -1757,9 +1773,9 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
+    <row r="17" spans="1:10" ht="36">
+      <c r="A17" s="15"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
         <v>53</v>
       </c>
@@ -1783,8 +1799,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1807,9 +1823,9 @@
         <v>240808</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
+    <row r="19" spans="1:10" ht="36">
+      <c r="A19" s="15"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="7" t="s">
         <v>54</v>
       </c>
@@ -1833,8 +1849,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1853,9 +1869,9 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
+    <row r="21" spans="1:10" ht="18">
+      <c r="A21" s="15"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="7" t="s">
         <v>85</v>
       </c>
@@ -1870,11 +1886,11 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="33">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:10" ht="36">
+      <c r="A22" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1903,8 +1919,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1923,8 +1939,8 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1951,8 +1967,8 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1967,10 +1983,10 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="2">
@@ -1993,8 +2009,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2015,8 +2031,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
@@ -2041,7 +2057,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2067,8 +2083,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2091,8 +2107,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="2">
         <v>1427</v>
       </c>
@@ -2109,8 +2125,8 @@
         <v>240824</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="16"/>
+    <row r="33" spans="1:8">
+      <c r="A33" s="15"/>
       <c r="B33" s="2" t="s">
         <v>82</v>
       </c>
@@ -2130,11 +2146,11 @@
         <v>240824</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2152,10 +2168,13 @@
       <c r="G34" s="8">
         <v>240824</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
+      <c r="H34" s="25">
+        <v>240815</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="2" t="s">
         <v>81</v>
       </c>
@@ -2168,15 +2187,12 @@
       <c r="F35" s="8">
         <v>240824</v>
       </c>
+      <c r="G35" s="25">
+        <v>240815</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A30:A33"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
@@ -2185,6 +2201,12 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="B12:B21"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2201,12 +2223,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.625" customWidth="1"/>
-    <col min="4" max="4" width="67.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2226,7 +2248,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="66">
+    <row r="2" spans="1:5" ht="72">
       <c r="A2" s="2">
         <v>10026</v>
       </c>
@@ -2250,7 +2272,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>
@@ -2276,10 +2298,10 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2414,9 +2436,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeuk/IdeaProjects/AlgorithmStudy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512A2FAE-B895-1F4A-87B5-6F3B948BF318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7D2441-F0A7-496F-B648-7C2374712FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -948,21 +948,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -976,9 +979,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1297,36 +1297,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="35.83203125" customWidth="1"/>
-    <col min="3" max="3" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="1" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="83.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1356,16 +1356,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1397,8 +1397,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1428,8 +1428,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1458,9 +1458,9 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="36">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+    <row r="6" spans="1:11" ht="33">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1490,8 +1490,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1518,8 +1518,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
         <v>76</v>
       </c>
@@ -1535,15 +1535,15 @@
       <c r="G8" s="8">
         <v>240815</v>
       </c>
-      <c r="H8" s="25">
-        <v>240815</v>
+      <c r="H8" s="15">
+        <v>240827</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="36">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+    <row r="9" spans="1:11" ht="33">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="7" t="s">
         <v>79</v>
       </c>
@@ -1559,14 +1559,14 @@
       <c r="G9" s="8">
         <v>240817</v>
       </c>
-      <c r="H9" s="25">
-        <v>240815</v>
+      <c r="H9" s="15">
+        <v>240827</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="15"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1596,7 +1596,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="15"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1620,10 +1620,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1655,8 +1655,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="15"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1686,8 +1686,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1717,8 +1717,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1747,9 +1747,9 @@
         <v>240709</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="54">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19"/>
+    <row r="16" spans="1:11" ht="49.5">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
@@ -1773,9 +1773,9 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="36">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19"/>
+    <row r="17" spans="1:10" ht="33">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>53</v>
       </c>
@@ -1799,8 +1799,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="15"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1823,9 +1823,9 @@
         <v>240808</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="36">
-      <c r="A19" s="15"/>
-      <c r="B19" s="19"/>
+    <row r="19" spans="1:10" ht="33">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="7" t="s">
         <v>54</v>
       </c>
@@ -1849,8 +1849,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="15"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1866,12 +1866,14 @@
       <c r="G20" s="8">
         <v>240820</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="15">
+        <v>240827</v>
+      </c>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="18">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19"/>
+    <row r="21" spans="1:10">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="7" t="s">
         <v>85</v>
       </c>
@@ -1881,16 +1883,18 @@
       <c r="E21" s="8">
         <v>240824</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="15">
+        <v>240827</v>
+      </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="36">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:10" ht="33">
+      <c r="A22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1919,8 +1923,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1939,8 +1943,8 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1967,8 +1971,8 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1983,10 +1987,10 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="2">
@@ -2009,8 +2013,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2031,8 +2035,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
@@ -2057,7 +2061,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2083,8 +2087,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2107,8 +2111,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="2">
         <v>1427</v>
       </c>
@@ -2126,7 +2130,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="15"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="2" t="s">
         <v>82</v>
       </c>
@@ -2147,10 +2151,10 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2168,13 +2172,13 @@
       <c r="G34" s="8">
         <v>240824</v>
       </c>
-      <c r="H34" s="25">
-        <v>240815</v>
+      <c r="H34" s="15">
+        <v>240827</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="2" t="s">
         <v>81</v>
       </c>
@@ -2187,12 +2191,18 @@
       <c r="F35" s="8">
         <v>240824</v>
       </c>
-      <c r="G35" s="25">
-        <v>240815</v>
+      <c r="G35" s="15">
+        <v>240827</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
@@ -2201,12 +2211,6 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="B12:B21"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2223,12 +2227,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" customWidth="1"/>
-    <col min="4" max="4" width="67.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.625" customWidth="1"/>
+    <col min="4" max="4" width="67.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2248,14 +2252,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72">
+    <row r="2" spans="1:5" ht="66">
       <c r="A2" s="2">
         <v>10026</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -2272,7 +2276,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>
@@ -2298,10 +2302,10 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="2" max="2" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2313,7 +2317,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2321,31 +2325,31 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>74</v>
       </c>
@@ -2359,7 +2363,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2367,31 +2371,31 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
@@ -2436,9 +2440,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7D2441-F0A7-496F-B648-7C2374712FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E987D1-D766-419A-AD93-3FA96F629014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,20 +951,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1297,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1316,17 +1316,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1356,16 +1356,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1397,8 +1397,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1428,8 +1428,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1459,8 +1459,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1490,8 +1490,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1518,8 +1518,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>76</v>
       </c>
@@ -1535,15 +1535,15 @@
       <c r="G8" s="8">
         <v>240815</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="8">
         <v>240827</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>79</v>
       </c>
@@ -1566,7 +1566,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1596,7 +1596,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1620,10 +1620,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="20" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1655,8 +1655,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1686,8 +1686,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1717,8 +1717,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1748,8 +1748,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
@@ -1774,8 +1774,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="7" t="s">
         <v>53</v>
       </c>
@@ -1799,8 +1799,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1824,8 +1824,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="7" t="s">
         <v>54</v>
       </c>
@@ -1849,8 +1849,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1872,8 +1872,8 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="7" t="s">
         <v>85</v>
       </c>
@@ -1891,10 +1891,10 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="33">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1923,8 +1923,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1943,8 +1943,8 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1971,8 +1971,8 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1987,10 +1987,10 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="2">
@@ -2013,8 +2013,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2035,8 +2035,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
@@ -2061,7 +2061,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2087,8 +2087,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2111,8 +2111,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="2">
         <v>1427</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="17"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="2" t="s">
         <v>82</v>
       </c>
@@ -2151,10 +2151,10 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2177,8 +2177,8 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="2" t="s">
         <v>81</v>
       </c>
@@ -2197,12 +2197,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A30:A33"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
@@ -2211,6 +2205,12 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="B12:B21"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2276,7 +2276,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E987D1-D766-419A-AD93-3FA96F629014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACB0E69-5EE6-4C07-ACD5-19BD824D34A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,20 +951,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1298,7 +1298,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1316,17 +1316,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1356,16 +1356,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1397,8 +1397,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1428,8 +1428,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1459,8 +1459,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1490,8 +1490,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1518,8 +1518,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
         <v>76</v>
       </c>
@@ -1542,8 +1542,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="7" t="s">
         <v>79</v>
       </c>
@@ -1559,14 +1559,14 @@
       <c r="G9" s="8">
         <v>240817</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="8">
         <v>240827</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1596,7 +1596,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1620,10 +1620,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1655,8 +1655,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="16"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1686,8 +1686,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1717,8 +1717,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1748,8 +1748,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
@@ -1774,8 +1774,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="16"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>53</v>
       </c>
@@ -1799,8 +1799,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="16"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1824,8 +1824,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="16"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="7" t="s">
         <v>54</v>
       </c>
@@ -1849,8 +1849,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1872,8 +1872,8 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="16"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="7" t="s">
         <v>85</v>
       </c>
@@ -1891,10 +1891,10 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="33">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1923,8 +1923,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1943,8 +1943,8 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1971,8 +1971,8 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1987,10 +1987,10 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="2">
@@ -2013,8 +2013,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2035,8 +2035,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
@@ -2061,7 +2061,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2087,8 +2087,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2111,8 +2111,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="2">
         <v>1427</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="16"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="2" t="s">
         <v>82</v>
       </c>
@@ -2151,10 +2151,10 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2177,8 +2177,8 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="2" t="s">
         <v>81</v>
       </c>
@@ -2197,6 +2197,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
@@ -2205,12 +2211,6 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="B12:B21"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2276,7 +2276,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeuk/IdeaProjects/AlgorithmStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACB0E69-5EE6-4C07-ACD5-19BD824D34A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBFFE2A-C53E-F44D-8FF7-D346FD55FEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -902,7 +902,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,20 +951,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -979,6 +979,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1297,36 +1300,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="2" width="35.875" customWidth="1"/>
-    <col min="3" max="3" width="83.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
-    <col min="7" max="7" width="25.125" customWidth="1"/>
-    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="1" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1356,16 +1359,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1397,8 +1400,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1428,8 +1431,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1458,9 +1461,9 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+    <row r="6" spans="1:11" ht="36">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1490,8 +1493,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1518,8 +1521,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>76</v>
       </c>
@@ -1541,9 +1544,9 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+    <row r="9" spans="1:11" ht="36">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>79</v>
       </c>
@@ -1566,7 +1569,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1596,7 +1599,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1620,10 +1623,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="20" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1655,8 +1658,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1686,8 +1689,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1717,8 +1720,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1747,9 +1750,9 @@
         <v>240709</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+    <row r="16" spans="1:11" ht="54">
+      <c r="A16" s="16"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
@@ -1773,9 +1776,9 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+    <row r="17" spans="1:10" ht="36">
+      <c r="A17" s="16"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="7" t="s">
         <v>53</v>
       </c>
@@ -1799,8 +1802,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1823,9 +1826,9 @@
         <v>240808</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+    <row r="19" spans="1:10" ht="36">
+      <c r="A19" s="16"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="7" t="s">
         <v>54</v>
       </c>
@@ -1849,8 +1852,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1866,14 +1869,14 @@
       <c r="G20" s="8">
         <v>240820</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="26">
         <v>240827</v>
       </c>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
+    <row r="21" spans="1:10" ht="18">
+      <c r="A21" s="16"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="7" t="s">
         <v>85</v>
       </c>
@@ -1890,11 +1893,11 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="33">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:10" ht="36">
+      <c r="A22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1923,8 +1926,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1943,8 +1946,8 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1971,8 +1974,8 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1987,10 +1990,10 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="2">
@@ -2013,8 +2016,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2035,8 +2038,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
@@ -2061,7 +2064,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2087,8 +2090,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2111,8 +2114,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="2">
         <v>1427</v>
       </c>
@@ -2130,7 +2133,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="17"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="2" t="s">
         <v>82</v>
       </c>
@@ -2151,10 +2154,10 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2177,8 +2180,8 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="2" t="s">
         <v>81</v>
       </c>
@@ -2197,12 +2200,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A30:A33"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
@@ -2211,6 +2208,12 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="B12:B21"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2227,12 +2230,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.625" customWidth="1"/>
-    <col min="4" max="4" width="67.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2252,7 +2255,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="66">
+    <row r="2" spans="1:5" ht="72">
       <c r="A2" s="2">
         <v>10026</v>
       </c>
@@ -2276,7 +2279,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>
@@ -2302,10 +2305,10 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2440,9 +2443,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeuk/IdeaProjects/AlgorithmStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBFFE2A-C53E-F44D-8FF7-D346FD55FEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD0BB3D-C013-C748-A86C-60D524CBA37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -902,7 +902,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,21 +951,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -979,9 +979,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1319,17 +1316,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1359,16 +1356,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1400,8 +1397,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1431,8 +1428,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1462,8 +1459,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="36">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1493,8 +1490,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1521,8 +1518,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
         <v>76</v>
       </c>
@@ -1545,8 +1542,8 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="36">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="7" t="s">
         <v>79</v>
       </c>
@@ -1569,7 +1566,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1599,7 +1596,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1623,10 +1620,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1658,8 +1655,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="16"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1686,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1720,8 +1717,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1751,8 +1748,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="54">
-      <c r="A16" s="16"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
@@ -1777,8 +1774,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="36">
-      <c r="A17" s="16"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>53</v>
       </c>
@@ -1802,8 +1799,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="16"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1827,8 +1824,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="36">
-      <c r="A19" s="16"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="7" t="s">
         <v>54</v>
       </c>
@@ -1852,8 +1849,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1869,14 +1866,14 @@
       <c r="G20" s="8">
         <v>240820</v>
       </c>
-      <c r="H20" s="26">
-        <v>240827</v>
+      <c r="H20" s="2">
+        <v>240828</v>
       </c>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="18">
-      <c r="A21" s="16"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="7" t="s">
         <v>85</v>
       </c>
@@ -1886,18 +1883,18 @@
       <c r="E21" s="8">
         <v>240824</v>
       </c>
-      <c r="F21" s="15">
-        <v>240827</v>
+      <c r="F21" s="2">
+        <v>240828</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="36">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1926,8 +1923,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1946,8 +1943,8 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1974,8 +1971,8 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1990,10 +1987,10 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="2">
@@ -2016,8 +2013,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2038,8 +2035,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
@@ -2064,7 +2061,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2090,8 +2087,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2114,8 +2111,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="2">
         <v>1427</v>
       </c>
@@ -2133,7 +2130,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="16"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="2" t="s">
         <v>82</v>
       </c>
@@ -2154,10 +2151,10 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2180,8 +2177,8 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="2" t="s">
         <v>81</v>
       </c>
@@ -2200,6 +2197,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
@@ -2208,12 +2211,6 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="B12:B21"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2279,7 +2276,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeuk/IdeaProjects/AlgorithmStudy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD0BB3D-C013-C748-A86C-60D524CBA37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E0BF06-8BF3-49D5-8492-8BD47D3D2E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -724,7 +724,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -812,15 +812,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -902,7 +893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -948,23 +939,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1298,35 +1286,35 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="35.83203125" customWidth="1"/>
-    <col min="3" max="3" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="1" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="83.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1356,16 +1344,16 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1397,8 +1385,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1428,8 +1416,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1458,9 +1446,9 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="36">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+    <row r="6" spans="1:11" ht="33">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1490,8 +1478,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1518,8 +1506,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>76</v>
       </c>
@@ -1541,9 +1529,9 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="36">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+    <row r="9" spans="1:11" ht="33">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="7" t="s">
         <v>79</v>
       </c>
@@ -1566,7 +1554,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="17"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1596,7 +1584,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1620,10 +1608,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1655,8 +1643,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1686,8 +1674,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1717,8 +1705,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1747,9 +1735,9 @@
         <v>240709</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="54">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+    <row r="16" spans="1:11" ht="49.5">
+      <c r="A16" s="15"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
@@ -1773,9 +1761,9 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="36">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+    <row r="17" spans="1:10" ht="33">
+      <c r="A17" s="15"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
         <v>53</v>
       </c>
@@ -1799,8 +1787,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1823,9 +1811,9 @@
         <v>240808</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="36">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+    <row r="19" spans="1:10" ht="33">
+      <c r="A19" s="15"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="7" t="s">
         <v>54</v>
       </c>
@@ -1849,8 +1837,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7">
         <v>4963</v>
       </c>
@@ -1871,9 +1859,9 @@
       </c>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="18">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
+    <row r="21" spans="1:10">
+      <c r="A21" s="15"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="7" t="s">
         <v>85</v>
       </c>
@@ -1883,18 +1871,18 @@
       <c r="E21" s="8">
         <v>240824</v>
       </c>
-      <c r="F21" s="2">
-        <v>240828</v>
+      <c r="F21" s="9">
+        <v>240829</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="36">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:10" ht="33">
+      <c r="A22" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1923,8 +1911,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1943,8 +1931,8 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1971,8 +1959,8 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1987,10 +1975,10 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="2">
@@ -2013,8 +2001,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2035,8 +2023,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
@@ -2061,7 +2049,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2087,8 +2075,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2111,8 +2099,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="2">
         <v>1427</v>
       </c>
@@ -2130,7 +2118,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="17"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="2" t="s">
         <v>82</v>
       </c>
@@ -2151,10 +2139,10 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2172,13 +2160,13 @@
       <c r="G34" s="8">
         <v>240824</v>
       </c>
-      <c r="H34" s="15">
-        <v>240827</v>
+      <c r="H34" s="9">
+        <v>240829</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="2" t="s">
         <v>81</v>
       </c>
@@ -2191,18 +2179,12 @@
       <c r="F35" s="8">
         <v>240824</v>
       </c>
-      <c r="G35" s="15">
-        <v>240827</v>
+      <c r="G35" s="9">
+        <v>240829</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A30:A33"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
@@ -2211,6 +2193,12 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="B12:B21"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2227,12 +2215,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" customWidth="1"/>
-    <col min="4" max="4" width="67.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.625" customWidth="1"/>
+    <col min="4" max="4" width="67.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2252,14 +2240,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72">
+    <row r="2" spans="1:5" ht="66">
       <c r="A2" s="2">
         <v>10026</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -2276,7 +2264,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>
@@ -2302,10 +2290,10 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="2" max="2" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2317,7 +2305,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2325,31 +2313,31 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="22"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
         <v>74</v>
       </c>
@@ -2363,7 +2351,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2371,31 +2359,31 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="24"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="25"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
@@ -2440,9 +2428,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E0BF06-8BF3-49D5-8492-8BD47D3D2E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2A9138-3AC1-49AE-92B6-5689EF82F397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{A3DA23D7-5168-4A4D-9F01-4D587AC5E35A}">
+    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{A3DA23D7-5168-4A4D-9F01-4D587AC5E35A}">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K14" authorId="0" shapeId="0" xr:uid="{1FD36536-6ED1-494E-AE6E-0A29C176721C}">
+    <comment ref="K15" authorId="0" shapeId="0" xr:uid="{1FD36536-6ED1-494E-AE6E-0A29C176721C}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K15" authorId="0" shapeId="0" xr:uid="{7BFBFB4C-0C23-4CA3-8087-FE48F545E8BF}">
+    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{7BFBFB4C-0C23-4CA3-8087-FE48F545E8BF}">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -717,6 +717,15 @@
   </si>
   <si>
     <t>프로그래머스 - 타겟넘버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구간 합 (prefixSum)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11659
+(구간 합을 구하기 위해선 주어진 배열의 0번째 인덱스는 0으로 초기화 해야함.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,7 +902,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,21 +948,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -968,6 +977,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1283,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1304,17 +1322,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1344,63 +1362,51 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="15" t="s">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="33">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="8">
+        <v>240829</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>240430</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <v>240501</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <v>240507</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G4" s="2">
         <v>240508</v>
-      </c>
-      <c r="H3" s="2">
-        <v>240517</v>
-      </c>
-      <c r="I3" s="2">
-        <v>240521</v>
-      </c>
-      <c r="J3" s="2">
-        <v>240603</v>
-      </c>
-      <c r="K3" s="2">
-        <v>240612</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2">
-        <v>240502</v>
-      </c>
-      <c r="E4" s="2">
-        <v>240507</v>
-      </c>
-      <c r="F4" s="2">
-        <v>240508</v>
-      </c>
-      <c r="G4" s="2">
-        <v>240510</v>
       </c>
       <c r="H4" s="2">
         <v>240517</v>
@@ -1416,10 +1422,10 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2">
         <v>240502</v>
@@ -1446,23 +1452,23 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="7" t="s">
-        <v>39</v>
+    <row r="6" spans="1:11">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="2">
+        <v>240502</v>
+      </c>
+      <c r="E6" s="2">
         <v>240507</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>240508</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>240510</v>
-      </c>
-      <c r="G6" s="2">
-        <v>240513</v>
       </c>
       <c r="H6" s="2">
         <v>240517</v>
@@ -1477,75 +1483,82 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="1:11" ht="33">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2">
+        <v>240507</v>
+      </c>
+      <c r="E7" s="2">
+        <v>240508</v>
+      </c>
+      <c r="F7" s="2">
+        <v>240510</v>
+      </c>
+      <c r="G7" s="2">
+        <v>240513</v>
+      </c>
+      <c r="H7" s="2">
+        <v>240517</v>
+      </c>
+      <c r="I7" s="2">
+        <v>240521</v>
+      </c>
+      <c r="J7" s="2">
+        <v>240603</v>
+      </c>
+      <c r="K7" s="2">
+        <v>240612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>240517</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>240521</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <v>240524</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <v>240527</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H8" s="2">
         <v>240530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I8" s="2">
         <v>240603</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J8" s="2">
         <v>240612</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="2" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D9" s="8">
         <v>240808</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="8">
         <v>240809</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F9" s="8">
         <v>240810</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G9" s="8">
         <v>240815</v>
-      </c>
-      <c r="H8" s="8">
-        <v>240827</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="33">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="8">
-        <v>2400810</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2400811</v>
-      </c>
-      <c r="F9" s="8">
-        <v>240814</v>
-      </c>
-      <c r="G9" s="8">
-        <v>240817</v>
       </c>
       <c r="H9" s="8">
         <v>240827</v>
@@ -1553,112 +1566,105 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="15"/>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:11" ht="33">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2400810</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2400811</v>
+      </c>
+      <c r="F10" s="8">
+        <v>240814</v>
+      </c>
+      <c r="G10" s="8">
+        <v>240817</v>
+      </c>
+      <c r="H10" s="8">
+        <v>240827</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="16"/>
+      <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>240517</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>240521</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>240524</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>240527</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H11" s="2">
         <v>240530</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I11" s="2">
         <v>240604</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J11" s="2">
         <v>240612</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="15"/>
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" s="16"/>
+      <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>240529</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>240530</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12" s="2">
         <v>240604</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <v>240612</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H12" s="8">
         <v>240617</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+    <row r="13" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>240522</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>240523</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>240527</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>240528</v>
-      </c>
-      <c r="H12" s="2">
-        <v>240604</v>
-      </c>
-      <c r="I12" s="2">
-        <v>240612</v>
-      </c>
-      <c r="J12" s="8">
-        <v>240626</v>
-      </c>
-      <c r="K12" s="8">
-        <v>240705</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="15"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2">
-        <v>240524</v>
-      </c>
-      <c r="E13" s="2">
-        <v>240527</v>
-      </c>
-      <c r="F13" s="2">
-        <v>240528</v>
-      </c>
-      <c r="G13" s="2">
-        <v>240530</v>
       </c>
       <c r="H13" s="2">
         <v>240604</v>
@@ -1666,64 +1672,64 @@
       <c r="I13" s="2">
         <v>240612</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="8">
+        <v>240626</v>
+      </c>
+      <c r="K13" s="8">
+        <v>240705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2">
+        <v>240524</v>
+      </c>
+      <c r="E14" s="2">
+        <v>240527</v>
+      </c>
+      <c r="F14" s="2">
+        <v>240528</v>
+      </c>
+      <c r="G14" s="2">
+        <v>240530</v>
+      </c>
+      <c r="H14" s="2">
+        <v>240604</v>
+      </c>
+      <c r="I14" s="2">
+        <v>240612</v>
+      </c>
+      <c r="J14" s="2">
         <v>240618</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K14" s="2">
         <v>240824</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="2" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>240527</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <v>240528</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <v>240530</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="2">
         <v>240604</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H15" s="2">
         <v>240612</v>
-      </c>
-      <c r="I14" s="8">
-        <v>240622</v>
-      </c>
-      <c r="J14" s="8">
-        <v>240626</v>
-      </c>
-      <c r="K14" s="8">
-        <v>240705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="2">
-        <v>240529</v>
-      </c>
-      <c r="E15" s="2">
-        <v>240530</v>
-      </c>
-      <c r="F15" s="2">
-        <v>240604</v>
-      </c>
-      <c r="G15" s="2">
-        <v>240612</v>
-      </c>
-      <c r="H15" s="8">
-        <v>240617</v>
       </c>
       <c r="I15" s="8">
         <v>240622</v>
@@ -1732,473 +1738,504 @@
         <v>240626</v>
       </c>
       <c r="K15" s="8">
+        <v>240705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2">
+        <v>240529</v>
+      </c>
+      <c r="E16" s="2">
+        <v>240530</v>
+      </c>
+      <c r="F16" s="2">
+        <v>240604</v>
+      </c>
+      <c r="G16" s="2">
+        <v>240612</v>
+      </c>
+      <c r="H16" s="8">
+        <v>240617</v>
+      </c>
+      <c r="I16" s="8">
+        <v>240622</v>
+      </c>
+      <c r="J16" s="8">
+        <v>240626</v>
+      </c>
+      <c r="K16" s="8">
         <v>240709</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="7" t="s">
+    <row r="17" spans="1:10" ht="49.5">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <v>240613</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="8">
         <v>240617</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F17" s="8">
         <v>240618</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="8">
         <v>240619</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H17" s="8">
         <v>240622</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I17" s="8">
         <v>240709</v>
       </c>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="7" t="s">
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" ht="33">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <v>240618</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>240619</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="8">
         <v>240622</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="8">
         <v>240626</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H18" s="8">
         <v>240705</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I18" s="8">
         <v>240719</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="15"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="2" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <v>240710</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="8">
         <v>240711</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F19" s="8">
         <v>240713</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="8">
         <v>240719</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H19" s="8">
         <v>240724</v>
-      </c>
-      <c r="I18" s="8">
-        <v>240808</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="15"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="8">
-        <v>240716</v>
-      </c>
-      <c r="E19" s="8">
-        <v>240719</v>
-      </c>
-      <c r="F19" s="8">
-        <v>240724</v>
-      </c>
-      <c r="G19" s="8">
-        <v>240727</v>
-      </c>
-      <c r="H19" s="8">
-        <v>240730</v>
       </c>
       <c r="I19" s="8">
         <v>240808</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="15"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="7">
+    <row r="20" spans="1:10" ht="33">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="8">
+        <v>240716</v>
+      </c>
+      <c r="E20" s="8">
+        <v>240719</v>
+      </c>
+      <c r="F20" s="8">
+        <v>240724</v>
+      </c>
+      <c r="G20" s="8">
+        <v>240727</v>
+      </c>
+      <c r="H20" s="8">
+        <v>240730</v>
+      </c>
+      <c r="I20" s="8">
+        <v>240808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="7">
         <v>4963</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D21" s="8">
         <v>240812</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E21" s="8">
         <v>240814</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F21" s="8">
         <v>240815</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G21" s="8">
         <v>240820</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H21" s="2">
         <v>240828</v>
       </c>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="7" t="s">
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <v>240823</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="8">
         <v>240824</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="9">
         <v>240829</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" ht="33">
-      <c r="A22" s="15" t="s">
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="33">
+      <c r="A23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="2">
         <v>240607</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="2">
         <v>240612</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F23" s="8">
         <v>240617</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G23" s="8">
         <v>240618</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H23" s="8">
         <v>240624</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I23" s="8">
         <v>240709</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J23" s="8">
         <v>240727</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="2" t="s">
+    <row r="24" spans="1:10">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="2">
         <v>240613</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E24" s="8">
         <v>240617</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F24" s="8">
         <v>240618</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G24" s="8">
         <v>240619</v>
       </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="2" t="s">
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D24" s="8">
-        <v>240619</v>
-      </c>
-      <c r="E24" s="8">
-        <v>240620</v>
-      </c>
-      <c r="F24" s="8">
-        <v>240624</v>
-      </c>
-      <c r="G24" s="8">
-        <v>240628</v>
-      </c>
-      <c r="H24" s="8">
-        <v>240709</v>
-      </c>
-      <c r="I24" s="8">
-        <v>240719</v>
-      </c>
-      <c r="J24" s="8">
-        <v>240727</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D25" s="8">
         <v>240619</v>
       </c>
       <c r="E25" s="8">
+        <v>240620</v>
+      </c>
+      <c r="F25" s="8">
         <v>240624</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="G25" s="8">
+        <v>240628</v>
+      </c>
+      <c r="H25" s="8">
+        <v>240709</v>
+      </c>
+      <c r="I25" s="8">
+        <v>240719</v>
+      </c>
+      <c r="J25" s="8">
+        <v>240727</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="8">
+        <v>240619</v>
+      </c>
+      <c r="E26" s="8">
+        <v>240624</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C27" s="2">
         <v>11047</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D27" s="8">
         <v>240709</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E27" s="8">
         <v>240711</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F27" s="8">
         <v>240713</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G27" s="8">
         <v>240716</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H27" s="8">
         <v>240726</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="2" t="s">
+    <row r="28" spans="1:10">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <v>240716</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="8">
         <v>240719</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F28" s="8">
         <v>240726</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G28" s="8">
         <v>240727</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H28" s="8">
         <v>240730</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="2" t="s">
+    <row r="29" spans="1:10">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="8">
         <v>240812</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E29" s="8">
         <v>240815</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F29" s="8">
         <v>240817</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="2" t="s">
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="15" t="s">
+    <row r="31" spans="1:10">
+      <c r="A31" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="8">
-        <v>240726</v>
-      </c>
-      <c r="E30" s="8">
-        <v>240727</v>
-      </c>
-      <c r="F30" s="8">
-        <v>240730</v>
-      </c>
-      <c r="G30" s="8">
-        <v>240806</v>
-      </c>
-      <c r="H30" s="8">
-        <v>240808</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D31" s="8">
+        <v>240726</v>
+      </c>
+      <c r="E31" s="8">
+        <v>240727</v>
+      </c>
+      <c r="F31" s="8">
         <v>240730</v>
       </c>
-      <c r="E31" s="8">
+      <c r="G31" s="8">
         <v>240806</v>
       </c>
-      <c r="F31" s="8">
+      <c r="H31" s="8">
         <v>240808</v>
       </c>
-      <c r="G31" s="8">
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="8">
+        <v>240730</v>
+      </c>
+      <c r="E32" s="8">
+        <v>240806</v>
+      </c>
+      <c r="F32" s="8">
+        <v>240808</v>
+      </c>
+      <c r="G32" s="8">
         <v>240820</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H32" s="8">
         <v>240824</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="2">
+    <row r="33" spans="1:8">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="2">
         <v>1427</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D33" s="8">
         <v>240808</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E33" s="8">
         <v>240809</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F33" s="8">
         <v>240811</v>
-      </c>
-      <c r="G32" s="8">
-        <v>240824</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="15"/>
-      <c r="B33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="8">
-        <v>240815</v>
-      </c>
-      <c r="E33" s="8">
-        <v>240817</v>
-      </c>
-      <c r="F33" s="8">
-        <v>240822</v>
       </c>
       <c r="G33" s="8">
         <v>240824</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>77</v>
+      <c r="A34" s="16"/>
+      <c r="B34" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D34" s="8">
-        <v>240809</v>
+        <v>240815</v>
       </c>
       <c r="E34" s="8">
-        <v>240810</v>
+        <v>240817</v>
       </c>
       <c r="F34" s="8">
-        <v>240814</v>
+        <v>240822</v>
       </c>
       <c r="G34" s="8">
         <v>240824</v>
       </c>
-      <c r="H34" s="9">
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="8">
+        <v>240809</v>
+      </c>
+      <c r="E35" s="8">
+        <v>240810</v>
+      </c>
+      <c r="F35" s="8">
+        <v>240814</v>
+      </c>
+      <c r="G35" s="8">
+        <v>240824</v>
+      </c>
+      <c r="H35" s="9">
         <v>240829</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="2" t="s">
+    <row r="36" spans="1:8">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="8">
         <v>240814</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E36" s="8">
         <v>240815</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F36" s="8">
         <v>240824</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G36" s="9">
         <v>240829</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A12"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="B13:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2264,7 +2301,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2A9138-3AC1-49AE-92B6-5689EF82F397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE013051-5E76-4245-B51C-0EF5E66072C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -902,7 +902,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -948,20 +948,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -977,15 +980,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1304,7 +1298,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1322,17 +1316,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1362,31 +1356,33 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="33">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="15" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="8">
         <v>240829</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="E3" s="9">
+        <v>240830</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="16"/>
@@ -1648,7 +1644,7 @@
       <c r="A13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="20" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1681,7 +1677,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1712,7 +1708,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1743,7 +1739,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1774,7 +1770,7 @@
     </row>
     <row r="17" spans="1:10" ht="49.5">
       <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="7" t="s">
         <v>48</v>
       </c>
@@ -1800,7 +1796,7 @@
     </row>
     <row r="18" spans="1:10" ht="33">
       <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
@@ -1825,7 +1821,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
@@ -1850,7 +1846,7 @@
     </row>
     <row r="20" spans="1:10" ht="33">
       <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="7" t="s">
         <v>54</v>
       </c>
@@ -1875,7 +1871,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="7">
         <v>4963</v>
       </c>
@@ -1898,7 +1894,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="7" t="s">
         <v>85</v>
       </c>
@@ -2222,12 +2218,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A12"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:B26"/>
@@ -2236,6 +2226,12 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="B13:B22"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2284,7 +2280,7 @@
       <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -2342,7 +2338,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2350,31 +2346,31 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>74</v>
       </c>
@@ -2388,7 +2384,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2396,31 +2392,31 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE013051-5E76-4245-B51C-0EF5E66072C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC47F0EA-B900-42A8-99BF-9B3410E285B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,20 +951,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1316,17 +1316,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1356,13 +1356,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1374,7 +1374,7 @@
       <c r="D3" s="8">
         <v>240829</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>240830</v>
       </c>
       <c r="F3" s="9"/>
@@ -1385,8 +1385,8 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1418,8 +1418,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1449,8 +1449,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1480,8 +1480,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="33">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
@@ -1511,8 +1511,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1539,8 +1539,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="2" t="s">
         <v>76</v>
       </c>
@@ -1563,8 +1563,8 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="33">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="7" t="s">
         <v>79</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1617,7 +1617,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1641,10 +1641,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1676,8 +1676,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1707,8 +1707,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1738,8 +1738,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="16"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1769,8 +1769,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="49.5">
-      <c r="A17" s="16"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>48</v>
       </c>
@@ -1795,8 +1795,8 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="33">
-      <c r="A18" s="16"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
@@ -1820,8 +1820,8 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="16"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
@@ -1845,8 +1845,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="33">
-      <c r="A20" s="16"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="7" t="s">
         <v>54</v>
       </c>
@@ -1870,8 +1870,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="16"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="7">
         <v>4963</v>
       </c>
@@ -1893,8 +1893,8 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="7" t="s">
         <v>85</v>
       </c>
@@ -1912,10 +1912,10 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="33">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1944,8 +1944,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1964,8 +1964,8 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1992,8 +1992,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2008,10 +2008,10 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="2">
@@ -2034,8 +2034,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
@@ -2056,8 +2056,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="2" t="s">
         <v>80</v>
       </c>
@@ -2082,7 +2082,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2108,8 +2108,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2132,8 +2132,8 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="2">
         <v>1427</v>
       </c>
@@ -2151,7 +2151,7 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="16"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2172,10 +2172,10 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2198,8 +2198,8 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="2" t="s">
         <v>81</v>
       </c>
@@ -2218,6 +2218,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A12"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:B26"/>
@@ -2226,12 +2232,6 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="B13:B22"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2297,7 +2297,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC47F0EA-B900-42A8-99BF-9B3410E285B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF46A6D-18D0-4317-A560-9A54125461D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,20 +951,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1297,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1316,17 +1316,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1356,13 +1356,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1385,8 +1385,8 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1418,8 +1418,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1449,8 +1449,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1480,8 +1480,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="33">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
@@ -1511,8 +1511,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1539,8 +1539,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="2" t="s">
         <v>76</v>
       </c>
@@ -1563,8 +1563,8 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="33">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="7" t="s">
         <v>79</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1617,7 +1617,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1641,10 +1641,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="20" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1676,8 +1676,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1707,8 +1707,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1738,8 +1738,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1769,8 +1769,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="49.5">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="7" t="s">
         <v>48</v>
       </c>
@@ -1795,8 +1795,8 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="33">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
@@ -1820,8 +1820,8 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
@@ -1845,8 +1845,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="33">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="7" t="s">
         <v>54</v>
       </c>
@@ -1870,8 +1870,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="7">
         <v>4963</v>
       </c>
@@ -1893,8 +1893,8 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="7" t="s">
         <v>85</v>
       </c>
@@ -1904,18 +1904,18 @@
       <c r="E22" s="8">
         <v>240824</v>
       </c>
-      <c r="F22" s="9">
-        <v>240829</v>
+      <c r="F22" s="8">
+        <v>240830</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="33">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1944,8 +1944,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1964,8 +1964,8 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1992,8 +1992,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2008,10 +2008,10 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="2">
@@ -2034,8 +2034,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
@@ -2056,8 +2056,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="2" t="s">
         <v>80</v>
       </c>
@@ -2082,7 +2082,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2108,8 +2108,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2132,8 +2132,8 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="2">
         <v>1427</v>
       </c>
@@ -2151,7 +2151,7 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="17"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2172,10 +2172,10 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2198,8 +2198,8 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="2" t="s">
         <v>81</v>
       </c>
@@ -2218,12 +2218,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A12"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:B26"/>
@@ -2232,6 +2226,12 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="B13:B22"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2297,7 +2297,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF46A6D-18D0-4317-A560-9A54125461D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8A50C4-1FC4-4406-A288-495CD3AA24AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1297,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -2193,8 +2193,8 @@
       <c r="G35" s="8">
         <v>240824</v>
       </c>
-      <c r="H35" s="9">
-        <v>240829</v>
+      <c r="H35" s="8">
+        <v>240830</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2213,7 +2213,7 @@
         <v>240824</v>
       </c>
       <c r="G36" s="9">
-        <v>240829</v>
+        <v>240830</v>
       </c>
     </row>
   </sheetData>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8A50C4-1FC4-4406-A288-495CD3AA24AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4CB3DA-863E-4512-978A-EDDA9A1F4471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1298,7 +1298,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -2212,7 +2212,7 @@
       <c r="F36" s="8">
         <v>240824</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <v>240830</v>
       </c>
     </row>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4CB3DA-863E-4512-978A-EDDA9A1F4471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78412A27-A412-4EB2-9419-32DE0F862632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,20 +951,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1298,7 +1298,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1316,17 +1316,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1356,13 +1356,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1385,8 +1385,8 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1418,8 +1418,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1449,8 +1449,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1480,8 +1480,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="33">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
@@ -1511,8 +1511,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1539,8 +1539,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="2" t="s">
         <v>76</v>
       </c>
@@ -1563,8 +1563,8 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="33">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="7" t="s">
         <v>79</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1617,7 +1617,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1641,10 +1641,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1676,8 +1676,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1707,8 +1707,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1738,8 +1738,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="16"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1769,8 +1769,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="49.5">
-      <c r="A17" s="16"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>48</v>
       </c>
@@ -1795,8 +1795,8 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="33">
-      <c r="A18" s="16"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
@@ -1820,8 +1820,8 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="16"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
@@ -1845,8 +1845,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="33">
-      <c r="A20" s="16"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="7" t="s">
         <v>54</v>
       </c>
@@ -1870,8 +1870,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="16"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="7">
         <v>4963</v>
       </c>
@@ -1893,8 +1893,8 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="7" t="s">
         <v>85</v>
       </c>
@@ -1912,10 +1912,10 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="33">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1944,8 +1944,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1964,8 +1964,8 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1992,8 +1992,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2008,10 +2008,10 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="2">
@@ -2034,8 +2034,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
@@ -2056,8 +2056,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="2" t="s">
         <v>80</v>
       </c>
@@ -2070,7 +2070,9 @@
       <c r="F29" s="8">
         <v>240817</v>
       </c>
-      <c r="G29" s="8"/>
+      <c r="G29" s="9">
+        <v>240831</v>
+      </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:10">
@@ -2082,7 +2084,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2108,8 +2110,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2132,8 +2134,8 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="2">
         <v>1427</v>
       </c>
@@ -2151,7 +2153,7 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="16"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2172,10 +2174,10 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2198,8 +2200,8 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="2" t="s">
         <v>81</v>
       </c>
@@ -2218,6 +2220,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A12"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:B26"/>
@@ -2226,12 +2234,6 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="B13:B22"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2297,7 +2299,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78412A27-A412-4EB2-9419-32DE0F862632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C5E726-056B-4635-B606-747409A3C060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,20 +951,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1316,17 +1316,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1356,13 +1356,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1385,8 +1385,8 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1418,8 +1418,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1449,8 +1449,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1480,8 +1480,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="33">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
@@ -1511,8 +1511,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1539,8 +1539,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="2" t="s">
         <v>76</v>
       </c>
@@ -1563,8 +1563,8 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="33">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="7" t="s">
         <v>79</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1617,7 +1617,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1641,10 +1641,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="20" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1676,8 +1676,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1707,8 +1707,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1738,8 +1738,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1769,8 +1769,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="49.5">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="7" t="s">
         <v>48</v>
       </c>
@@ -1795,8 +1795,8 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="33">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
@@ -1820,8 +1820,8 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
@@ -1845,8 +1845,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="33">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="7" t="s">
         <v>54</v>
       </c>
@@ -1870,8 +1870,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="7">
         <v>4963</v>
       </c>
@@ -1893,8 +1893,8 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="7" t="s">
         <v>85</v>
       </c>
@@ -1912,10 +1912,10 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="33">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1944,8 +1944,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1964,8 +1964,8 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1992,8 +1992,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2008,10 +2008,10 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="2">
@@ -2034,8 +2034,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
@@ -2056,8 +2056,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="2" t="s">
         <v>80</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>240817</v>
       </c>
       <c r="G29" s="9">
-        <v>240831</v>
+        <v>240902</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2110,8 +2110,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2134,8 +2134,8 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="2">
         <v>1427</v>
       </c>
@@ -2153,7 +2153,7 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="17"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2174,10 +2174,10 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2200,8 +2200,8 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="2" t="s">
         <v>81</v>
       </c>
@@ -2220,12 +2220,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A12"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:B26"/>
@@ -2234,6 +2228,12 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="B13:B22"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2299,7 +2299,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C5E726-056B-4635-B606-747409A3C060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9318E3E4-73FF-44A4-9024-FCC6DE38FECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,20 +951,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1316,17 +1316,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1356,13 +1356,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1385,8 +1385,8 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1418,8 +1418,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1449,8 +1449,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1480,8 +1480,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="33">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
@@ -1511,8 +1511,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1539,8 +1539,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="2" t="s">
         <v>76</v>
       </c>
@@ -1563,8 +1563,8 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="33">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="7" t="s">
         <v>79</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1617,7 +1617,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1641,10 +1641,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1676,8 +1676,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1707,8 +1707,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1738,8 +1738,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="16"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1769,8 +1769,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="49.5">
-      <c r="A17" s="16"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>48</v>
       </c>
@@ -1795,8 +1795,8 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="33">
-      <c r="A18" s="16"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
@@ -1820,8 +1820,8 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="16"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
@@ -1845,8 +1845,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="33">
-      <c r="A20" s="16"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="7" t="s">
         <v>54</v>
       </c>
@@ -1870,8 +1870,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="16"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="7">
         <v>4963</v>
       </c>
@@ -1893,8 +1893,8 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="7" t="s">
         <v>85</v>
       </c>
@@ -1912,10 +1912,10 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="33">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1944,8 +1944,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1964,8 +1964,8 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1992,8 +1992,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2008,10 +2008,10 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="2">
@@ -2034,8 +2034,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
@@ -2056,8 +2056,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="2" t="s">
         <v>80</v>
       </c>
@@ -2070,7 +2070,7 @@
       <c r="F29" s="8">
         <v>240817</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>240902</v>
       </c>
       <c r="H29" s="8"/>
@@ -2084,7 +2084,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2110,8 +2110,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2134,8 +2134,8 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="2">
         <v>1427</v>
       </c>
@@ -2153,7 +2153,7 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="16"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2174,10 +2174,10 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2200,8 +2200,8 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="2" t="s">
         <v>81</v>
       </c>
@@ -2220,6 +2220,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A12"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:B26"/>
@@ -2228,12 +2234,6 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="B13:B22"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2299,7 +2299,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9318E3E4-73FF-44A4-9024-FCC6DE38FECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415AA61B-60EE-4E16-8813-ACBC70ABDE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,20 +951,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1297,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1316,17 +1316,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1356,13 +1356,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1377,7 +1377,9 @@
       <c r="E3" s="8">
         <v>240830</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="9">
+        <v>240902</v>
+      </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -1385,8 +1387,8 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1418,8 +1420,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1449,8 +1451,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1480,8 +1482,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="33">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
@@ -1511,8 +1513,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1539,8 +1541,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="2" t="s">
         <v>76</v>
       </c>
@@ -1563,8 +1565,8 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="33">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="7" t="s">
         <v>79</v>
       </c>
@@ -1587,7 +1589,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1617,7 +1619,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1641,10 +1643,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="20" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1676,8 +1678,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1707,8 +1709,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1738,8 +1740,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1769,8 +1771,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="49.5">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="7" t="s">
         <v>48</v>
       </c>
@@ -1795,8 +1797,8 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="33">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
@@ -1820,8 +1822,8 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
@@ -1845,8 +1847,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="33">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="7" t="s">
         <v>54</v>
       </c>
@@ -1870,8 +1872,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="7">
         <v>4963</v>
       </c>
@@ -1893,8 +1895,8 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="7" t="s">
         <v>85</v>
       </c>
@@ -1907,15 +1909,17 @@
       <c r="F22" s="8">
         <v>240830</v>
       </c>
-      <c r="G22" s="8"/>
+      <c r="G22" s="9">
+        <v>240903</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="33">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1944,8 +1948,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1964,8 +1968,8 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1992,8 +1996,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2008,10 +2012,10 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="2">
@@ -2032,10 +2036,11 @@
       <c r="H27" s="8">
         <v>240726</v>
       </c>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
@@ -2054,10 +2059,13 @@
       <c r="H28" s="8">
         <v>240730</v>
       </c>
+      <c r="I28" s="9">
+        <v>240903</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="2" t="s">
         <v>80</v>
       </c>
@@ -2084,7 +2092,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2110,8 +2118,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2134,8 +2142,8 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="2">
         <v>1427</v>
       </c>
@@ -2151,9 +2159,12 @@
       <c r="G33" s="8">
         <v>240824</v>
       </c>
+      <c r="H33" s="9">
+        <v>240903</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="17"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2172,12 +2183,15 @@
       <c r="G34" s="8">
         <v>240824</v>
       </c>
+      <c r="H34" s="9">
+        <v>240903</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2200,8 +2214,8 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="2" t="s">
         <v>81</v>
       </c>
@@ -2220,12 +2234,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A12"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:B26"/>
@@ -2234,6 +2242,12 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="B13:B22"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2299,7 +2313,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415AA61B-60EE-4E16-8813-ACBC70ABDE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152D23BF-5917-4981-85C0-77BDC084FBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,20 +951,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1297,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1316,17 +1316,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1356,13 +1356,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1377,7 +1377,7 @@
       <c r="E3" s="8">
         <v>240830</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>240902</v>
       </c>
       <c r="G3" s="9"/>
@@ -1387,8 +1387,8 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1420,8 +1420,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1451,8 +1451,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1482,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="33">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
@@ -1513,8 +1513,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1541,8 +1541,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="2" t="s">
         <v>76</v>
       </c>
@@ -1565,8 +1565,8 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="33">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="7" t="s">
         <v>79</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1619,7 +1619,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1643,10 +1643,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1678,8 +1678,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1709,8 +1709,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1740,8 +1740,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="16"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1771,8 +1771,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="49.5">
-      <c r="A17" s="16"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>48</v>
       </c>
@@ -1797,8 +1797,8 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="33">
-      <c r="A18" s="16"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
@@ -1822,8 +1822,8 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="16"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
@@ -1847,8 +1847,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="33">
-      <c r="A20" s="16"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="7" t="s">
         <v>54</v>
       </c>
@@ -1872,8 +1872,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="16"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="7">
         <v>4963</v>
       </c>
@@ -1895,8 +1895,8 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="7" t="s">
         <v>85</v>
       </c>
@@ -1916,10 +1916,10 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="33">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1948,8 +1948,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1968,8 +1968,8 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1996,8 +1996,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2012,10 +2012,10 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="2">
@@ -2039,8 +2039,8 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
@@ -2064,8 +2064,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="2" t="s">
         <v>80</v>
       </c>
@@ -2092,7 +2092,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2118,8 +2118,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2142,8 +2142,8 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="2">
         <v>1427</v>
       </c>
@@ -2164,7 +2164,7 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="16"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2188,10 +2188,10 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2214,8 +2214,8 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="2" t="s">
         <v>81</v>
       </c>
@@ -2234,6 +2234,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A12"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:B26"/>
@@ -2242,12 +2248,6 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="B13:B22"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2313,7 +2313,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152D23BF-5917-4981-85C0-77BDC084FBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8612633-14D7-4AA6-905D-E255A8F949A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -951,20 +951,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1297,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1316,17 +1316,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1356,13 +1356,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1387,8 +1387,8 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1420,8 +1420,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1451,8 +1451,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1482,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="33">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
@@ -1513,8 +1513,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1541,8 +1541,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="2" t="s">
         <v>76</v>
       </c>
@@ -1565,8 +1565,8 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="33">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="7" t="s">
         <v>79</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1619,7 +1619,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1643,10 +1643,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="20" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1678,8 +1678,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1709,8 +1709,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1740,8 +1740,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1771,8 +1771,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="49.5">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="7" t="s">
         <v>48</v>
       </c>
@@ -1797,8 +1797,8 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="33">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
@@ -1822,8 +1822,8 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
@@ -1847,8 +1847,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="33">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="7" t="s">
         <v>54</v>
       </c>
@@ -1872,8 +1872,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="7">
         <v>4963</v>
       </c>
@@ -1895,8 +1895,8 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="7" t="s">
         <v>85</v>
       </c>
@@ -1909,17 +1909,17 @@
       <c r="F22" s="8">
         <v>240830</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>240903</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="33">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1948,8 +1948,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1968,8 +1968,8 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1996,8 +1996,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2012,10 +2012,10 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="2">
@@ -2039,8 +2039,8 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
@@ -2064,8 +2064,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="2" t="s">
         <v>80</v>
       </c>
@@ -2092,7 +2092,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2118,8 +2118,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2142,8 +2142,8 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="2">
         <v>1427</v>
       </c>
@@ -2164,7 +2164,7 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="17"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2188,10 +2188,10 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2214,8 +2214,8 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="2" t="s">
         <v>81</v>
       </c>
@@ -2234,12 +2234,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A12"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:B26"/>
@@ -2248,6 +2242,12 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="B13:B22"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2313,7 +2313,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8612633-14D7-4AA6-905D-E255A8F949A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EE8D98-01E1-4C58-93A6-F48F98B156AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,20 +951,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1298,7 +1298,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1316,17 +1316,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1356,13 +1356,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1387,8 +1387,8 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1420,8 +1420,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1451,8 +1451,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1482,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="33">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
@@ -1513,8 +1513,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1541,8 +1541,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="2" t="s">
         <v>76</v>
       </c>
@@ -1565,8 +1565,8 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="33">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="7" t="s">
         <v>79</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1619,7 +1619,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1643,10 +1643,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1678,8 +1678,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1709,8 +1709,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1740,8 +1740,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="16"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1771,8 +1771,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="49.5">
-      <c r="A17" s="16"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>48</v>
       </c>
@@ -1797,8 +1797,8 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="33">
-      <c r="A18" s="16"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
@@ -1822,8 +1822,8 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="16"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
@@ -1847,8 +1847,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="33">
-      <c r="A20" s="16"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="7" t="s">
         <v>54</v>
       </c>
@@ -1872,8 +1872,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="16"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="7">
         <v>4963</v>
       </c>
@@ -1895,8 +1895,8 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="7" t="s">
         <v>85</v>
       </c>
@@ -1916,10 +1916,10 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="33">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1948,8 +1948,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1968,8 +1968,8 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1996,8 +1996,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2012,10 +2012,10 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="2">
@@ -2039,8 +2039,8 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
@@ -2059,13 +2059,13 @@
       <c r="H28" s="8">
         <v>240730</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <v>240903</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="2" t="s">
         <v>80</v>
       </c>
@@ -2092,7 +2092,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2118,8 +2118,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2142,8 +2142,8 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="2">
         <v>1427</v>
       </c>
@@ -2164,7 +2164,7 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="16"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2188,10 +2188,10 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2214,8 +2214,8 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="2" t="s">
         <v>81</v>
       </c>
@@ -2234,6 +2234,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A12"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:B26"/>
@@ -2242,12 +2248,6 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="B13:B22"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2313,7 +2313,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EE8D98-01E1-4C58-93A6-F48F98B156AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2871AE-F43E-44F3-9DF4-C9267527A506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -726,6 +726,11 @@
   <si>
     <t>11659
 (구간 합을 구하기 위해선 주어진 배열의 0번째 인덱스는 0으로 초기화 해야함.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1427
+정수를 문자열로 변환 -&gt; String.valueOf(int) 사용하자! (NPE 대응 가능)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -951,20 +956,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1298,7 +1303,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1316,17 +1321,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1356,13 +1361,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1387,8 +1392,8 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1420,8 +1425,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1451,8 +1456,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1487,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="33">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
@@ -1513,8 +1518,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1541,8 +1546,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="2" t="s">
         <v>76</v>
       </c>
@@ -1565,8 +1570,8 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="33">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="7" t="s">
         <v>79</v>
       </c>
@@ -1589,7 +1594,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1619,7 +1624,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1643,10 +1648,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="20" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1678,8 +1683,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1709,8 +1714,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1740,8 +1745,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1771,8 +1776,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="49.5">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="7" t="s">
         <v>48</v>
       </c>
@@ -1797,8 +1802,8 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="33">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
@@ -1822,8 +1827,8 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
@@ -1847,8 +1852,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="33">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="7" t="s">
         <v>54</v>
       </c>
@@ -1872,8 +1877,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="7">
         <v>4963</v>
       </c>
@@ -1895,8 +1900,8 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="7" t="s">
         <v>85</v>
       </c>
@@ -1916,10 +1921,10 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="33">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1948,8 +1953,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1968,8 +1973,8 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1996,8 +2001,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2012,10 +2017,10 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="2">
@@ -2039,8 +2044,8 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
@@ -2064,8 +2069,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="2" t="s">
         <v>80</v>
       </c>
@@ -2092,7 +2097,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2118,8 +2123,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2141,11 +2146,11 @@
         <v>240824</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="2">
-        <v>1427</v>
+    <row r="33" spans="1:8" ht="33">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D33" s="8">
         <v>240808</v>
@@ -2159,12 +2164,12 @@
       <c r="G33" s="8">
         <v>240824</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="8">
         <v>240903</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="17"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2188,10 +2193,10 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2214,8 +2219,8 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="2" t="s">
         <v>81</v>
       </c>
@@ -2234,12 +2239,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A12"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:B26"/>
@@ -2248,6 +2247,12 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="B13:B22"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2313,7 +2318,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2871AE-F43E-44F3-9DF4-C9267527A506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D080849-7D2C-43FB-900E-7E6E8A6AEB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{A3DA23D7-5168-4A4D-9F01-4D587AC5E35A}">
+    <comment ref="K14" authorId="0" shapeId="0" xr:uid="{A3DA23D7-5168-4A4D-9F01-4D587AC5E35A}">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K15" authorId="0" shapeId="0" xr:uid="{1FD36536-6ED1-494E-AE6E-0A29C176721C}">
+    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{1FD36536-6ED1-494E-AE6E-0A29C176721C}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{7BFBFB4C-0C23-4CA3-8087-FE48F545E8BF}">
+    <comment ref="K17" authorId="0" shapeId="0" xr:uid="{7BFBFB4C-0C23-4CA3-8087-FE48F545E8BF}">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -731,6 +731,10 @@
   <si>
     <t>1427
 정수를 문자열로 변환 -&gt; String.valueOf(int) 사용하자! (NPE 대응 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투 포인터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -956,20 +960,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1300,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1321,17 +1325,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1361,13 +1365,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1392,55 +1396,43 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="15">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="8">
+        <v>240904</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>240430</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>240501</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>240507</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="2">
         <v>240508</v>
-      </c>
-      <c r="H4" s="2">
-        <v>240517</v>
-      </c>
-      <c r="I4" s="2">
-        <v>240521</v>
-      </c>
-      <c r="J4" s="2">
-        <v>240603</v>
-      </c>
-      <c r="K4" s="2">
-        <v>240612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2">
-        <v>240502</v>
-      </c>
-      <c r="E5" s="2">
-        <v>240507</v>
-      </c>
-      <c r="F5" s="2">
-        <v>240508</v>
-      </c>
-      <c r="G5" s="2">
-        <v>240510</v>
       </c>
       <c r="H5" s="2">
         <v>240517</v>
@@ -1456,10 +1448,10 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2">
         <v>240502</v>
@@ -1486,23 +1478,23 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="33">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="7" t="s">
-        <v>39</v>
+    <row r="7" spans="1:11">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="2">
+        <v>240502</v>
+      </c>
+      <c r="E7" s="2">
         <v>240507</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>240508</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>240510</v>
-      </c>
-      <c r="G7" s="2">
-        <v>240513</v>
       </c>
       <c r="H7" s="2">
         <v>240517</v>
@@ -1517,75 +1509,82 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="1:11" ht="33">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2">
+        <v>240507</v>
+      </c>
+      <c r="E8" s="2">
+        <v>240508</v>
+      </c>
+      <c r="F8" s="2">
+        <v>240510</v>
+      </c>
+      <c r="G8" s="2">
+        <v>240513</v>
+      </c>
+      <c r="H8" s="2">
+        <v>240517</v>
+      </c>
+      <c r="I8" s="2">
+        <v>240521</v>
+      </c>
+      <c r="J8" s="2">
+        <v>240603</v>
+      </c>
+      <c r="K8" s="2">
+        <v>240612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>240517</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <v>240521</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F9" s="2">
         <v>240524</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G9" s="2">
         <v>240527</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H9" s="2">
         <v>240530</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I9" s="2">
         <v>240603</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J9" s="2">
         <v>240612</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="2" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="8">
         <v>240808</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="8">
         <v>240809</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="8">
         <v>240810</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="8">
         <v>240815</v>
-      </c>
-      <c r="H9" s="8">
-        <v>240827</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="33">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2400810</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2400811</v>
-      </c>
-      <c r="F10" s="8">
-        <v>240814</v>
-      </c>
-      <c r="G10" s="8">
-        <v>240817</v>
       </c>
       <c r="H10" s="8">
         <v>240827</v>
@@ -1593,112 +1592,105 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:11" ht="33">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2400810</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2400811</v>
+      </c>
+      <c r="F11" s="8">
+        <v>240814</v>
+      </c>
+      <c r="G11" s="8">
+        <v>240817</v>
+      </c>
+      <c r="H11" s="8">
+        <v>240827</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="17"/>
+      <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>240517</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>240521</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12" s="2">
         <v>240524</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <v>240527</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H12" s="2">
         <v>240530</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I12" s="2">
         <v>240604</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J12" s="2">
         <v>240612</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="16"/>
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="17"/>
+      <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>240529</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>240530</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>240604</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>240612</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H13" s="8">
         <v>240617</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A13" s="16" t="s">
+    <row r="14" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <v>240522</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>240523</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <v>240527</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <v>240528</v>
-      </c>
-      <c r="H13" s="2">
-        <v>240604</v>
-      </c>
-      <c r="I13" s="2">
-        <v>240612</v>
-      </c>
-      <c r="J13" s="8">
-        <v>240626</v>
-      </c>
-      <c r="K13" s="8">
-        <v>240705</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2">
-        <v>240524</v>
-      </c>
-      <c r="E14" s="2">
-        <v>240527</v>
-      </c>
-      <c r="F14" s="2">
-        <v>240528</v>
-      </c>
-      <c r="G14" s="2">
-        <v>240530</v>
       </c>
       <c r="H14" s="2">
         <v>240604</v>
@@ -1706,64 +1698,64 @@
       <c r="I14" s="2">
         <v>240612</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="8">
+        <v>240626</v>
+      </c>
+      <c r="K14" s="8">
+        <v>240705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2">
+        <v>240524</v>
+      </c>
+      <c r="E15" s="2">
+        <v>240527</v>
+      </c>
+      <c r="F15" s="2">
+        <v>240528</v>
+      </c>
+      <c r="G15" s="2">
+        <v>240530</v>
+      </c>
+      <c r="H15" s="2">
+        <v>240604</v>
+      </c>
+      <c r="I15" s="2">
+        <v>240612</v>
+      </c>
+      <c r="J15" s="2">
         <v>240618</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K15" s="2">
         <v>240824</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="2" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <v>240527</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>240528</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
         <v>240530</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G16" s="2">
         <v>240604</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H16" s="2">
         <v>240612</v>
-      </c>
-      <c r="I15" s="8">
-        <v>240622</v>
-      </c>
-      <c r="J15" s="8">
-        <v>240626</v>
-      </c>
-      <c r="K15" s="8">
-        <v>240705</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="16"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="2">
-        <v>240529</v>
-      </c>
-      <c r="E16" s="2">
-        <v>240530</v>
-      </c>
-      <c r="F16" s="2">
-        <v>240604</v>
-      </c>
-      <c r="G16" s="2">
-        <v>240612</v>
-      </c>
-      <c r="H16" s="8">
-        <v>240617</v>
       </c>
       <c r="I16" s="8">
         <v>240622</v>
@@ -1772,487 +1764,518 @@
         <v>240626</v>
       </c>
       <c r="K16" s="8">
+        <v>240705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2">
+        <v>240529</v>
+      </c>
+      <c r="E17" s="2">
+        <v>240530</v>
+      </c>
+      <c r="F17" s="2">
+        <v>240604</v>
+      </c>
+      <c r="G17" s="2">
+        <v>240612</v>
+      </c>
+      <c r="H17" s="8">
+        <v>240617</v>
+      </c>
+      <c r="I17" s="8">
+        <v>240622</v>
+      </c>
+      <c r="J17" s="8">
+        <v>240626</v>
+      </c>
+      <c r="K17" s="8">
         <v>240709</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="49.5">
-      <c r="A17" s="16"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="7" t="s">
+    <row r="18" spans="1:11" ht="49.5">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>240613</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>240617</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="8">
         <v>240618</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="8">
         <v>240619</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H18" s="8">
         <v>240622</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I18" s="8">
         <v>240709</v>
       </c>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" ht="33">
-      <c r="A18" s="16"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="7" t="s">
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" ht="33">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <v>240618</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="8">
         <v>240619</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F19" s="8">
         <v>240622</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="8">
         <v>240626</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H19" s="8">
         <v>240705</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I19" s="8">
         <v>240719</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="16"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="2" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="8">
         <v>240710</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E20" s="8">
         <v>240711</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F20" s="8">
         <v>240713</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G20" s="8">
         <v>240719</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H20" s="8">
         <v>240724</v>
-      </c>
-      <c r="I19" s="8">
-        <v>240808</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="33">
-      <c r="A20" s="16"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="8">
-        <v>240716</v>
-      </c>
-      <c r="E20" s="8">
-        <v>240719</v>
-      </c>
-      <c r="F20" s="8">
-        <v>240724</v>
-      </c>
-      <c r="G20" s="8">
-        <v>240727</v>
-      </c>
-      <c r="H20" s="8">
-        <v>240730</v>
       </c>
       <c r="I20" s="8">
         <v>240808</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="16"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="7">
+    <row r="21" spans="1:11" ht="33">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="8">
+        <v>240716</v>
+      </c>
+      <c r="E21" s="8">
+        <v>240719</v>
+      </c>
+      <c r="F21" s="8">
+        <v>240724</v>
+      </c>
+      <c r="G21" s="8">
+        <v>240727</v>
+      </c>
+      <c r="H21" s="8">
+        <v>240730</v>
+      </c>
+      <c r="I21" s="8">
+        <v>240808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="7">
         <v>4963</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <v>240812</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="8">
         <v>240814</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F22" s="8">
         <v>240815</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G22" s="8">
         <v>240820</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H22" s="2">
         <v>240828</v>
       </c>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="7" t="s">
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <v>240823</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E23" s="8">
         <v>240824</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F23" s="8">
         <v>240830</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G23" s="8">
         <v>240903</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" ht="33">
-      <c r="A23" s="16" t="s">
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" ht="33">
+      <c r="A24" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B24" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="2">
         <v>240607</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="2">
         <v>240612</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F24" s="8">
         <v>240617</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G24" s="8">
         <v>240618</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H24" s="8">
         <v>240624</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I24" s="8">
         <v>240709</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J24" s="8">
         <v>240727</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="2" t="s">
+    <row r="25" spans="1:11">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="2">
         <v>240613</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E25" s="8">
         <v>240617</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F25" s="8">
         <v>240618</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G25" s="8">
         <v>240619</v>
       </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="2" t="s">
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D25" s="8">
-        <v>240619</v>
-      </c>
-      <c r="E25" s="8">
-        <v>240620</v>
-      </c>
-      <c r="F25" s="8">
-        <v>240624</v>
-      </c>
-      <c r="G25" s="8">
-        <v>240628</v>
-      </c>
-      <c r="H25" s="8">
-        <v>240709</v>
-      </c>
-      <c r="I25" s="8">
-        <v>240719</v>
-      </c>
-      <c r="J25" s="8">
-        <v>240727</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D26" s="8">
         <v>240619</v>
       </c>
       <c r="E26" s="8">
+        <v>240620</v>
+      </c>
+      <c r="F26" s="8">
         <v>240624</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="16" t="s">
+      <c r="G26" s="8">
+        <v>240628</v>
+      </c>
+      <c r="H26" s="8">
+        <v>240709</v>
+      </c>
+      <c r="I26" s="8">
+        <v>240719</v>
+      </c>
+      <c r="J26" s="8">
+        <v>240727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="8">
+        <v>240619</v>
+      </c>
+      <c r="E27" s="8">
+        <v>240624</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B28" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C28" s="2">
         <v>11047</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <v>240709</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="8">
         <v>240711</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F28" s="8">
         <v>240713</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G28" s="8">
         <v>240716</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H28" s="8">
         <v>240726</v>
       </c>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="2" t="s">
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="8">
         <v>240716</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E29" s="8">
         <v>240719</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F29" s="8">
         <v>240726</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G29" s="8">
         <v>240727</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H29" s="8">
         <v>240730</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I29" s="8">
         <v>240903</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="2" t="s">
+    <row r="30" spans="1:11">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <v>240812</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E30" s="8">
         <v>240815</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F30" s="8">
         <v>240817</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G30" s="8">
         <v>240902</v>
       </c>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="2" t="s">
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="16" t="s">
+    <row r="32" spans="1:11">
+      <c r="A32" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="8">
-        <v>240726</v>
-      </c>
-      <c r="E31" s="8">
-        <v>240727</v>
-      </c>
-      <c r="F31" s="8">
-        <v>240730</v>
-      </c>
-      <c r="G31" s="8">
-        <v>240806</v>
-      </c>
-      <c r="H31" s="8">
-        <v>240808</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="8">
+        <v>240726</v>
+      </c>
+      <c r="E32" s="8">
+        <v>240727</v>
+      </c>
+      <c r="F32" s="8">
         <v>240730</v>
       </c>
-      <c r="E32" s="8">
+      <c r="G32" s="8">
         <v>240806</v>
       </c>
-      <c r="F32" s="8">
+      <c r="H32" s="8">
         <v>240808</v>
       </c>
-      <c r="G32" s="8">
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="8">
+        <v>240730</v>
+      </c>
+      <c r="E33" s="8">
+        <v>240806</v>
+      </c>
+      <c r="F33" s="8">
+        <v>240808</v>
+      </c>
+      <c r="G33" s="8">
         <v>240820</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H33" s="8">
         <v>240824</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="33">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="7" t="s">
+    <row r="34" spans="1:8" ht="33">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="8">
         <v>240808</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E34" s="8">
         <v>240809</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F34" s="8">
         <v>240811</v>
-      </c>
-      <c r="G33" s="8">
-        <v>240824</v>
-      </c>
-      <c r="H33" s="8">
-        <v>240903</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="16"/>
-      <c r="B34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="8">
-        <v>240815</v>
-      </c>
-      <c r="E34" s="8">
-        <v>240817</v>
-      </c>
-      <c r="F34" s="8">
-        <v>240822</v>
       </c>
       <c r="G34" s="8">
         <v>240824</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="8">
         <v>240903</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>77</v>
+      <c r="A35" s="17"/>
+      <c r="B35" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D35" s="8">
-        <v>240809</v>
+        <v>240815</v>
       </c>
       <c r="E35" s="8">
-        <v>240810</v>
+        <v>240817</v>
       </c>
       <c r="F35" s="8">
-        <v>240814</v>
+        <v>240822</v>
       </c>
       <c r="G35" s="8">
         <v>240824</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="9">
+        <v>240903</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="8">
+        <v>240809</v>
+      </c>
+      <c r="E36" s="8">
+        <v>240810</v>
+      </c>
+      <c r="F36" s="8">
+        <v>240814</v>
+      </c>
+      <c r="G36" s="8">
+        <v>240824</v>
+      </c>
+      <c r="H36" s="8">
         <v>240830</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="2" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D37" s="8">
         <v>240814</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E37" s="8">
         <v>240815</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F37" s="8">
         <v>240824</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G37" s="8">
         <v>240830</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A3:A13"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="B13:B22"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="B14:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2318,7 +2341,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D080849-7D2C-43FB-900E-7E6E8A6AEB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A7FC68-E49A-4CA9-8DDA-971C929209A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="91">
   <si>
     <t>문제번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -737,12 +737,16 @@
     <t>투 포인터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>퀵정렬 (Quick Sort)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,17 +825,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,6 +836,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,7 +912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,11 +955,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1304,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1325,17 +1332,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1365,19 +1372,19 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="8">
@@ -1396,11 +1403,11 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>2018</v>
       </c>
       <c r="D4" s="8">
@@ -1415,8 +1422,8 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1448,8 +1455,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1486,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1510,8 +1517,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="33">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
@@ -1541,8 +1548,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1569,8 +1576,8 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="2" t="s">
         <v>76</v>
       </c>
@@ -1593,8 +1600,8 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="33">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="7" t="s">
         <v>79</v>
       </c>
@@ -1617,7 +1624,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="17"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1647,7 +1654,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="17"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1671,10 +1678,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="20" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1706,8 +1713,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1737,8 +1744,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1768,8 +1775,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1799,8 +1806,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="49.5">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1825,8 +1832,8 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:11" ht="33">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
@@ -1850,8 +1857,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1875,8 +1882,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="33">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
@@ -1900,8 +1907,8 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="7">
         <v>4963</v>
       </c>
@@ -1923,8 +1930,8 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="7" t="s">
         <v>85</v>
       </c>
@@ -1944,10 +1951,10 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:11" ht="33">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1976,8 +1983,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
@@ -1996,8 +2003,8 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2024,8 +2031,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
@@ -2040,10 +2047,10 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="2">
@@ -2067,8 +2074,8 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
@@ -2092,8 +2099,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2120,7 +2127,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2146,8 +2153,8 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2170,8 +2177,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="33">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="7" t="s">
         <v>88</v>
       </c>
@@ -2192,81 +2199,97 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="17"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="8">
+        <v>240904</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="19"/>
+      <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="8">
         <v>240815</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E36" s="8">
         <v>240817</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F36" s="8">
         <v>240822</v>
-      </c>
-      <c r="G35" s="8">
-        <v>240824</v>
-      </c>
-      <c r="H35" s="9">
-        <v>240903</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="8">
-        <v>240809</v>
-      </c>
-      <c r="E36" s="8">
-        <v>240810</v>
-      </c>
-      <c r="F36" s="8">
-        <v>240814</v>
       </c>
       <c r="G36" s="8">
         <v>240824</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="9">
+        <v>240904</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="8">
+        <v>240809</v>
+      </c>
+      <c r="E37" s="8">
+        <v>240810</v>
+      </c>
+      <c r="F37" s="8">
+        <v>240814</v>
+      </c>
+      <c r="G37" s="8">
+        <v>240824</v>
+      </c>
+      <c r="H37" s="8">
         <v>240830</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="2" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="8">
         <v>240814</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E38" s="8">
         <v>240815</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F38" s="8">
         <v>240824</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G38" s="8">
         <v>240830</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A32:A36"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A24:A27"/>
@@ -2324,7 +2347,7 @@
       <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="23" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -2341,7 +2364,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>
@@ -2363,8 +2386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -2382,39 +2405,39 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="22"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="4" t="s">
         <v>74</v>
       </c>
@@ -2428,7 +2451,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2436,48 +2459,48 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="24"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="17" t="s">
         <v>26</v>
       </c>
     </row>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A7FC68-E49A-4CA9-8DDA-971C929209A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804D177C-7FC3-4352-88F5-3359D475160A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,20 +967,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1332,17 +1332,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1372,13 +1372,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1403,7 +1403,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="19"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
@@ -1422,8 +1422,8 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1455,8 +1455,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1486,8 +1486,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1517,8 +1517,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="33">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
@@ -1548,8 +1548,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1576,8 +1576,8 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="2" t="s">
         <v>76</v>
       </c>
@@ -1600,8 +1600,8 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="33">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="7" t="s">
         <v>79</v>
       </c>
@@ -1624,7 +1624,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="19"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1654,7 +1654,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="19"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1678,10 +1678,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="22" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1713,8 +1713,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1744,8 +1744,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1775,8 +1775,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1806,8 +1806,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="49.5">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1832,8 +1832,8 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:11" ht="33">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
@@ -1857,8 +1857,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1882,8 +1882,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="33">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
@@ -1907,8 +1907,8 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="7">
         <v>4963</v>
       </c>
@@ -1930,8 +1930,8 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="7" t="s">
         <v>85</v>
       </c>
@@ -1951,10 +1951,10 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:11" ht="33">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1983,8 +1983,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
@@ -2003,8 +2003,8 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2031,8 +2031,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
@@ -2047,10 +2047,10 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="2">
@@ -2074,8 +2074,8 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
@@ -2099,8 +2099,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2127,7 +2127,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2153,8 +2153,8 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2177,8 +2177,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="33">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="7" t="s">
         <v>88</v>
       </c>
@@ -2199,7 +2199,7 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="19"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="2" t="s">
         <v>90</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="19"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
@@ -2234,15 +2234,15 @@
       <c r="G36" s="8">
         <v>240824</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="8">
         <v>240904</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2265,8 +2265,8 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2285,12 +2285,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A3:A13"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
@@ -2299,6 +2293,12 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="B14:B23"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A3:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2364,7 +2364,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804D177C-7FC3-4352-88F5-3359D475160A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B134809C-4FA5-4368-A252-1D9254BD61B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -912,7 +912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,6 +965,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1313,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1332,17 +1335,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1372,13 +1375,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1403,7 +1406,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
@@ -1422,8 +1425,8 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1455,8 +1458,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1486,8 +1489,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1517,8 +1520,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="33">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
@@ -1548,8 +1551,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1576,8 +1579,8 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="2" t="s">
         <v>76</v>
       </c>
@@ -1600,8 +1603,8 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="33">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="7" t="s">
         <v>79</v>
       </c>
@@ -1624,7 +1627,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1654,7 +1657,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1678,10 +1681,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="23" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1713,8 +1716,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="18"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1744,8 +1747,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="18"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1775,8 +1778,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="18"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1806,8 +1809,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="49.5">
-      <c r="A18" s="18"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1832,8 +1835,8 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:11" ht="33">
-      <c r="A19" s="18"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
@@ -1857,8 +1860,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="18"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1882,8 +1885,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="33">
-      <c r="A21" s="18"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
@@ -1907,8 +1910,8 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="18"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="7">
         <v>4963</v>
       </c>
@@ -1930,8 +1933,8 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="18"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="7" t="s">
         <v>85</v>
       </c>
@@ -1951,10 +1954,10 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:11" ht="33">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1983,8 +1986,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
@@ -2003,8 +2006,8 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2031,8 +2034,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
@@ -2047,10 +2050,10 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="2">
@@ -2074,8 +2077,8 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
@@ -2099,8 +2102,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2127,7 +2130,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2153,8 +2156,8 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2177,8 +2180,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="33">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="7" t="s">
         <v>88</v>
       </c>
@@ -2199,7 +2202,7 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="18"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="2" t="s">
         <v>90</v>
       </c>
@@ -2215,7 +2218,7 @@
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="18"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
@@ -2239,10 +2242,10 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2265,8 +2268,8 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2281,6 +2284,9 @@
       </c>
       <c r="G38" s="8">
         <v>240830</v>
+      </c>
+      <c r="H38" s="8">
+        <v>240904</v>
       </c>
     </row>
   </sheetData>
@@ -2347,7 +2353,7 @@
       <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -2364,7 +2370,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>
@@ -2386,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -2405,7 +2411,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -2413,31 +2419,31 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="24"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="4" t="s">
         <v>74</v>
       </c>
@@ -2451,7 +2457,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2459,31 +2465,31 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="26"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B134809C-4FA5-4368-A252-1D9254BD61B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5129F469-335C-473B-B9F8-7B9BD686258D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1316,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1399,7 +1399,9 @@
       <c r="F3" s="8">
         <v>240902</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="9">
+        <v>240905</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -1416,7 +1418,9 @@
       <c r="D4" s="8">
         <v>240904</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8">
+        <v>240905</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -2154,8 +2158,11 @@
       <c r="H32" s="8">
         <v>240808</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="9">
+        <v>240905</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="19"/>
       <c r="B33" s="19" t="s">
         <v>75</v>
@@ -2178,8 +2185,11 @@
       <c r="H33" s="8">
         <v>240824</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="33">
+      <c r="I33" s="9">
+        <v>240905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="33">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="7" t="s">
@@ -2201,7 +2211,7 @@
         <v>240903</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35" s="19"/>
       <c r="B35" s="2" t="s">
         <v>90</v>
@@ -2212,12 +2222,14 @@
       <c r="D35" s="8">
         <v>240904</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="9">
+        <v>240905</v>
+      </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="A36" s="19"/>
       <c r="B36" s="2" t="s">
         <v>82</v>
@@ -2241,7 +2253,7 @@
         <v>240904</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="A37" s="19" t="s">
         <v>77</v>
       </c>
@@ -2267,7 +2279,7 @@
         <v>240830</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="2" t="s">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5129F469-335C-473B-B9F8-7B9BD686258D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9131E9-EFA1-4192-A6D6-6576A01E23B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,20 +970,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1316,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1335,17 +1335,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1375,13 +1375,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1408,7 +1408,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
@@ -1429,8 +1429,8 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1462,8 +1462,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1493,8 +1493,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1524,8 +1524,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="33">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
@@ -1555,8 +1555,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1583,8 +1583,8 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2" t="s">
         <v>76</v>
       </c>
@@ -1607,8 +1607,8 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="33">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="7" t="s">
         <v>79</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1661,7 +1661,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1685,10 +1685,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1720,8 +1720,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1751,8 +1751,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="19"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1782,8 +1782,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="19"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1813,8 +1813,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="49.5">
-      <c r="A18" s="19"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1839,8 +1839,8 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:11" ht="33">
-      <c r="A19" s="19"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
@@ -1864,8 +1864,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="19"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1889,8 +1889,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="33">
-      <c r="A21" s="19"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
@@ -1914,8 +1914,8 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="19"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="7">
         <v>4963</v>
       </c>
@@ -1937,8 +1937,8 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="19"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="7" t="s">
         <v>85</v>
       </c>
@@ -1958,10 +1958,10 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:11" ht="33">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1990,8 +1990,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
@@ -2010,8 +2010,8 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2038,8 +2038,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
@@ -2054,10 +2054,10 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="2">
@@ -2081,8 +2081,8 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
@@ -2106,8 +2106,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2134,7 +2134,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2158,13 +2158,13 @@
       <c r="H32" s="8">
         <v>240808</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="8">
         <v>240905</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19" t="s">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2190,8 +2190,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="33">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="7" t="s">
         <v>88</v>
       </c>
@@ -2212,7 +2212,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="19"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="2" t="s">
         <v>90</v>
       </c>
@@ -2230,7 +2230,7 @@
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="19"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
@@ -2254,10 +2254,10 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2280,8 +2280,8 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2303,6 +2303,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A3:A13"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
@@ -2311,12 +2317,6 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="B14:B23"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A3:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2382,7 +2382,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9131E9-EFA1-4192-A6D6-6576A01E23B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66908971-E295-422C-B15E-404A5F133266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,20 +970,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1316,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1335,17 +1335,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1375,13 +1375,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1399,7 +1399,7 @@
       <c r="F3" s="8">
         <v>240902</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>240905</v>
       </c>
       <c r="H3" s="9"/>
@@ -1408,7 +1408,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
@@ -1429,8 +1429,8 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1462,8 +1462,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1493,8 +1493,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1524,8 +1524,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="33">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
@@ -1555,8 +1555,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1583,8 +1583,8 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="2" t="s">
         <v>76</v>
       </c>
@@ -1607,8 +1607,8 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="33">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="7" t="s">
         <v>79</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1661,7 +1661,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1685,10 +1685,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="23" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1720,8 +1720,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1751,8 +1751,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1782,8 +1782,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1813,8 +1813,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="49.5">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1839,8 +1839,8 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:11" ht="33">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
@@ -1864,8 +1864,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1889,8 +1889,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="33">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
@@ -1914,8 +1914,8 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="7">
         <v>4963</v>
       </c>
@@ -1937,8 +1937,8 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="7" t="s">
         <v>85</v>
       </c>
@@ -1958,10 +1958,10 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:11" ht="33">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1990,8 +1990,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
@@ -2010,8 +2010,8 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2038,8 +2038,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
@@ -2054,10 +2054,10 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="2">
@@ -2081,8 +2081,8 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
@@ -2106,8 +2106,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2134,7 +2134,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2163,8 +2163,8 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2190,8 +2190,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="33">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="7" t="s">
         <v>88</v>
       </c>
@@ -2212,7 +2212,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="20"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="2" t="s">
         <v>90</v>
       </c>
@@ -2230,7 +2230,7 @@
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="20"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
@@ -2254,10 +2254,10 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2280,8 +2280,8 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2303,12 +2303,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A3:A13"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
@@ -2317,6 +2311,12 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="B14:B23"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A3:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2382,7 +2382,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeuk/IdeaProjects/AlgorithmStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66908971-E295-422C-B15E-404A5F133266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA7FDDE-8268-B14B-A21C-EA6B85AC5EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -970,20 +970,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1316,36 +1316,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="2" width="35.875" customWidth="1"/>
-    <col min="3" max="3" width="83.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
-    <col min="7" max="7" width="25.125" customWidth="1"/>
-    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="1" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1375,13 +1375,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="22"/>
-    </row>
-    <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="19" t="s">
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" ht="36">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1408,7 +1408,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
@@ -1429,8 +1429,8 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1462,8 +1462,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1493,8 +1493,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1523,9 +1523,9 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="33">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+    <row r="8" spans="1:11" ht="36">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
@@ -1555,8 +1555,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1583,8 +1583,8 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2" t="s">
         <v>76</v>
       </c>
@@ -1606,9 +1606,9 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="33">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+    <row r="11" spans="1:11" ht="36">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="7" t="s">
         <v>79</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1661,7 +1661,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1685,10 +1685,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1720,8 +1720,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1751,8 +1751,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="19"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1782,8 +1782,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="19"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1812,9 +1812,9 @@
         <v>240709</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="49.5">
-      <c r="A18" s="19"/>
-      <c r="B18" s="23"/>
+    <row r="18" spans="1:11" ht="54">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1838,9 +1838,9 @@
       </c>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="1:11" ht="33">
-      <c r="A19" s="19"/>
-      <c r="B19" s="23"/>
+    <row r="19" spans="1:11" ht="36">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
@@ -1864,8 +1864,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="19"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1888,9 +1888,9 @@
         <v>240808</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="33">
-      <c r="A21" s="19"/>
-      <c r="B21" s="23"/>
+    <row r="21" spans="1:11" ht="36">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
@@ -1914,8 +1914,8 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="19"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="7">
         <v>4963</v>
       </c>
@@ -1936,9 +1936,9 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="19"/>
-      <c r="B23" s="23"/>
+    <row r="23" spans="1:11" ht="18">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="7" t="s">
         <v>85</v>
       </c>
@@ -1957,11 +1957,11 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:11" ht="33">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:11" ht="36">
+      <c r="A24" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1990,8 +1990,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
@@ -2010,8 +2010,8 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2038,8 +2038,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
@@ -2054,10 +2054,10 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="2">
@@ -2081,8 +2081,8 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
@@ -2106,8 +2106,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2134,7 +2134,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2163,8 +2163,8 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19" t="s">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2186,12 +2186,12 @@
         <v>240824</v>
       </c>
       <c r="I33" s="9">
-        <v>240905</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="33">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
+        <v>240907</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="36">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="7" t="s">
         <v>88</v>
       </c>
@@ -2212,7 +2212,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="19"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="2" t="s">
         <v>90</v>
       </c>
@@ -2223,14 +2223,14 @@
         <v>240904</v>
       </c>
       <c r="E35" s="9">
-        <v>240905</v>
+        <v>240907</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="19"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
@@ -2254,10 +2254,10 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2280,8 +2280,8 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2303,6 +2303,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A3:A13"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
@@ -2311,12 +2317,6 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="B14:B23"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A3:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2333,12 +2333,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.625" customWidth="1"/>
-    <col min="4" max="4" width="67.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2358,7 +2358,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="66">
+    <row r="2" spans="1:5" ht="72">
       <c r="A2" s="2">
         <v>10026</v>
       </c>
@@ -2382,7 +2382,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>
@@ -2408,10 +2408,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2546,9 +2546,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeuk/IdeaProjects/AlgorithmStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA7FDDE-8268-B14B-A21C-EA6B85AC5EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E7E057-9247-D745-9AC2-17F93406CE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -912,7 +912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,6 +998,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1316,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2185,7 +2188,7 @@
       <c r="H33" s="8">
         <v>240824</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="29">
         <v>240907</v>
       </c>
     </row>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66908971-E295-422C-B15E-404A5F133266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8204E6-4567-4E8B-BDC6-3F2CB17D2CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,20 +970,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1317,7 +1317,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1335,17 +1335,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1375,13 +1375,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1408,7 +1408,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
@@ -1421,7 +1421,9 @@
       <c r="E4" s="8">
         <v>240905</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="9">
+        <v>240909</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -1429,8 +1431,8 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1462,8 +1464,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1493,8 +1495,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1524,8 +1526,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="33">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
@@ -1555,8 +1557,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1583,8 +1585,8 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2" t="s">
         <v>76</v>
       </c>
@@ -1607,8 +1609,8 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="33">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="7" t="s">
         <v>79</v>
       </c>
@@ -1631,7 +1633,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1661,7 +1663,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1685,10 +1687,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1720,8 +1722,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1751,8 +1753,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="19"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1782,8 +1784,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="19"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1813,8 +1815,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="49.5">
-      <c r="A18" s="19"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1839,8 +1841,8 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:11" ht="33">
-      <c r="A19" s="19"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
@@ -1864,8 +1866,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="19"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1889,8 +1891,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="33">
-      <c r="A21" s="19"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
@@ -1912,10 +1914,13 @@
       <c r="I21" s="8">
         <v>240808</v>
       </c>
+      <c r="J21" s="9">
+        <v>240909</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="19"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="7">
         <v>4963</v>
       </c>
@@ -1937,8 +1942,8 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="19"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="7" t="s">
         <v>85</v>
       </c>
@@ -1958,10 +1963,10 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:11" ht="33">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1990,8 +1995,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
@@ -2010,8 +2015,8 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2038,8 +2043,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
@@ -2054,10 +2059,10 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="2">
@@ -2081,8 +2086,8 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
@@ -2106,8 +2111,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2134,7 +2139,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2163,8 +2168,8 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19" t="s">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2186,12 +2191,12 @@
         <v>240824</v>
       </c>
       <c r="I33" s="9">
-        <v>240905</v>
+        <v>240909</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="33">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="7" t="s">
         <v>88</v>
       </c>
@@ -2212,7 +2217,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="19"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="2" t="s">
         <v>90</v>
       </c>
@@ -2223,14 +2228,14 @@
         <v>240904</v>
       </c>
       <c r="E35" s="9">
-        <v>240905</v>
+        <v>240909</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="19"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
@@ -2254,10 +2259,10 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2280,8 +2285,8 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2303,6 +2308,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A3:A13"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
@@ -2311,12 +2322,6 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="B14:B23"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A3:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2382,7 +2387,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeuk/IdeaProjects/AlgorithmStudy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E7E057-9247-D745-9AC2-17F93406CE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACC36B5-47DB-43E0-8A1C-10624F9696BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -912,7 +912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,20 +970,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -998,9 +998,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1319,36 +1316,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="35.83203125" customWidth="1"/>
-    <col min="3" max="3" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="1" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="83.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1378,13 +1375,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="36">
-      <c r="A3" s="20" t="s">
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" ht="33">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1411,7 +1408,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
@@ -1424,7 +1421,9 @@
       <c r="E4" s="8">
         <v>240905</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="9">
+        <v>240909</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -1432,8 +1431,8 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1465,8 +1464,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1496,8 +1495,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1526,9 +1525,9 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="36">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+    <row r="8" spans="1:11" ht="33">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
@@ -1558,8 +1557,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1586,8 +1585,8 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="2" t="s">
         <v>76</v>
       </c>
@@ -1606,12 +1605,14 @@
       <c r="H10" s="8">
         <v>240827</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="9">
+        <v>240909</v>
+      </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="36">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
+    <row r="11" spans="1:11" ht="33">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="7" t="s">
         <v>79</v>
       </c>
@@ -1634,7 +1635,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1664,7 +1665,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1688,10 +1689,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="23" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1723,8 +1724,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1754,8 +1755,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1785,8 +1786,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1815,9 +1816,9 @@
         <v>240709</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="54">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
+    <row r="18" spans="1:11" ht="49.5">
+      <c r="A18" s="19"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1841,9 +1842,9 @@
       </c>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="1:11" ht="36">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
+    <row r="19" spans="1:11" ht="33">
+      <c r="A19" s="19"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
@@ -1865,10 +1866,13 @@
       <c r="I19" s="8">
         <v>240719</v>
       </c>
+      <c r="J19" s="9">
+        <v>240909</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1891,9 +1895,9 @@
         <v>240808</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="36">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
+    <row r="21" spans="1:11" ht="33">
+      <c r="A21" s="19"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
@@ -1915,10 +1919,13 @@
       <c r="I21" s="8">
         <v>240808</v>
       </c>
+      <c r="J21" s="9">
+        <v>240909</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="7">
         <v>4963</v>
       </c>
@@ -1939,9 +1946,9 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:11" ht="18">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
+    <row r="23" spans="1:11">
+      <c r="A23" s="19"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="7" t="s">
         <v>85</v>
       </c>
@@ -1960,11 +1967,11 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:11" ht="36">
-      <c r="A24" s="20" t="s">
+    <row r="24" spans="1:11" ht="33">
+      <c r="A24" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1993,8 +2000,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
@@ -2013,8 +2020,8 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2041,8 +2048,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
@@ -2057,10 +2064,10 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="2">
@@ -2084,8 +2091,8 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
@@ -2109,8 +2116,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2137,7 +2144,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2166,8 +2173,8 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2188,13 +2195,13 @@
       <c r="H33" s="8">
         <v>240824</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="2">
         <v>240907</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="36">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
+    <row r="34" spans="1:9" ht="33">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="7" t="s">
         <v>88</v>
       </c>
@@ -2215,7 +2222,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="20"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="2" t="s">
         <v>90</v>
       </c>
@@ -2233,7 +2240,7 @@
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="20"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
@@ -2257,10 +2264,10 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2283,8 +2290,8 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2306,12 +2313,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A3:A13"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
@@ -2320,6 +2321,12 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="B14:B23"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A3:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2336,12 +2343,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" customWidth="1"/>
-    <col min="4" max="4" width="67.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.625" customWidth="1"/>
+    <col min="4" max="4" width="67.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2361,7 +2368,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72">
+    <row r="2" spans="1:5" ht="66">
       <c r="A2" s="2">
         <v>10026</v>
       </c>
@@ -2385,7 +2392,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>
@@ -2411,10 +2418,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="2" max="2" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2549,9 +2556,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACC36B5-47DB-43E0-8A1C-10624F9696BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CE0449-EED3-449B-B093-6EF1CC721AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,20 +970,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1317,7 +1317,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1335,17 +1335,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1375,13 +1375,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1408,7 +1408,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
@@ -1421,7 +1421,7 @@
       <c r="E4" s="8">
         <v>240905</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>240909</v>
       </c>
       <c r="G4" s="9"/>
@@ -1431,8 +1431,8 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1464,8 +1464,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1495,8 +1495,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1526,8 +1526,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="33">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
@@ -1557,8 +1557,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1585,8 +1585,8 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2" t="s">
         <v>76</v>
       </c>
@@ -1611,8 +1611,8 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="33">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="7" t="s">
         <v>79</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1665,7 +1665,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1689,10 +1689,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1724,8 +1724,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1755,8 +1755,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="19"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1786,8 +1786,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="19"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1817,8 +1817,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="49.5">
-      <c r="A18" s="19"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1843,8 +1843,8 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:11" ht="33">
-      <c r="A19" s="19"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
@@ -1871,8 +1871,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="19"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1896,8 +1896,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="33">
-      <c r="A21" s="19"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
@@ -1924,8 +1924,8 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="19"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="7">
         <v>4963</v>
       </c>
@@ -1947,8 +1947,8 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="19"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="7" t="s">
         <v>85</v>
       </c>
@@ -1968,10 +1968,10 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:11" ht="33">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -2000,8 +2000,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
@@ -2020,8 +2020,8 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2048,8 +2048,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
@@ -2064,10 +2064,10 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="2">
@@ -2091,8 +2091,8 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
@@ -2116,8 +2116,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2144,7 +2144,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2173,8 +2173,8 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19" t="s">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2200,8 +2200,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="33">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="7" t="s">
         <v>88</v>
       </c>
@@ -2222,7 +2222,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="19"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="2" t="s">
         <v>90</v>
       </c>
@@ -2240,7 +2240,7 @@
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="19"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
@@ -2264,10 +2264,10 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2290,8 +2290,8 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2313,6 +2313,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A3:A13"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
@@ -2321,12 +2327,6 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="B14:B23"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A3:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2392,7 +2392,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CE0449-EED3-449B-B093-6EF1CC721AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55BF6D2-8197-4253-91ED-B47D3069CB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1316,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1866,7 +1866,7 @@
       <c r="I19" s="8">
         <v>240719</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>240909</v>
       </c>
     </row>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55BF6D2-8197-4253-91ED-B47D3069CB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A3FA0A-3961-494A-AAAF-324A4E766B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,20 +970,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1316,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1335,17 +1335,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1375,13 +1375,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1408,7 +1408,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
@@ -1431,8 +1431,8 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1464,8 +1464,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1495,8 +1495,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1526,8 +1526,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="33">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
@@ -1557,8 +1557,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1585,8 +1585,8 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="2" t="s">
         <v>76</v>
       </c>
@@ -1611,8 +1611,8 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="33">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="7" t="s">
         <v>79</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1665,7 +1665,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1689,10 +1689,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="23" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1724,8 +1724,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1755,8 +1755,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1786,8 +1786,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1817,8 +1817,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="49.5">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1843,8 +1843,8 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:11" ht="33">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
@@ -1871,8 +1871,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1896,8 +1896,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="33">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
@@ -1919,13 +1919,13 @@
       <c r="I21" s="8">
         <v>240808</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <v>240909</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="7">
         <v>4963</v>
       </c>
@@ -1947,8 +1947,8 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="7" t="s">
         <v>85</v>
       </c>
@@ -1968,10 +1968,10 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:11" ht="33">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -2000,8 +2000,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
@@ -2020,8 +2020,8 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2048,8 +2048,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
@@ -2064,10 +2064,10 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="2">
@@ -2091,8 +2091,8 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
@@ -2116,8 +2116,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2144,7 +2144,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2173,8 +2173,8 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2200,8 +2200,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="33">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="7" t="s">
         <v>88</v>
       </c>
@@ -2222,7 +2222,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="20"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="2" t="s">
         <v>90</v>
       </c>
@@ -2240,7 +2240,7 @@
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="20"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
@@ -2264,10 +2264,10 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2290,8 +2290,8 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2313,12 +2313,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A3:A13"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
@@ -2327,6 +2321,12 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="B14:B23"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A3:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2392,7 +2392,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A3FA0A-3961-494A-AAAF-324A4E766B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149B100F-8BAA-4DB8-AAAC-5DEA2F2D2ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,20 +970,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1316,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1335,17 +1335,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1375,13 +1375,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1408,7 +1408,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
@@ -1431,8 +1431,8 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1464,8 +1464,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1495,8 +1495,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1526,8 +1526,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="33">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
@@ -1557,8 +1557,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1585,8 +1585,8 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2" t="s">
         <v>76</v>
       </c>
@@ -1605,14 +1605,14 @@
       <c r="H10" s="8">
         <v>240827</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>240909</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="33">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="7" t="s">
         <v>79</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1665,7 +1665,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1689,10 +1689,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1724,8 +1724,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1755,8 +1755,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="19"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1786,8 +1786,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="19"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1817,8 +1817,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="49.5">
-      <c r="A18" s="19"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1843,8 +1843,8 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:11" ht="33">
-      <c r="A19" s="19"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
@@ -1871,8 +1871,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="19"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1896,8 +1896,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="33">
-      <c r="A21" s="19"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
@@ -1924,8 +1924,8 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="19"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="7">
         <v>4963</v>
       </c>
@@ -1947,8 +1947,8 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="19"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="7" t="s">
         <v>85</v>
       </c>
@@ -1968,10 +1968,10 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:11" ht="33">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -2000,8 +2000,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
@@ -2020,8 +2020,8 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2048,8 +2048,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
@@ -2064,10 +2064,10 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="2">
@@ -2091,8 +2091,8 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
@@ -2116,8 +2116,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2144,7 +2144,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2173,8 +2173,8 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19" t="s">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2200,8 +2200,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="33">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="7" t="s">
         <v>88</v>
       </c>
@@ -2222,7 +2222,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="19"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="2" t="s">
         <v>90</v>
       </c>
@@ -2240,7 +2240,7 @@
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="19"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
@@ -2264,10 +2264,10 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2290,8 +2290,8 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2313,6 +2313,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A3:A13"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
@@ -2321,12 +2327,6 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="B14:B23"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A3:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2392,7 +2392,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeuk/IdeaProjects/AlgorithmStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149B100F-8BAA-4DB8-AAAC-5DEA2F2D2ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7764FDEB-31D2-0F4B-91C4-9EA4F03AC226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="500" windowWidth="32480" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -970,20 +970,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1316,36 +1316,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="2" width="35.875" customWidth="1"/>
-    <col min="3" max="3" width="83.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
-    <col min="7" max="7" width="25.125" customWidth="1"/>
-    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="1" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1375,13 +1375,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="20" t="s">
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" ht="36">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1408,7 +1408,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
@@ -1431,8 +1431,8 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1464,8 +1464,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1495,8 +1495,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1525,9 +1525,9 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="33">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+    <row r="8" spans="1:11" ht="36">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
@@ -1557,8 +1557,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1585,8 +1585,8 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="2" t="s">
         <v>76</v>
       </c>
@@ -1610,9 +1610,9 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="33">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
+    <row r="11" spans="1:11" ht="36">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="7" t="s">
         <v>79</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1665,7 +1665,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1689,10 +1689,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="23" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1724,8 +1724,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1755,8 +1755,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1786,8 +1786,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1816,9 +1816,9 @@
         <v>240709</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="49.5">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
+    <row r="18" spans="1:11" ht="54">
+      <c r="A18" s="19"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1842,9 +1842,9 @@
       </c>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="1:11" ht="33">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
+    <row r="19" spans="1:11" ht="36">
+      <c r="A19" s="19"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
@@ -1871,8 +1871,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1895,9 +1895,9 @@
         <v>240808</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="33">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
+    <row r="21" spans="1:11" ht="36">
+      <c r="A21" s="19"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
@@ -1924,8 +1924,8 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="7">
         <v>4963</v>
       </c>
@@ -1946,9 +1946,9 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
+    <row r="23" spans="1:11" ht="18">
+      <c r="A23" s="19"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="7" t="s">
         <v>85</v>
       </c>
@@ -1967,11 +1967,11 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:11" ht="33">
-      <c r="A24" s="20" t="s">
+    <row r="24" spans="1:11" ht="36">
+      <c r="A24" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -2000,8 +2000,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
@@ -2020,8 +2020,8 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2048,8 +2048,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
@@ -2064,10 +2064,10 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="2">
@@ -2091,8 +2091,8 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
@@ -2116,8 +2116,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2144,7 +2144,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2173,8 +2173,8 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2199,9 +2199,9 @@
         <v>240907</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="33">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
+    <row r="34" spans="1:9" ht="36">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="7" t="s">
         <v>88</v>
       </c>
@@ -2222,7 +2222,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="20"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="2" t="s">
         <v>90</v>
       </c>
@@ -2233,14 +2233,14 @@
         <v>240904</v>
       </c>
       <c r="E35" s="9">
-        <v>240907</v>
+        <v>240909</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="20"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
@@ -2264,10 +2264,10 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2290,8 +2290,8 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2313,12 +2313,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A3:A13"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
@@ -2327,6 +2321,12 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="B14:B23"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A3:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2343,12 +2343,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.625" customWidth="1"/>
-    <col min="4" max="4" width="67.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2368,7 +2368,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="66">
+    <row r="2" spans="1:5" ht="72">
       <c r="A2" s="2">
         <v>10026</v>
       </c>
@@ -2392,7 +2392,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>
@@ -2418,10 +2418,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2556,9 +2556,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeuk/IdeaProjects/AlgorithmStudy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7764FDEB-31D2-0F4B-91C4-9EA4F03AC226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0E27A7-EC87-4AB3-8342-F81D04EF76EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="32480" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -970,20 +970,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1316,36 +1316,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="35.83203125" customWidth="1"/>
-    <col min="3" max="3" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="1" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="83.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1375,13 +1375,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="22"/>
-    </row>
-    <row r="3" spans="1:11" ht="36">
-      <c r="A3" s="19" t="s">
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" ht="33">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1402,13 +1402,15 @@
       <c r="G3" s="8">
         <v>240905</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="8">
+        <v>240913</v>
+      </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
@@ -1424,15 +1426,17 @@
       <c r="F4" s="8">
         <v>240909</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9">
+        <v>240913</v>
+      </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1464,8 +1468,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1495,8 +1499,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1525,9 +1529,9 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="36">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+    <row r="8" spans="1:11" ht="33">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
@@ -1557,8 +1561,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1585,8 +1589,8 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2" t="s">
         <v>76</v>
       </c>
@@ -1610,9 +1614,9 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="36">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+    <row r="11" spans="1:11" ht="33">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="7" t="s">
         <v>79</v>
       </c>
@@ -1635,7 +1639,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1665,7 +1669,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1689,10 +1693,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1724,8 +1728,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1755,8 +1759,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="19"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1786,8 +1790,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="19"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1816,9 +1820,9 @@
         <v>240709</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="54">
-      <c r="A18" s="19"/>
-      <c r="B18" s="23"/>
+    <row r="18" spans="1:11" ht="49.5">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1842,9 +1846,9 @@
       </c>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="1:11" ht="36">
-      <c r="A19" s="19"/>
-      <c r="B19" s="23"/>
+    <row r="19" spans="1:11" ht="33">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
@@ -1871,8 +1875,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="19"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1895,9 +1899,9 @@
         <v>240808</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="36">
-      <c r="A21" s="19"/>
-      <c r="B21" s="23"/>
+    <row r="21" spans="1:11" ht="33">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
@@ -1924,8 +1928,8 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="19"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="7">
         <v>4963</v>
       </c>
@@ -1946,9 +1950,9 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:11" ht="18">
-      <c r="A23" s="19"/>
-      <c r="B23" s="23"/>
+    <row r="23" spans="1:11">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="7" t="s">
         <v>85</v>
       </c>
@@ -1967,11 +1971,11 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:11" ht="36">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:11" ht="33">
+      <c r="A24" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -2000,8 +2004,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
@@ -2020,8 +2024,8 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2048,8 +2052,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
@@ -2064,10 +2068,10 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="2">
@@ -2091,8 +2095,8 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
@@ -2116,8 +2120,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2133,7 +2137,9 @@
       <c r="G30" s="8">
         <v>240902</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="9">
+        <v>240913</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="2" t="s">
@@ -2144,7 +2150,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2173,8 +2179,8 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19" t="s">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2199,9 +2205,9 @@
         <v>240907</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="36">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
+    <row r="34" spans="1:9" ht="33">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="7" t="s">
         <v>88</v>
       </c>
@@ -2220,9 +2226,12 @@
       <c r="H34" s="8">
         <v>240903</v>
       </c>
+      <c r="I34" s="9">
+        <v>240913</v>
+      </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="19"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="2" t="s">
         <v>90</v>
       </c>
@@ -2232,15 +2241,17 @@
       <c r="D35" s="8">
         <v>240904</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>240909</v>
       </c>
-      <c r="F35" s="8"/>
+      <c r="F35" s="9">
+        <v>240913</v>
+      </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="19"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
@@ -2264,10 +2275,10 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2290,8 +2301,8 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2313,6 +2324,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A3:A13"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
@@ -2321,12 +2338,6 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="B14:B23"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A3:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2343,12 +2354,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" customWidth="1"/>
-    <col min="4" max="4" width="67.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.625" customWidth="1"/>
+    <col min="4" max="4" width="67.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2368,7 +2379,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72">
+    <row r="2" spans="1:5" ht="66">
       <c r="A2" s="2">
         <v>10026</v>
       </c>
@@ -2392,7 +2403,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>
@@ -2418,10 +2429,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="2" max="2" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2556,9 +2567,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/알고리즘 계획표.xlsx
+++ b/알고리즘 계획표.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0E27A7-EC87-4AB3-8342-F81D04EF76EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB262678-F531-4F3A-8761-C04019FB380D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,20 +970,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1316,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1335,17 +1335,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1375,13 +1375,13 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1410,7 +1410,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
@@ -1435,8 +1435,8 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1468,8 +1468,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1499,8 +1499,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1530,8 +1530,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="33">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
@@ -1561,8 +1561,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1589,8 +1589,8 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="2" t="s">
         <v>76</v>
       </c>
@@ -1615,8 +1615,8 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="33">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="7" t="s">
         <v>79</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1669,7 +1669,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1693,10 +1693,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="23" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1728,8 +1728,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1759,8 +1759,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1790,8 +1790,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1821,8 +1821,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="49.5">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1847,8 +1847,8 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:11" ht="33">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
@@ -1875,8 +1875,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1900,8 +1900,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="33">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
@@ -1928,8 +1928,8 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="7">
         <v>4963</v>
       </c>
@@ -1948,11 +1948,13 @@
       <c r="H22" s="2">
         <v>240828</v>
       </c>
-      <c r="I22" s="8"/>
+      <c r="I22" s="2">
+        <v>241007</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="7" t="s">
         <v>85</v>
       </c>
@@ -1972,10 +1974,10 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:11" ht="33">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -2004,8 +2006,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
@@ -2024,8 +2026,8 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2052,8 +2054,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
@@ -2068,10 +2070,10 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="2">
@@ -2095,8 +2097,8 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
@@ -2120,8 +2122,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2150,7 +2152,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2179,8 +2181,8 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2206,8 +2208,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="33">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="7" t="s">
         <v>88</v>
       </c>
@@ -2231,7 +2233,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="20"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="2" t="s">
         <v>90</v>
       </c>
@@ -2251,7 +2253,7 @@
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="20"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
@@ -2275,10 +2277,10 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2301,8 +2303,8 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2324,12 +2326,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A3:A13"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
@@ -2338,6 +2334,12 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="B14:B23"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A3:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2403,7 +2405,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>
